--- a/data/2021_waters_collection_Turkana_IsoWater.xlsx
+++ b/data/2021_waters_collection_Turkana_IsoWater.xlsx
@@ -1,22 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://umich-my.sharepoint.com/personal/daeunlee_umich_edu/Documents/2020 Research/Picarro L2130/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emojifilesystem/RND/Turkana-waters/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="8_{806788A0-818D-48CC-8408-72F159CC712B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B473168-C49C-4183-A04A-F58DDDFA569E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{354E380B-B9BA-284B-A234-78939FF85D8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19740" yWindow="460" windowWidth="27840" windowHeight="15580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7miMPIgZsuJwXmkLIsTfuVwiozhAnA=="/>
     </ext>
@@ -25,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
   <si>
     <t>SampleID</t>
   </si>
@@ -146,6 +155,9 @@
   <si>
     <t>Calibrated d2H Mean</t>
   </si>
+  <si>
+    <t>Calculated D-excess</t>
+  </si>
 </sst>
 </file>
 
@@ -153,7 +165,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#0.00"/>
-    <numFmt numFmtId="166" formatCode="#0.0"/>
+    <numFmt numFmtId="165" formatCode="#0.0"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -206,7 +218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -226,12 +238,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,21 +463,22 @@
   <dimension ref="A1:W1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.26953125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.26953125" customWidth="1"/>
-    <col min="2" max="3" width="10.54296875" customWidth="1"/>
-    <col min="4" max="4" width="12.26953125" customWidth="1"/>
-    <col min="5" max="5" width="26.81640625" customWidth="1"/>
-    <col min="6" max="6" width="18.453125" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="23" width="10.54296875" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="3" width="10.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="26.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="20.28515625" customWidth="1"/>
+    <col min="10" max="23" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -486,7 +500,9 @@
       <c r="G1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -503,7 +519,7 @@
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
     </row>
-    <row r="2" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -525,7 +541,10 @@
       <c r="G2" s="11">
         <v>-0.56415138938187204</v>
       </c>
-      <c r="H2" s="5"/>
+      <c r="H2" s="13">
+        <f>G2-(8*F2)</f>
+        <v>8.5677894173801494</v>
+      </c>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
@@ -542,7 +561,7 @@
       <c r="V2" s="5"/>
       <c r="W2" s="5"/>
     </row>
-    <row r="3" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -564,7 +583,10 @@
       <c r="G3" s="11">
         <v>2.4547674996588425E-2</v>
       </c>
-      <c r="H3" s="5"/>
+      <c r="H3" s="13">
+        <f t="shared" ref="H3:H19" si="0">G3-(8*F3)</f>
+        <v>9.7284676986908334</v>
+      </c>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
@@ -581,7 +603,7 @@
       <c r="V3" s="5"/>
       <c r="W3" s="5"/>
     </row>
-    <row r="4" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -603,7 +625,10 @@
       <c r="G4" s="11">
         <v>1.8707978921769495</v>
       </c>
-      <c r="H4" s="5"/>
+      <c r="H4" s="13">
+        <f t="shared" si="0"/>
+        <v>11.60105906401939</v>
+      </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
@@ -620,7 +645,7 @@
       <c r="V4" s="5"/>
       <c r="W4" s="5"/>
     </row>
-    <row r="5" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -642,7 +667,10 @@
       <c r="G5" s="11">
         <v>3.51289080763152</v>
       </c>
-      <c r="H5" s="5"/>
+      <c r="H5" s="13">
+        <f t="shared" si="0"/>
+        <v>8.3549874874018659</v>
+      </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
@@ -659,7 +687,7 @@
       <c r="V5" s="5"/>
       <c r="W5" s="5"/>
     </row>
-    <row r="6" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -681,7 +709,10 @@
       <c r="G6" s="11">
         <v>3.1529250222912388</v>
       </c>
-      <c r="H6" s="5"/>
+      <c r="H6" s="13">
+        <f t="shared" si="0"/>
+        <v>8.283519991303713</v>
+      </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
@@ -698,7 +729,7 @@
       <c r="V6" s="5"/>
       <c r="W6" s="5"/>
     </row>
-    <row r="7" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -720,7 +751,10 @@
       <c r="G7" s="11">
         <v>3.3951509947558276</v>
       </c>
-      <c r="H7" s="5"/>
+      <c r="H7" s="13">
+        <f t="shared" si="0"/>
+        <v>8.3150167785827485</v>
+      </c>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
@@ -737,7 +771,7 @@
       <c r="V7" s="5"/>
       <c r="W7" s="5"/>
     </row>
-    <row r="8" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
@@ -759,7 +793,10 @@
       <c r="G8" s="11">
         <v>3.5944894774007583</v>
       </c>
-      <c r="H8" s="5"/>
+      <c r="H8" s="13">
+        <f t="shared" si="0"/>
+        <v>8.2133135681054554</v>
+      </c>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
@@ -776,7 +813,7 @@
       <c r="V8" s="5"/>
       <c r="W8" s="5"/>
     </row>
-    <row r="9" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
@@ -798,7 +835,10 @@
       <c r="G9" s="11">
         <v>3.6182623181996703</v>
       </c>
-      <c r="H9" s="5"/>
+      <c r="H9" s="13">
+        <f t="shared" si="0"/>
+        <v>8.0414093083749218</v>
+      </c>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
@@ -815,7 +855,7 @@
       <c r="V9" s="5"/>
       <c r="W9" s="5"/>
     </row>
-    <row r="10" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -837,7 +877,10 @@
       <c r="G10" s="12">
         <v>40.299999999999997</v>
       </c>
-      <c r="H10" s="5"/>
+      <c r="H10" s="13">
+        <f t="shared" si="0"/>
+        <v>-0.26000000000000512</v>
+      </c>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
@@ -854,7 +897,7 @@
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
     </row>
-    <row r="11" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -876,7 +919,10 @@
       <c r="G11" s="11">
         <v>-4.4829756932403431</v>
       </c>
-      <c r="H11" s="5"/>
+      <c r="H11" s="13">
+        <f t="shared" si="0"/>
+        <v>16.905125044760176</v>
+      </c>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
@@ -893,7 +939,7 @@
       <c r="V11" s="5"/>
       <c r="W11" s="5"/>
     </row>
-    <row r="12" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
@@ -915,7 +961,10 @@
       <c r="G12" s="12">
         <v>0.77</v>
       </c>
-      <c r="H12" s="5"/>
+      <c r="H12" s="13">
+        <f t="shared" si="0"/>
+        <v>10.129999999999999</v>
+      </c>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
@@ -932,7 +981,7 @@
       <c r="V12" s="5"/>
       <c r="W12" s="5"/>
     </row>
-    <row r="13" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
@@ -954,7 +1003,10 @@
       <c r="G13" s="11">
         <v>3.2354874558766493</v>
       </c>
-      <c r="H13" s="5"/>
+      <c r="H13" s="13">
+        <f t="shared" si="0"/>
+        <v>13.783578560701129</v>
+      </c>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
@@ -971,7 +1023,7 @@
       <c r="V13" s="5"/>
       <c r="W13" s="5"/>
     </row>
-    <row r="14" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
@@ -993,7 +1045,10 @@
       <c r="G14" s="11">
         <v>2.3149323841295946</v>
       </c>
-      <c r="H14" s="5"/>
+      <c r="H14" s="13">
+        <f t="shared" si="0"/>
+        <v>9.5427844818935572</v>
+      </c>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
@@ -1010,7 +1065,7 @@
       <c r="V14" s="5"/>
       <c r="W14" s="5"/>
     </row>
-    <row r="15" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>29</v>
       </c>
@@ -1032,7 +1087,10 @@
       <c r="G15" s="11">
         <v>-21.004939421181422</v>
       </c>
-      <c r="H15" s="5"/>
+      <c r="H15" s="13">
+        <f t="shared" si="0"/>
+        <v>5.7881140487510123</v>
+      </c>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
@@ -1049,7 +1107,7 @@
       <c r="V15" s="5"/>
       <c r="W15" s="5"/>
     </row>
-    <row r="16" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>31</v>
       </c>
@@ -1071,7 +1129,10 @@
       <c r="G16" s="12">
         <v>14.37</v>
       </c>
-      <c r="H16" s="5"/>
+      <c r="H16" s="13">
+        <f t="shared" si="0"/>
+        <v>3.4899999999999984</v>
+      </c>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
@@ -1088,7 +1149,7 @@
       <c r="V16" s="5"/>
       <c r="W16" s="5"/>
     </row>
-    <row r="17" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>33</v>
       </c>
@@ -1110,7 +1171,10 @@
       <c r="G17" s="11">
         <v>-13.265915977319425</v>
       </c>
-      <c r="H17" s="5"/>
+      <c r="H17" s="13">
+        <f t="shared" si="0"/>
+        <v>-6.7680899853768537</v>
+      </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
@@ -1127,7 +1191,7 @@
       <c r="V17" s="5"/>
       <c r="W17" s="5"/>
     </row>
-    <row r="18" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>36</v>
       </c>
@@ -1149,7 +1213,10 @@
       <c r="G18" s="12">
         <v>-33.119999999999997</v>
       </c>
-      <c r="H18" s="5"/>
+      <c r="H18" s="13">
+        <f t="shared" si="0"/>
+        <v>12.560000000000002</v>
+      </c>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
@@ -1166,7 +1233,7 @@
       <c r="V18" s="5"/>
       <c r="W18" s="5"/>
     </row>
-    <row r="19" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>37</v>
       </c>
@@ -1188,7 +1255,10 @@
       <c r="G19" s="11">
         <v>9.4985066152710687</v>
       </c>
-      <c r="H19" s="5"/>
+      <c r="H19" s="13">
+        <f t="shared" si="0"/>
+        <v>-1.957041366362926</v>
+      </c>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
@@ -1205,7 +1275,7 @@
       <c r="V19" s="5"/>
       <c r="W19" s="5"/>
     </row>
-    <row r="20" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -1230,7 +1300,7 @@
       <c r="V20" s="5"/>
       <c r="W20" s="5"/>
     </row>
-    <row r="21" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -1255,7 +1325,7 @@
       <c r="V21" s="5"/>
       <c r="W21" s="5"/>
     </row>
-    <row r="22" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -1280,7 +1350,7 @@
       <c r="V22" s="5"/>
       <c r="W22" s="5"/>
     </row>
-    <row r="23" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -1305,7 +1375,7 @@
       <c r="V23" s="5"/>
       <c r="W23" s="5"/>
     </row>
-    <row r="24" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -1330,7 +1400,7 @@
       <c r="V24" s="5"/>
       <c r="W24" s="5"/>
     </row>
-    <row r="25" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -1355,7 +1425,7 @@
       <c r="V25" s="5"/>
       <c r="W25" s="5"/>
     </row>
-    <row r="26" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -1380,7 +1450,7 @@
       <c r="V26" s="5"/>
       <c r="W26" s="5"/>
     </row>
-    <row r="27" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -1405,7 +1475,7 @@
       <c r="V27" s="5"/>
       <c r="W27" s="5"/>
     </row>
-    <row r="28" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -1430,7 +1500,7 @@
       <c r="V28" s="5"/>
       <c r="W28" s="5"/>
     </row>
-    <row r="29" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -1455,7 +1525,7 @@
       <c r="V29" s="5"/>
       <c r="W29" s="5"/>
     </row>
-    <row r="30" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -1480,7 +1550,7 @@
       <c r="V30" s="5"/>
       <c r="W30" s="5"/>
     </row>
-    <row r="31" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -1505,7 +1575,7 @@
       <c r="V31" s="5"/>
       <c r="W31" s="5"/>
     </row>
-    <row r="32" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -1530,7 +1600,7 @@
       <c r="V32" s="5"/>
       <c r="W32" s="5"/>
     </row>
-    <row r="33" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -1555,7 +1625,7 @@
       <c r="V33" s="5"/>
       <c r="W33" s="5"/>
     </row>
-    <row r="34" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -1580,7 +1650,7 @@
       <c r="V34" s="5"/>
       <c r="W34" s="5"/>
     </row>
-    <row r="35" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -1605,7 +1675,7 @@
       <c r="V35" s="5"/>
       <c r="W35" s="5"/>
     </row>
-    <row r="36" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -1630,7 +1700,7 @@
       <c r="V36" s="5"/>
       <c r="W36" s="5"/>
     </row>
-    <row r="37" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -1655,7 +1725,7 @@
       <c r="V37" s="5"/>
       <c r="W37" s="5"/>
     </row>
-    <row r="38" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -1680,7 +1750,7 @@
       <c r="V38" s="5"/>
       <c r="W38" s="5"/>
     </row>
-    <row r="39" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -1705,7 +1775,7 @@
       <c r="V39" s="5"/>
       <c r="W39" s="5"/>
     </row>
-    <row r="40" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -1730,7 +1800,7 @@
       <c r="V40" s="5"/>
       <c r="W40" s="5"/>
     </row>
-    <row r="41" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -1755,7 +1825,7 @@
       <c r="V41" s="5"/>
       <c r="W41" s="5"/>
     </row>
-    <row r="42" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -1780,7 +1850,7 @@
       <c r="V42" s="5"/>
       <c r="W42" s="5"/>
     </row>
-    <row r="43" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -1805,7 +1875,7 @@
       <c r="V43" s="5"/>
       <c r="W43" s="5"/>
     </row>
-    <row r="44" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -1830,7 +1900,7 @@
       <c r="V44" s="5"/>
       <c r="W44" s="5"/>
     </row>
-    <row r="45" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -1855,7 +1925,7 @@
       <c r="V45" s="5"/>
       <c r="W45" s="5"/>
     </row>
-    <row r="46" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -1880,7 +1950,7 @@
       <c r="V46" s="5"/>
       <c r="W46" s="5"/>
     </row>
-    <row r="47" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -1905,7 +1975,7 @@
       <c r="V47" s="5"/>
       <c r="W47" s="5"/>
     </row>
-    <row r="48" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -1930,7 +2000,7 @@
       <c r="V48" s="5"/>
       <c r="W48" s="5"/>
     </row>
-    <row r="49" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -1955,7 +2025,7 @@
       <c r="V49" s="5"/>
       <c r="W49" s="5"/>
     </row>
-    <row r="50" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -1980,7 +2050,7 @@
       <c r="V50" s="5"/>
       <c r="W50" s="5"/>
     </row>
-    <row r="51" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -2005,7 +2075,7 @@
       <c r="V51" s="5"/>
       <c r="W51" s="5"/>
     </row>
-    <row r="52" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -2030,7 +2100,7 @@
       <c r="V52" s="5"/>
       <c r="W52" s="5"/>
     </row>
-    <row r="53" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -2055,7 +2125,7 @@
       <c r="V53" s="5"/>
       <c r="W53" s="5"/>
     </row>
-    <row r="54" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -2080,7 +2150,7 @@
       <c r="V54" s="5"/>
       <c r="W54" s="5"/>
     </row>
-    <row r="55" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -2105,7 +2175,7 @@
       <c r="V55" s="5"/>
       <c r="W55" s="5"/>
     </row>
-    <row r="56" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -2130,7 +2200,7 @@
       <c r="V56" s="5"/>
       <c r="W56" s="5"/>
     </row>
-    <row r="57" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -2155,7 +2225,7 @@
       <c r="V57" s="5"/>
       <c r="W57" s="5"/>
     </row>
-    <row r="58" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -2180,7 +2250,7 @@
       <c r="V58" s="5"/>
       <c r="W58" s="5"/>
     </row>
-    <row r="59" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -2205,7 +2275,7 @@
       <c r="V59" s="5"/>
       <c r="W59" s="5"/>
     </row>
-    <row r="60" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -2230,7 +2300,7 @@
       <c r="V60" s="5"/>
       <c r="W60" s="5"/>
     </row>
-    <row r="61" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -2255,7 +2325,7 @@
       <c r="V61" s="5"/>
       <c r="W61" s="5"/>
     </row>
-    <row r="62" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -2280,7 +2350,7 @@
       <c r="V62" s="5"/>
       <c r="W62" s="5"/>
     </row>
-    <row r="63" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -2305,7 +2375,7 @@
       <c r="V63" s="5"/>
       <c r="W63" s="5"/>
     </row>
-    <row r="64" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -2330,7 +2400,7 @@
       <c r="V64" s="5"/>
       <c r="W64" s="5"/>
     </row>
-    <row r="65" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -2355,7 +2425,7 @@
       <c r="V65" s="5"/>
       <c r="W65" s="5"/>
     </row>
-    <row r="66" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -2380,7 +2450,7 @@
       <c r="V66" s="5"/>
       <c r="W66" s="5"/>
     </row>
-    <row r="67" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -2405,7 +2475,7 @@
       <c r="V67" s="5"/>
       <c r="W67" s="5"/>
     </row>
-    <row r="68" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -2430,7 +2500,7 @@
       <c r="V68" s="5"/>
       <c r="W68" s="5"/>
     </row>
-    <row r="69" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -2455,7 +2525,7 @@
       <c r="V69" s="5"/>
       <c r="W69" s="5"/>
     </row>
-    <row r="70" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -2480,7 +2550,7 @@
       <c r="V70" s="5"/>
       <c r="W70" s="5"/>
     </row>
-    <row r="71" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -2505,7 +2575,7 @@
       <c r="V71" s="5"/>
       <c r="W71" s="5"/>
     </row>
-    <row r="72" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
@@ -2530,7 +2600,7 @@
       <c r="V72" s="5"/>
       <c r="W72" s="5"/>
     </row>
-    <row r="73" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
@@ -2555,7 +2625,7 @@
       <c r="V73" s="5"/>
       <c r="W73" s="5"/>
     </row>
-    <row r="74" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
@@ -2580,7 +2650,7 @@
       <c r="V74" s="5"/>
       <c r="W74" s="5"/>
     </row>
-    <row r="75" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
@@ -2605,7 +2675,7 @@
       <c r="V75" s="5"/>
       <c r="W75" s="5"/>
     </row>
-    <row r="76" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
@@ -2630,7 +2700,7 @@
       <c r="V76" s="5"/>
       <c r="W76" s="5"/>
     </row>
-    <row r="77" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
@@ -2655,7 +2725,7 @@
       <c r="V77" s="5"/>
       <c r="W77" s="5"/>
     </row>
-    <row r="78" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
@@ -2680,7 +2750,7 @@
       <c r="V78" s="5"/>
       <c r="W78" s="5"/>
     </row>
-    <row r="79" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -2705,7 +2775,7 @@
       <c r="V79" s="5"/>
       <c r="W79" s="5"/>
     </row>
-    <row r="80" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -2730,7 +2800,7 @@
       <c r="V80" s="5"/>
       <c r="W80" s="5"/>
     </row>
-    <row r="81" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -2755,7 +2825,7 @@
       <c r="V81" s="5"/>
       <c r="W81" s="5"/>
     </row>
-    <row r="82" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -2780,7 +2850,7 @@
       <c r="V82" s="5"/>
       <c r="W82" s="5"/>
     </row>
-    <row r="83" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -2805,7 +2875,7 @@
       <c r="V83" s="5"/>
       <c r="W83" s="5"/>
     </row>
-    <row r="84" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -2830,7 +2900,7 @@
       <c r="V84" s="5"/>
       <c r="W84" s="5"/>
     </row>
-    <row r="85" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
@@ -2855,7 +2925,7 @@
       <c r="V85" s="5"/>
       <c r="W85" s="5"/>
     </row>
-    <row r="86" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="5"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
@@ -2880,7 +2950,7 @@
       <c r="V86" s="5"/>
       <c r="W86" s="5"/>
     </row>
-    <row r="87" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -2905,7 +2975,7 @@
       <c r="V87" s="5"/>
       <c r="W87" s="5"/>
     </row>
-    <row r="88" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
@@ -2930,7 +3000,7 @@
       <c r="V88" s="5"/>
       <c r="W88" s="5"/>
     </row>
-    <row r="89" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
@@ -2955,7 +3025,7 @@
       <c r="V89" s="5"/>
       <c r="W89" s="5"/>
     </row>
-    <row r="90" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
@@ -2980,7 +3050,7 @@
       <c r="V90" s="5"/>
       <c r="W90" s="5"/>
     </row>
-    <row r="91" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
@@ -3005,7 +3075,7 @@
       <c r="V91" s="5"/>
       <c r="W91" s="5"/>
     </row>
-    <row r="92" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
@@ -3030,7 +3100,7 @@
       <c r="V92" s="5"/>
       <c r="W92" s="5"/>
     </row>
-    <row r="93" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -3055,7 +3125,7 @@
       <c r="V93" s="5"/>
       <c r="W93" s="5"/>
     </row>
-    <row r="94" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
@@ -3080,7 +3150,7 @@
       <c r="V94" s="5"/>
       <c r="W94" s="5"/>
     </row>
-    <row r="95" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -3105,7 +3175,7 @@
       <c r="V95" s="5"/>
       <c r="W95" s="5"/>
     </row>
-    <row r="96" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
@@ -3130,7 +3200,7 @@
       <c r="V96" s="5"/>
       <c r="W96" s="5"/>
     </row>
-    <row r="97" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -3155,7 +3225,7 @@
       <c r="V97" s="5"/>
       <c r="W97" s="5"/>
     </row>
-    <row r="98" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -3180,7 +3250,7 @@
       <c r="V98" s="5"/>
       <c r="W98" s="5"/>
     </row>
-    <row r="99" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -3205,7 +3275,7 @@
       <c r="V99" s="5"/>
       <c r="W99" s="5"/>
     </row>
-    <row r="100" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -3230,7 +3300,7 @@
       <c r="V100" s="5"/>
       <c r="W100" s="5"/>
     </row>
-    <row r="101" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -3255,7 +3325,7 @@
       <c r="V101" s="5"/>
       <c r="W101" s="5"/>
     </row>
-    <row r="102" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -3280,7 +3350,7 @@
       <c r="V102" s="5"/>
       <c r="W102" s="5"/>
     </row>
-    <row r="103" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
@@ -3305,7 +3375,7 @@
       <c r="V103" s="5"/>
       <c r="W103" s="5"/>
     </row>
-    <row r="104" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -3330,7 +3400,7 @@
       <c r="V104" s="5"/>
       <c r="W104" s="5"/>
     </row>
-    <row r="105" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -3355,7 +3425,7 @@
       <c r="V105" s="5"/>
       <c r="W105" s="5"/>
     </row>
-    <row r="106" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -3380,7 +3450,7 @@
       <c r="V106" s="5"/>
       <c r="W106" s="5"/>
     </row>
-    <row r="107" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
@@ -3405,7 +3475,7 @@
       <c r="V107" s="5"/>
       <c r="W107" s="5"/>
     </row>
-    <row r="108" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -3430,7 +3500,7 @@
       <c r="V108" s="5"/>
       <c r="W108" s="5"/>
     </row>
-    <row r="109" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
@@ -3455,7 +3525,7 @@
       <c r="V109" s="5"/>
       <c r="W109" s="5"/>
     </row>
-    <row r="110" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
@@ -3480,7 +3550,7 @@
       <c r="V110" s="5"/>
       <c r="W110" s="5"/>
     </row>
-    <row r="111" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
@@ -3505,7 +3575,7 @@
       <c r="V111" s="5"/>
       <c r="W111" s="5"/>
     </row>
-    <row r="112" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
@@ -3530,7 +3600,7 @@
       <c r="V112" s="5"/>
       <c r="W112" s="5"/>
     </row>
-    <row r="113" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
@@ -3555,7 +3625,7 @@
       <c r="V113" s="5"/>
       <c r="W113" s="5"/>
     </row>
-    <row r="114" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -3580,7 +3650,7 @@
       <c r="V114" s="5"/>
       <c r="W114" s="5"/>
     </row>
-    <row r="115" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -3605,7 +3675,7 @@
       <c r="V115" s="5"/>
       <c r="W115" s="5"/>
     </row>
-    <row r="116" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -3630,7 +3700,7 @@
       <c r="V116" s="5"/>
       <c r="W116" s="5"/>
     </row>
-    <row r="117" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
@@ -3655,7 +3725,7 @@
       <c r="V117" s="5"/>
       <c r="W117" s="5"/>
     </row>
-    <row r="118" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
@@ -3680,7 +3750,7 @@
       <c r="V118" s="5"/>
       <c r="W118" s="5"/>
     </row>
-    <row r="119" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
@@ -3705,7 +3775,7 @@
       <c r="V119" s="5"/>
       <c r="W119" s="5"/>
     </row>
-    <row r="120" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -3730,7 +3800,7 @@
       <c r="V120" s="5"/>
       <c r="W120" s="5"/>
     </row>
-    <row r="121" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
@@ -3755,7 +3825,7 @@
       <c r="V121" s="5"/>
       <c r="W121" s="5"/>
     </row>
-    <row r="122" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
@@ -3780,7 +3850,7 @@
       <c r="V122" s="5"/>
       <c r="W122" s="5"/>
     </row>
-    <row r="123" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
@@ -3805,7 +3875,7 @@
       <c r="V123" s="5"/>
       <c r="W123" s="5"/>
     </row>
-    <row r="124" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
@@ -3830,7 +3900,7 @@
       <c r="V124" s="5"/>
       <c r="W124" s="5"/>
     </row>
-    <row r="125" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
@@ -3855,7 +3925,7 @@
       <c r="V125" s="5"/>
       <c r="W125" s="5"/>
     </row>
-    <row r="126" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
@@ -3880,7 +3950,7 @@
       <c r="V126" s="5"/>
       <c r="W126" s="5"/>
     </row>
-    <row r="127" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
@@ -3905,7 +3975,7 @@
       <c r="V127" s="5"/>
       <c r="W127" s="5"/>
     </row>
-    <row r="128" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
@@ -3930,7 +4000,7 @@
       <c r="V128" s="5"/>
       <c r="W128" s="5"/>
     </row>
-    <row r="129" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
@@ -3955,7 +4025,7 @@
       <c r="V129" s="5"/>
       <c r="W129" s="5"/>
     </row>
-    <row r="130" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
@@ -3980,7 +4050,7 @@
       <c r="V130" s="5"/>
       <c r="W130" s="5"/>
     </row>
-    <row r="131" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
@@ -4005,7 +4075,7 @@
       <c r="V131" s="5"/>
       <c r="W131" s="5"/>
     </row>
-    <row r="132" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
@@ -4030,7 +4100,7 @@
       <c r="V132" s="5"/>
       <c r="W132" s="5"/>
     </row>
-    <row r="133" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
@@ -4055,7 +4125,7 @@
       <c r="V133" s="5"/>
       <c r="W133" s="5"/>
     </row>
-    <row r="134" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
@@ -4080,7 +4150,7 @@
       <c r="V134" s="5"/>
       <c r="W134" s="5"/>
     </row>
-    <row r="135" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
@@ -4105,7 +4175,7 @@
       <c r="V135" s="5"/>
       <c r="W135" s="5"/>
     </row>
-    <row r="136" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
@@ -4130,7 +4200,7 @@
       <c r="V136" s="5"/>
       <c r="W136" s="5"/>
     </row>
-    <row r="137" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
@@ -4155,7 +4225,7 @@
       <c r="V137" s="5"/>
       <c r="W137" s="5"/>
     </row>
-    <row r="138" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
@@ -4180,7 +4250,7 @@
       <c r="V138" s="5"/>
       <c r="W138" s="5"/>
     </row>
-    <row r="139" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
@@ -4205,7 +4275,7 @@
       <c r="V139" s="5"/>
       <c r="W139" s="5"/>
     </row>
-    <row r="140" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -4230,7 +4300,7 @@
       <c r="V140" s="5"/>
       <c r="W140" s="5"/>
     </row>
-    <row r="141" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
@@ -4255,7 +4325,7 @@
       <c r="V141" s="5"/>
       <c r="W141" s="5"/>
     </row>
-    <row r="142" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
@@ -4280,7 +4350,7 @@
       <c r="V142" s="5"/>
       <c r="W142" s="5"/>
     </row>
-    <row r="143" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
@@ -4305,7 +4375,7 @@
       <c r="V143" s="5"/>
       <c r="W143" s="5"/>
     </row>
-    <row r="144" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
@@ -4330,7 +4400,7 @@
       <c r="V144" s="5"/>
       <c r="W144" s="5"/>
     </row>
-    <row r="145" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
@@ -4355,7 +4425,7 @@
       <c r="V145" s="5"/>
       <c r="W145" s="5"/>
     </row>
-    <row r="146" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
@@ -4380,7 +4450,7 @@
       <c r="V146" s="5"/>
       <c r="W146" s="5"/>
     </row>
-    <row r="147" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
@@ -4405,7 +4475,7 @@
       <c r="V147" s="5"/>
       <c r="W147" s="5"/>
     </row>
-    <row r="148" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
@@ -4430,7 +4500,7 @@
       <c r="V148" s="5"/>
       <c r="W148" s="5"/>
     </row>
-    <row r="149" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
@@ -4455,7 +4525,7 @@
       <c r="V149" s="5"/>
       <c r="W149" s="5"/>
     </row>
-    <row r="150" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
@@ -4480,7 +4550,7 @@
       <c r="V150" s="5"/>
       <c r="W150" s="5"/>
     </row>
-    <row r="151" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
@@ -4505,7 +4575,7 @@
       <c r="V151" s="5"/>
       <c r="W151" s="5"/>
     </row>
-    <row r="152" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
@@ -4530,7 +4600,7 @@
       <c r="V152" s="5"/>
       <c r="W152" s="5"/>
     </row>
-    <row r="153" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
@@ -4555,7 +4625,7 @@
       <c r="V153" s="5"/>
       <c r="W153" s="5"/>
     </row>
-    <row r="154" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
@@ -4580,7 +4650,7 @@
       <c r="V154" s="5"/>
       <c r="W154" s="5"/>
     </row>
-    <row r="155" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
@@ -4605,7 +4675,7 @@
       <c r="V155" s="5"/>
       <c r="W155" s="5"/>
     </row>
-    <row r="156" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
@@ -4630,7 +4700,7 @@
       <c r="V156" s="5"/>
       <c r="W156" s="5"/>
     </row>
-    <row r="157" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="5"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
@@ -4655,7 +4725,7 @@
       <c r="V157" s="5"/>
       <c r="W157" s="5"/>
     </row>
-    <row r="158" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="5"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
@@ -4680,7 +4750,7 @@
       <c r="V158" s="5"/>
       <c r="W158" s="5"/>
     </row>
-    <row r="159" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="5"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
@@ -4705,7 +4775,7 @@
       <c r="V159" s="5"/>
       <c r="W159" s="5"/>
     </row>
-    <row r="160" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="5"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
@@ -4730,7 +4800,7 @@
       <c r="V160" s="5"/>
       <c r="W160" s="5"/>
     </row>
-    <row r="161" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
@@ -4755,7 +4825,7 @@
       <c r="V161" s="5"/>
       <c r="W161" s="5"/>
     </row>
-    <row r="162" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="5"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
@@ -4780,7 +4850,7 @@
       <c r="V162" s="5"/>
       <c r="W162" s="5"/>
     </row>
-    <row r="163" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="5"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
@@ -4805,7 +4875,7 @@
       <c r="V163" s="5"/>
       <c r="W163" s="5"/>
     </row>
-    <row r="164" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="5"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
@@ -4830,7 +4900,7 @@
       <c r="V164" s="5"/>
       <c r="W164" s="5"/>
     </row>
-    <row r="165" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="5"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
@@ -4855,7 +4925,7 @@
       <c r="V165" s="5"/>
       <c r="W165" s="5"/>
     </row>
-    <row r="166" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="5"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
@@ -4880,7 +4950,7 @@
       <c r="V166" s="5"/>
       <c r="W166" s="5"/>
     </row>
-    <row r="167" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="5"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
@@ -4905,7 +4975,7 @@
       <c r="V167" s="5"/>
       <c r="W167" s="5"/>
     </row>
-    <row r="168" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="5"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
@@ -4930,7 +5000,7 @@
       <c r="V168" s="5"/>
       <c r="W168" s="5"/>
     </row>
-    <row r="169" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="5"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
@@ -4955,7 +5025,7 @@
       <c r="V169" s="5"/>
       <c r="W169" s="5"/>
     </row>
-    <row r="170" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="5"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
@@ -4980,7 +5050,7 @@
       <c r="V170" s="5"/>
       <c r="W170" s="5"/>
     </row>
-    <row r="171" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="5"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
@@ -5005,7 +5075,7 @@
       <c r="V171" s="5"/>
       <c r="W171" s="5"/>
     </row>
-    <row r="172" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="5"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
@@ -5030,7 +5100,7 @@
       <c r="V172" s="5"/>
       <c r="W172" s="5"/>
     </row>
-    <row r="173" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="5"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
@@ -5055,7 +5125,7 @@
       <c r="V173" s="5"/>
       <c r="W173" s="5"/>
     </row>
-    <row r="174" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="5"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
@@ -5080,7 +5150,7 @@
       <c r="V174" s="5"/>
       <c r="W174" s="5"/>
     </row>
-    <row r="175" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
@@ -5105,7 +5175,7 @@
       <c r="V175" s="5"/>
       <c r="W175" s="5"/>
     </row>
-    <row r="176" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
@@ -5130,7 +5200,7 @@
       <c r="V176" s="5"/>
       <c r="W176" s="5"/>
     </row>
-    <row r="177" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="5"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
@@ -5155,7 +5225,7 @@
       <c r="V177" s="5"/>
       <c r="W177" s="5"/>
     </row>
-    <row r="178" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="5"/>
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
@@ -5180,7 +5250,7 @@
       <c r="V178" s="5"/>
       <c r="W178" s="5"/>
     </row>
-    <row r="179" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="5"/>
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
@@ -5205,7 +5275,7 @@
       <c r="V179" s="5"/>
       <c r="W179" s="5"/>
     </row>
-    <row r="180" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="5"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
@@ -5230,7 +5300,7 @@
       <c r="V180" s="5"/>
       <c r="W180" s="5"/>
     </row>
-    <row r="181" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="5"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
@@ -5255,7 +5325,7 @@
       <c r="V181" s="5"/>
       <c r="W181" s="5"/>
     </row>
-    <row r="182" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="5"/>
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
@@ -5280,7 +5350,7 @@
       <c r="V182" s="5"/>
       <c r="W182" s="5"/>
     </row>
-    <row r="183" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="5"/>
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
@@ -5305,7 +5375,7 @@
       <c r="V183" s="5"/>
       <c r="W183" s="5"/>
     </row>
-    <row r="184" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="5"/>
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
@@ -5330,7 +5400,7 @@
       <c r="V184" s="5"/>
       <c r="W184" s="5"/>
     </row>
-    <row r="185" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="5"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
@@ -5355,7 +5425,7 @@
       <c r="V185" s="5"/>
       <c r="W185" s="5"/>
     </row>
-    <row r="186" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="5"/>
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
@@ -5380,7 +5450,7 @@
       <c r="V186" s="5"/>
       <c r="W186" s="5"/>
     </row>
-    <row r="187" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="5"/>
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
@@ -5405,7 +5475,7 @@
       <c r="V187" s="5"/>
       <c r="W187" s="5"/>
     </row>
-    <row r="188" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="5"/>
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
@@ -5430,7 +5500,7 @@
       <c r="V188" s="5"/>
       <c r="W188" s="5"/>
     </row>
-    <row r="189" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="5"/>
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
@@ -5455,7 +5525,7 @@
       <c r="V189" s="5"/>
       <c r="W189" s="5"/>
     </row>
-    <row r="190" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="5"/>
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
@@ -5480,7 +5550,7 @@
       <c r="V190" s="5"/>
       <c r="W190" s="5"/>
     </row>
-    <row r="191" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="5"/>
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
@@ -5505,7 +5575,7 @@
       <c r="V191" s="5"/>
       <c r="W191" s="5"/>
     </row>
-    <row r="192" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="5"/>
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
@@ -5530,7 +5600,7 @@
       <c r="V192" s="5"/>
       <c r="W192" s="5"/>
     </row>
-    <row r="193" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="5"/>
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
@@ -5555,7 +5625,7 @@
       <c r="V193" s="5"/>
       <c r="W193" s="5"/>
     </row>
-    <row r="194" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="5"/>
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
@@ -5580,7 +5650,7 @@
       <c r="V194" s="5"/>
       <c r="W194" s="5"/>
     </row>
-    <row r="195" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="5"/>
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
@@ -5605,7 +5675,7 @@
       <c r="V195" s="5"/>
       <c r="W195" s="5"/>
     </row>
-    <row r="196" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="5"/>
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
@@ -5630,7 +5700,7 @@
       <c r="V196" s="5"/>
       <c r="W196" s="5"/>
     </row>
-    <row r="197" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="5"/>
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
@@ -5655,7 +5725,7 @@
       <c r="V197" s="5"/>
       <c r="W197" s="5"/>
     </row>
-    <row r="198" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="5"/>
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
@@ -5680,7 +5750,7 @@
       <c r="V198" s="5"/>
       <c r="W198" s="5"/>
     </row>
-    <row r="199" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="5"/>
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
@@ -5705,7 +5775,7 @@
       <c r="V199" s="5"/>
       <c r="W199" s="5"/>
     </row>
-    <row r="200" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="5"/>
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
@@ -5730,7 +5800,7 @@
       <c r="V200" s="5"/>
       <c r="W200" s="5"/>
     </row>
-    <row r="201" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="5"/>
       <c r="B201" s="5"/>
       <c r="C201" s="5"/>
@@ -5755,7 +5825,7 @@
       <c r="V201" s="5"/>
       <c r="W201" s="5"/>
     </row>
-    <row r="202" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="5"/>
       <c r="B202" s="5"/>
       <c r="C202" s="5"/>
@@ -5780,7 +5850,7 @@
       <c r="V202" s="5"/>
       <c r="W202" s="5"/>
     </row>
-    <row r="203" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="5"/>
       <c r="B203" s="5"/>
       <c r="C203" s="5"/>
@@ -5805,7 +5875,7 @@
       <c r="V203" s="5"/>
       <c r="W203" s="5"/>
     </row>
-    <row r="204" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="5"/>
       <c r="B204" s="5"/>
       <c r="C204" s="5"/>
@@ -5830,7 +5900,7 @@
       <c r="V204" s="5"/>
       <c r="W204" s="5"/>
     </row>
-    <row r="205" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="5"/>
       <c r="B205" s="5"/>
       <c r="C205" s="5"/>
@@ -5855,7 +5925,7 @@
       <c r="V205" s="5"/>
       <c r="W205" s="5"/>
     </row>
-    <row r="206" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="5"/>
       <c r="B206" s="5"/>
       <c r="C206" s="5"/>
@@ -5880,7 +5950,7 @@
       <c r="V206" s="5"/>
       <c r="W206" s="5"/>
     </row>
-    <row r="207" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="5"/>
       <c r="B207" s="5"/>
       <c r="C207" s="5"/>
@@ -5905,7 +5975,7 @@
       <c r="V207" s="5"/>
       <c r="W207" s="5"/>
     </row>
-    <row r="208" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="5"/>
       <c r="B208" s="5"/>
       <c r="C208" s="5"/>
@@ -5930,7 +6000,7 @@
       <c r="V208" s="5"/>
       <c r="W208" s="5"/>
     </row>
-    <row r="209" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="5"/>
       <c r="B209" s="5"/>
       <c r="C209" s="5"/>
@@ -5955,7 +6025,7 @@
       <c r="V209" s="5"/>
       <c r="W209" s="5"/>
     </row>
-    <row r="210" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="5"/>
       <c r="B210" s="5"/>
       <c r="C210" s="5"/>
@@ -5980,7 +6050,7 @@
       <c r="V210" s="5"/>
       <c r="W210" s="5"/>
     </row>
-    <row r="211" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="5"/>
       <c r="B211" s="5"/>
       <c r="C211" s="5"/>
@@ -6005,7 +6075,7 @@
       <c r="V211" s="5"/>
       <c r="W211" s="5"/>
     </row>
-    <row r="212" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="5"/>
       <c r="B212" s="5"/>
       <c r="C212" s="5"/>
@@ -6030,7 +6100,7 @@
       <c r="V212" s="5"/>
       <c r="W212" s="5"/>
     </row>
-    <row r="213" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="5"/>
       <c r="B213" s="5"/>
       <c r="C213" s="5"/>
@@ -6055,7 +6125,7 @@
       <c r="V213" s="5"/>
       <c r="W213" s="5"/>
     </row>
-    <row r="214" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="5"/>
       <c r="B214" s="5"/>
       <c r="C214" s="5"/>
@@ -6080,7 +6150,7 @@
       <c r="V214" s="5"/>
       <c r="W214" s="5"/>
     </row>
-    <row r="215" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="5"/>
       <c r="B215" s="5"/>
       <c r="C215" s="5"/>
@@ -6105,7 +6175,7 @@
       <c r="V215" s="5"/>
       <c r="W215" s="5"/>
     </row>
-    <row r="216" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="5"/>
       <c r="B216" s="5"/>
       <c r="C216" s="5"/>
@@ -6130,7 +6200,7 @@
       <c r="V216" s="5"/>
       <c r="W216" s="5"/>
     </row>
-    <row r="217" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="5"/>
       <c r="B217" s="5"/>
       <c r="C217" s="5"/>
@@ -6155,7 +6225,7 @@
       <c r="V217" s="5"/>
       <c r="W217" s="5"/>
     </row>
-    <row r="218" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="5"/>
       <c r="B218" s="5"/>
       <c r="C218" s="5"/>
@@ -6180,7 +6250,7 @@
       <c r="V218" s="5"/>
       <c r="W218" s="5"/>
     </row>
-    <row r="219" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="5"/>
       <c r="B219" s="5"/>
       <c r="C219" s="5"/>
@@ -6205,7 +6275,7 @@
       <c r="V219" s="5"/>
       <c r="W219" s="5"/>
     </row>
-    <row r="220" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="5"/>
       <c r="B220" s="5"/>
       <c r="C220" s="5"/>
@@ -6230,7 +6300,7 @@
       <c r="V220" s="5"/>
       <c r="W220" s="5"/>
     </row>
-    <row r="221" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="5"/>
       <c r="B221" s="5"/>
       <c r="C221" s="5"/>
@@ -6255,7 +6325,7 @@
       <c r="V221" s="5"/>
       <c r="W221" s="5"/>
     </row>
-    <row r="222" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="5"/>
       <c r="B222" s="5"/>
       <c r="C222" s="5"/>
@@ -6280,7 +6350,7 @@
       <c r="V222" s="5"/>
       <c r="W222" s="5"/>
     </row>
-    <row r="223" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="5"/>
       <c r="B223" s="5"/>
       <c r="C223" s="5"/>
@@ -6305,7 +6375,7 @@
       <c r="V223" s="5"/>
       <c r="W223" s="5"/>
     </row>
-    <row r="224" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="5"/>
       <c r="B224" s="5"/>
       <c r="C224" s="5"/>
@@ -6330,7 +6400,7 @@
       <c r="V224" s="5"/>
       <c r="W224" s="5"/>
     </row>
-    <row r="225" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="5"/>
       <c r="B225" s="5"/>
       <c r="C225" s="5"/>
@@ -6355,7 +6425,7 @@
       <c r="V225" s="5"/>
       <c r="W225" s="5"/>
     </row>
-    <row r="226" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="5"/>
       <c r="B226" s="5"/>
       <c r="C226" s="5"/>
@@ -6380,7 +6450,7 @@
       <c r="V226" s="5"/>
       <c r="W226" s="5"/>
     </row>
-    <row r="227" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="5"/>
       <c r="B227" s="5"/>
       <c r="C227" s="5"/>
@@ -6405,7 +6475,7 @@
       <c r="V227" s="5"/>
       <c r="W227" s="5"/>
     </row>
-    <row r="228" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="5"/>
       <c r="B228" s="5"/>
       <c r="C228" s="5"/>
@@ -6430,7 +6500,7 @@
       <c r="V228" s="5"/>
       <c r="W228" s="5"/>
     </row>
-    <row r="229" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="5"/>
       <c r="B229" s="5"/>
       <c r="C229" s="5"/>
@@ -6455,7 +6525,7 @@
       <c r="V229" s="5"/>
       <c r="W229" s="5"/>
     </row>
-    <row r="230" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="5"/>
       <c r="B230" s="5"/>
       <c r="C230" s="5"/>
@@ -6480,7 +6550,7 @@
       <c r="V230" s="5"/>
       <c r="W230" s="5"/>
     </row>
-    <row r="231" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="5"/>
       <c r="B231" s="5"/>
       <c r="C231" s="5"/>
@@ -6505,7 +6575,7 @@
       <c r="V231" s="5"/>
       <c r="W231" s="5"/>
     </row>
-    <row r="232" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="5"/>
       <c r="B232" s="5"/>
       <c r="C232" s="5"/>
@@ -6530,7 +6600,7 @@
       <c r="V232" s="5"/>
       <c r="W232" s="5"/>
     </row>
-    <row r="233" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="5"/>
       <c r="B233" s="5"/>
       <c r="C233" s="5"/>
@@ -6555,7 +6625,7 @@
       <c r="V233" s="5"/>
       <c r="W233" s="5"/>
     </row>
-    <row r="234" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="5"/>
       <c r="B234" s="5"/>
       <c r="C234" s="5"/>
@@ -6580,7 +6650,7 @@
       <c r="V234" s="5"/>
       <c r="W234" s="5"/>
     </row>
-    <row r="235" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="5"/>
       <c r="B235" s="5"/>
       <c r="C235" s="5"/>
@@ -6605,7 +6675,7 @@
       <c r="V235" s="5"/>
       <c r="W235" s="5"/>
     </row>
-    <row r="236" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="5"/>
       <c r="B236" s="5"/>
       <c r="C236" s="5"/>
@@ -6630,7 +6700,7 @@
       <c r="V236" s="5"/>
       <c r="W236" s="5"/>
     </row>
-    <row r="237" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="5"/>
       <c r="B237" s="5"/>
       <c r="C237" s="5"/>
@@ -6655,7 +6725,7 @@
       <c r="V237" s="5"/>
       <c r="W237" s="5"/>
     </row>
-    <row r="238" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="5"/>
       <c r="B238" s="5"/>
       <c r="C238" s="5"/>
@@ -6680,7 +6750,7 @@
       <c r="V238" s="5"/>
       <c r="W238" s="5"/>
     </row>
-    <row r="239" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="5"/>
       <c r="B239" s="5"/>
       <c r="C239" s="5"/>
@@ -6705,7 +6775,7 @@
       <c r="V239" s="5"/>
       <c r="W239" s="5"/>
     </row>
-    <row r="240" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="5"/>
       <c r="B240" s="5"/>
       <c r="C240" s="5"/>
@@ -6730,7 +6800,7 @@
       <c r="V240" s="5"/>
       <c r="W240" s="5"/>
     </row>
-    <row r="241" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="5"/>
       <c r="B241" s="5"/>
       <c r="C241" s="5"/>
@@ -6755,7 +6825,7 @@
       <c r="V241" s="5"/>
       <c r="W241" s="5"/>
     </row>
-    <row r="242" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="5"/>
       <c r="B242" s="5"/>
       <c r="C242" s="5"/>
@@ -6780,7 +6850,7 @@
       <c r="V242" s="5"/>
       <c r="W242" s="5"/>
     </row>
-    <row r="243" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="5"/>
       <c r="B243" s="5"/>
       <c r="C243" s="5"/>
@@ -6805,7 +6875,7 @@
       <c r="V243" s="5"/>
       <c r="W243" s="5"/>
     </row>
-    <row r="244" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="5"/>
       <c r="B244" s="5"/>
       <c r="C244" s="5"/>
@@ -6830,7 +6900,7 @@
       <c r="V244" s="5"/>
       <c r="W244" s="5"/>
     </row>
-    <row r="245" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="5"/>
       <c r="B245" s="5"/>
       <c r="C245" s="5"/>
@@ -6855,7 +6925,7 @@
       <c r="V245" s="5"/>
       <c r="W245" s="5"/>
     </row>
-    <row r="246" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="5"/>
       <c r="B246" s="5"/>
       <c r="C246" s="5"/>
@@ -6880,7 +6950,7 @@
       <c r="V246" s="5"/>
       <c r="W246" s="5"/>
     </row>
-    <row r="247" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="5"/>
       <c r="B247" s="5"/>
       <c r="C247" s="5"/>
@@ -6905,7 +6975,7 @@
       <c r="V247" s="5"/>
       <c r="W247" s="5"/>
     </row>
-    <row r="248" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="5"/>
       <c r="B248" s="5"/>
       <c r="C248" s="5"/>
@@ -6930,7 +7000,7 @@
       <c r="V248" s="5"/>
       <c r="W248" s="5"/>
     </row>
-    <row r="249" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="5"/>
       <c r="B249" s="5"/>
       <c r="C249" s="5"/>
@@ -6955,7 +7025,7 @@
       <c r="V249" s="5"/>
       <c r="W249" s="5"/>
     </row>
-    <row r="250" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="5"/>
       <c r="B250" s="5"/>
       <c r="C250" s="5"/>
@@ -6980,7 +7050,7 @@
       <c r="V250" s="5"/>
       <c r="W250" s="5"/>
     </row>
-    <row r="251" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="5"/>
       <c r="B251" s="5"/>
       <c r="C251" s="5"/>
@@ -7005,7 +7075,7 @@
       <c r="V251" s="5"/>
       <c r="W251" s="5"/>
     </row>
-    <row r="252" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="5"/>
       <c r="B252" s="5"/>
       <c r="C252" s="5"/>
@@ -7030,7 +7100,7 @@
       <c r="V252" s="5"/>
       <c r="W252" s="5"/>
     </row>
-    <row r="253" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="5"/>
       <c r="B253" s="5"/>
       <c r="C253" s="5"/>
@@ -7055,7 +7125,7 @@
       <c r="V253" s="5"/>
       <c r="W253" s="5"/>
     </row>
-    <row r="254" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="5"/>
       <c r="B254" s="5"/>
       <c r="C254" s="5"/>
@@ -7080,7 +7150,7 @@
       <c r="V254" s="5"/>
       <c r="W254" s="5"/>
     </row>
-    <row r="255" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="5"/>
       <c r="B255" s="5"/>
       <c r="C255" s="5"/>
@@ -7105,7 +7175,7 @@
       <c r="V255" s="5"/>
       <c r="W255" s="5"/>
     </row>
-    <row r="256" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="5"/>
       <c r="B256" s="5"/>
       <c r="C256" s="5"/>
@@ -7130,7 +7200,7 @@
       <c r="V256" s="5"/>
       <c r="W256" s="5"/>
     </row>
-    <row r="257" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="5"/>
       <c r="B257" s="5"/>
       <c r="C257" s="5"/>
@@ -7155,7 +7225,7 @@
       <c r="V257" s="5"/>
       <c r="W257" s="5"/>
     </row>
-    <row r="258" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="5"/>
       <c r="B258" s="5"/>
       <c r="C258" s="5"/>
@@ -7180,7 +7250,7 @@
       <c r="V258" s="5"/>
       <c r="W258" s="5"/>
     </row>
-    <row r="259" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="5"/>
       <c r="B259" s="5"/>
       <c r="C259" s="5"/>
@@ -7205,7 +7275,7 @@
       <c r="V259" s="5"/>
       <c r="W259" s="5"/>
     </row>
-    <row r="260" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="5"/>
       <c r="B260" s="5"/>
       <c r="C260" s="5"/>
@@ -7230,7 +7300,7 @@
       <c r="V260" s="5"/>
       <c r="W260" s="5"/>
     </row>
-    <row r="261" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="5"/>
       <c r="B261" s="5"/>
       <c r="C261" s="5"/>
@@ -7255,7 +7325,7 @@
       <c r="V261" s="5"/>
       <c r="W261" s="5"/>
     </row>
-    <row r="262" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="5"/>
       <c r="B262" s="5"/>
       <c r="C262" s="5"/>
@@ -7280,7 +7350,7 @@
       <c r="V262" s="5"/>
       <c r="W262" s="5"/>
     </row>
-    <row r="263" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="5"/>
       <c r="B263" s="5"/>
       <c r="C263" s="5"/>
@@ -7305,7 +7375,7 @@
       <c r="V263" s="5"/>
       <c r="W263" s="5"/>
     </row>
-    <row r="264" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="5"/>
       <c r="B264" s="5"/>
       <c r="C264" s="5"/>
@@ -7330,7 +7400,7 @@
       <c r="V264" s="5"/>
       <c r="W264" s="5"/>
     </row>
-    <row r="265" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="5"/>
       <c r="B265" s="5"/>
       <c r="C265" s="5"/>
@@ -7355,7 +7425,7 @@
       <c r="V265" s="5"/>
       <c r="W265" s="5"/>
     </row>
-    <row r="266" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="5"/>
       <c r="B266" s="5"/>
       <c r="C266" s="5"/>
@@ -7380,7 +7450,7 @@
       <c r="V266" s="5"/>
       <c r="W266" s="5"/>
     </row>
-    <row r="267" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="5"/>
       <c r="B267" s="5"/>
       <c r="C267" s="5"/>
@@ -7405,7 +7475,7 @@
       <c r="V267" s="5"/>
       <c r="W267" s="5"/>
     </row>
-    <row r="268" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="5"/>
       <c r="B268" s="5"/>
       <c r="C268" s="5"/>
@@ -7430,7 +7500,7 @@
       <c r="V268" s="5"/>
       <c r="W268" s="5"/>
     </row>
-    <row r="269" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="5"/>
       <c r="B269" s="5"/>
       <c r="C269" s="5"/>
@@ -7455,7 +7525,7 @@
       <c r="V269" s="5"/>
       <c r="W269" s="5"/>
     </row>
-    <row r="270" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="5"/>
       <c r="B270" s="5"/>
       <c r="C270" s="5"/>
@@ -7480,7 +7550,7 @@
       <c r="V270" s="5"/>
       <c r="W270" s="5"/>
     </row>
-    <row r="271" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="5"/>
       <c r="B271" s="5"/>
       <c r="C271" s="5"/>
@@ -7505,7 +7575,7 @@
       <c r="V271" s="5"/>
       <c r="W271" s="5"/>
     </row>
-    <row r="272" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="5"/>
       <c r="B272" s="5"/>
       <c r="C272" s="5"/>
@@ -7530,7 +7600,7 @@
       <c r="V272" s="5"/>
       <c r="W272" s="5"/>
     </row>
-    <row r="273" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="5"/>
       <c r="B273" s="5"/>
       <c r="C273" s="5"/>
@@ -7555,7 +7625,7 @@
       <c r="V273" s="5"/>
       <c r="W273" s="5"/>
     </row>
-    <row r="274" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="5"/>
       <c r="B274" s="5"/>
       <c r="C274" s="5"/>
@@ -7580,7 +7650,7 @@
       <c r="V274" s="5"/>
       <c r="W274" s="5"/>
     </row>
-    <row r="275" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="5"/>
       <c r="B275" s="5"/>
       <c r="C275" s="5"/>
@@ -7605,7 +7675,7 @@
       <c r="V275" s="5"/>
       <c r="W275" s="5"/>
     </row>
-    <row r="276" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="5"/>
       <c r="B276" s="5"/>
       <c r="C276" s="5"/>
@@ -7630,7 +7700,7 @@
       <c r="V276" s="5"/>
       <c r="W276" s="5"/>
     </row>
-    <row r="277" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="5"/>
       <c r="B277" s="5"/>
       <c r="C277" s="5"/>
@@ -7655,7 +7725,7 @@
       <c r="V277" s="5"/>
       <c r="W277" s="5"/>
     </row>
-    <row r="278" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="5"/>
       <c r="B278" s="5"/>
       <c r="C278" s="5"/>
@@ -7680,7 +7750,7 @@
       <c r="V278" s="5"/>
       <c r="W278" s="5"/>
     </row>
-    <row r="279" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="5"/>
       <c r="B279" s="5"/>
       <c r="C279" s="5"/>
@@ -7705,7 +7775,7 @@
       <c r="V279" s="5"/>
       <c r="W279" s="5"/>
     </row>
-    <row r="280" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="5"/>
       <c r="B280" s="5"/>
       <c r="C280" s="5"/>
@@ -7730,7 +7800,7 @@
       <c r="V280" s="5"/>
       <c r="W280" s="5"/>
     </row>
-    <row r="281" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="5"/>
       <c r="B281" s="5"/>
       <c r="C281" s="5"/>
@@ -7755,7 +7825,7 @@
       <c r="V281" s="5"/>
       <c r="W281" s="5"/>
     </row>
-    <row r="282" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="5"/>
       <c r="B282" s="5"/>
       <c r="C282" s="5"/>
@@ -7780,7 +7850,7 @@
       <c r="V282" s="5"/>
       <c r="W282" s="5"/>
     </row>
-    <row r="283" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="5"/>
       <c r="B283" s="5"/>
       <c r="C283" s="5"/>
@@ -7805,7 +7875,7 @@
       <c r="V283" s="5"/>
       <c r="W283" s="5"/>
     </row>
-    <row r="284" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="5"/>
       <c r="B284" s="5"/>
       <c r="C284" s="5"/>
@@ -7830,7 +7900,7 @@
       <c r="V284" s="5"/>
       <c r="W284" s="5"/>
     </row>
-    <row r="285" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="5"/>
       <c r="B285" s="5"/>
       <c r="C285" s="5"/>
@@ -7855,7 +7925,7 @@
       <c r="V285" s="5"/>
       <c r="W285" s="5"/>
     </row>
-    <row r="286" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="5"/>
       <c r="B286" s="5"/>
       <c r="C286" s="5"/>
@@ -7880,7 +7950,7 @@
       <c r="V286" s="5"/>
       <c r="W286" s="5"/>
     </row>
-    <row r="287" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="5"/>
       <c r="B287" s="5"/>
       <c r="C287" s="5"/>
@@ -7905,7 +7975,7 @@
       <c r="V287" s="5"/>
       <c r="W287" s="5"/>
     </row>
-    <row r="288" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="5"/>
       <c r="B288" s="5"/>
       <c r="C288" s="5"/>
@@ -7930,7 +8000,7 @@
       <c r="V288" s="5"/>
       <c r="W288" s="5"/>
     </row>
-    <row r="289" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="5"/>
       <c r="B289" s="5"/>
       <c r="C289" s="5"/>
@@ -7955,7 +8025,7 @@
       <c r="V289" s="5"/>
       <c r="W289" s="5"/>
     </row>
-    <row r="290" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="5"/>
       <c r="B290" s="5"/>
       <c r="C290" s="5"/>
@@ -7980,7 +8050,7 @@
       <c r="V290" s="5"/>
       <c r="W290" s="5"/>
     </row>
-    <row r="291" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="5"/>
       <c r="B291" s="5"/>
       <c r="C291" s="5"/>
@@ -8005,7 +8075,7 @@
       <c r="V291" s="5"/>
       <c r="W291" s="5"/>
     </row>
-    <row r="292" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="5"/>
       <c r="B292" s="5"/>
       <c r="C292" s="5"/>
@@ -8030,7 +8100,7 @@
       <c r="V292" s="5"/>
       <c r="W292" s="5"/>
     </row>
-    <row r="293" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="5"/>
       <c r="B293" s="5"/>
       <c r="C293" s="5"/>
@@ -8055,7 +8125,7 @@
       <c r="V293" s="5"/>
       <c r="W293" s="5"/>
     </row>
-    <row r="294" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="5"/>
       <c r="B294" s="5"/>
       <c r="C294" s="5"/>
@@ -8080,7 +8150,7 @@
       <c r="V294" s="5"/>
       <c r="W294" s="5"/>
     </row>
-    <row r="295" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="5"/>
       <c r="B295" s="5"/>
       <c r="C295" s="5"/>
@@ -8105,7 +8175,7 @@
       <c r="V295" s="5"/>
       <c r="W295" s="5"/>
     </row>
-    <row r="296" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="5"/>
       <c r="B296" s="5"/>
       <c r="C296" s="5"/>
@@ -8130,7 +8200,7 @@
       <c r="V296" s="5"/>
       <c r="W296" s="5"/>
     </row>
-    <row r="297" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="5"/>
       <c r="B297" s="5"/>
       <c r="C297" s="5"/>
@@ -8155,7 +8225,7 @@
       <c r="V297" s="5"/>
       <c r="W297" s="5"/>
     </row>
-    <row r="298" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="5"/>
       <c r="B298" s="5"/>
       <c r="C298" s="5"/>
@@ -8180,7 +8250,7 @@
       <c r="V298" s="5"/>
       <c r="W298" s="5"/>
     </row>
-    <row r="299" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="5"/>
       <c r="B299" s="5"/>
       <c r="C299" s="5"/>
@@ -8205,7 +8275,7 @@
       <c r="V299" s="5"/>
       <c r="W299" s="5"/>
     </row>
-    <row r="300" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="5"/>
       <c r="B300" s="5"/>
       <c r="C300" s="5"/>
@@ -8230,7 +8300,7 @@
       <c r="V300" s="5"/>
       <c r="W300" s="5"/>
     </row>
-    <row r="301" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="5"/>
       <c r="B301" s="5"/>
       <c r="C301" s="5"/>
@@ -8255,7 +8325,7 @@
       <c r="V301" s="5"/>
       <c r="W301" s="5"/>
     </row>
-    <row r="302" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="5"/>
       <c r="B302" s="5"/>
       <c r="C302" s="5"/>
@@ -8280,7 +8350,7 @@
       <c r="V302" s="5"/>
       <c r="W302" s="5"/>
     </row>
-    <row r="303" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="5"/>
       <c r="B303" s="5"/>
       <c r="C303" s="5"/>
@@ -8305,7 +8375,7 @@
       <c r="V303" s="5"/>
       <c r="W303" s="5"/>
     </row>
-    <row r="304" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="5"/>
       <c r="B304" s="5"/>
       <c r="C304" s="5"/>
@@ -8330,7 +8400,7 @@
       <c r="V304" s="5"/>
       <c r="W304" s="5"/>
     </row>
-    <row r="305" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="5"/>
       <c r="B305" s="5"/>
       <c r="C305" s="5"/>
@@ -8355,7 +8425,7 @@
       <c r="V305" s="5"/>
       <c r="W305" s="5"/>
     </row>
-    <row r="306" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="5"/>
       <c r="B306" s="5"/>
       <c r="C306" s="5"/>
@@ -8380,7 +8450,7 @@
       <c r="V306" s="5"/>
       <c r="W306" s="5"/>
     </row>
-    <row r="307" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="5"/>
       <c r="B307" s="5"/>
       <c r="C307" s="5"/>
@@ -8405,7 +8475,7 @@
       <c r="V307" s="5"/>
       <c r="W307" s="5"/>
     </row>
-    <row r="308" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="5"/>
       <c r="B308" s="5"/>
       <c r="C308" s="5"/>
@@ -8430,7 +8500,7 @@
       <c r="V308" s="5"/>
       <c r="W308" s="5"/>
     </row>
-    <row r="309" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="5"/>
       <c r="B309" s="5"/>
       <c r="C309" s="5"/>
@@ -8455,7 +8525,7 @@
       <c r="V309" s="5"/>
       <c r="W309" s="5"/>
     </row>
-    <row r="310" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="5"/>
       <c r="B310" s="5"/>
       <c r="C310" s="5"/>
@@ -8480,7 +8550,7 @@
       <c r="V310" s="5"/>
       <c r="W310" s="5"/>
     </row>
-    <row r="311" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="5"/>
       <c r="B311" s="5"/>
       <c r="C311" s="5"/>
@@ -8505,7 +8575,7 @@
       <c r="V311" s="5"/>
       <c r="W311" s="5"/>
     </row>
-    <row r="312" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="5"/>
       <c r="B312" s="5"/>
       <c r="C312" s="5"/>
@@ -8530,7 +8600,7 @@
       <c r="V312" s="5"/>
       <c r="W312" s="5"/>
     </row>
-    <row r="313" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="5"/>
       <c r="B313" s="5"/>
       <c r="C313" s="5"/>
@@ -8555,7 +8625,7 @@
       <c r="V313" s="5"/>
       <c r="W313" s="5"/>
     </row>
-    <row r="314" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="5"/>
       <c r="B314" s="5"/>
       <c r="C314" s="5"/>
@@ -8580,7 +8650,7 @@
       <c r="V314" s="5"/>
       <c r="W314" s="5"/>
     </row>
-    <row r="315" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="5"/>
       <c r="B315" s="5"/>
       <c r="C315" s="5"/>
@@ -8605,7 +8675,7 @@
       <c r="V315" s="5"/>
       <c r="W315" s="5"/>
     </row>
-    <row r="316" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="5"/>
       <c r="B316" s="5"/>
       <c r="C316" s="5"/>
@@ -8630,7 +8700,7 @@
       <c r="V316" s="5"/>
       <c r="W316" s="5"/>
     </row>
-    <row r="317" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="5"/>
       <c r="B317" s="5"/>
       <c r="C317" s="5"/>
@@ -8655,7 +8725,7 @@
       <c r="V317" s="5"/>
       <c r="W317" s="5"/>
     </row>
-    <row r="318" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="5"/>
       <c r="B318" s="5"/>
       <c r="C318" s="5"/>
@@ -8680,7 +8750,7 @@
       <c r="V318" s="5"/>
       <c r="W318" s="5"/>
     </row>
-    <row r="319" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="5"/>
       <c r="B319" s="5"/>
       <c r="C319" s="5"/>
@@ -8705,7 +8775,7 @@
       <c r="V319" s="5"/>
       <c r="W319" s="5"/>
     </row>
-    <row r="320" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="5"/>
       <c r="B320" s="5"/>
       <c r="C320" s="5"/>
@@ -8730,7 +8800,7 @@
       <c r="V320" s="5"/>
       <c r="W320" s="5"/>
     </row>
-    <row r="321" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="5"/>
       <c r="B321" s="5"/>
       <c r="C321" s="5"/>
@@ -8755,7 +8825,7 @@
       <c r="V321" s="5"/>
       <c r="W321" s="5"/>
     </row>
-    <row r="322" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="5"/>
       <c r="B322" s="5"/>
       <c r="C322" s="5"/>
@@ -8780,7 +8850,7 @@
       <c r="V322" s="5"/>
       <c r="W322" s="5"/>
     </row>
-    <row r="323" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="5"/>
       <c r="B323" s="5"/>
       <c r="C323" s="5"/>
@@ -8805,7 +8875,7 @@
       <c r="V323" s="5"/>
       <c r="W323" s="5"/>
     </row>
-    <row r="324" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="5"/>
       <c r="B324" s="5"/>
       <c r="C324" s="5"/>
@@ -8830,7 +8900,7 @@
       <c r="V324" s="5"/>
       <c r="W324" s="5"/>
     </row>
-    <row r="325" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="5"/>
       <c r="B325" s="5"/>
       <c r="C325" s="5"/>
@@ -8855,7 +8925,7 @@
       <c r="V325" s="5"/>
       <c r="W325" s="5"/>
     </row>
-    <row r="326" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="5"/>
       <c r="B326" s="5"/>
       <c r="C326" s="5"/>
@@ -8880,7 +8950,7 @@
       <c r="V326" s="5"/>
       <c r="W326" s="5"/>
     </row>
-    <row r="327" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="5"/>
       <c r="B327" s="5"/>
       <c r="C327" s="5"/>
@@ -8905,7 +8975,7 @@
       <c r="V327" s="5"/>
       <c r="W327" s="5"/>
     </row>
-    <row r="328" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="5"/>
       <c r="B328" s="5"/>
       <c r="C328" s="5"/>
@@ -8930,7 +9000,7 @@
       <c r="V328" s="5"/>
       <c r="W328" s="5"/>
     </row>
-    <row r="329" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="5"/>
       <c r="B329" s="5"/>
       <c r="C329" s="5"/>
@@ -8955,7 +9025,7 @@
       <c r="V329" s="5"/>
       <c r="W329" s="5"/>
     </row>
-    <row r="330" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="5"/>
       <c r="B330" s="5"/>
       <c r="C330" s="5"/>
@@ -8980,7 +9050,7 @@
       <c r="V330" s="5"/>
       <c r="W330" s="5"/>
     </row>
-    <row r="331" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="5"/>
       <c r="B331" s="5"/>
       <c r="C331" s="5"/>
@@ -9005,7 +9075,7 @@
       <c r="V331" s="5"/>
       <c r="W331" s="5"/>
     </row>
-    <row r="332" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="5"/>
       <c r="B332" s="5"/>
       <c r="C332" s="5"/>
@@ -9030,7 +9100,7 @@
       <c r="V332" s="5"/>
       <c r="W332" s="5"/>
     </row>
-    <row r="333" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="5"/>
       <c r="B333" s="5"/>
       <c r="C333" s="5"/>
@@ -9055,7 +9125,7 @@
       <c r="V333" s="5"/>
       <c r="W333" s="5"/>
     </row>
-    <row r="334" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="5"/>
       <c r="B334" s="5"/>
       <c r="C334" s="5"/>
@@ -9080,7 +9150,7 @@
       <c r="V334" s="5"/>
       <c r="W334" s="5"/>
     </row>
-    <row r="335" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="5"/>
       <c r="B335" s="5"/>
       <c r="C335" s="5"/>
@@ -9105,7 +9175,7 @@
       <c r="V335" s="5"/>
       <c r="W335" s="5"/>
     </row>
-    <row r="336" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="5"/>
       <c r="B336" s="5"/>
       <c r="C336" s="5"/>
@@ -9130,7 +9200,7 @@
       <c r="V336" s="5"/>
       <c r="W336" s="5"/>
     </row>
-    <row r="337" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="5"/>
       <c r="B337" s="5"/>
       <c r="C337" s="5"/>
@@ -9155,7 +9225,7 @@
       <c r="V337" s="5"/>
       <c r="W337" s="5"/>
     </row>
-    <row r="338" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="5"/>
       <c r="B338" s="5"/>
       <c r="C338" s="5"/>
@@ -9180,7 +9250,7 @@
       <c r="V338" s="5"/>
       <c r="W338" s="5"/>
     </row>
-    <row r="339" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="5"/>
       <c r="B339" s="5"/>
       <c r="C339" s="5"/>
@@ -9205,7 +9275,7 @@
       <c r="V339" s="5"/>
       <c r="W339" s="5"/>
     </row>
-    <row r="340" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="5"/>
       <c r="B340" s="5"/>
       <c r="C340" s="5"/>
@@ -9230,7 +9300,7 @@
       <c r="V340" s="5"/>
       <c r="W340" s="5"/>
     </row>
-    <row r="341" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="5"/>
       <c r="B341" s="5"/>
       <c r="C341" s="5"/>
@@ -9255,7 +9325,7 @@
       <c r="V341" s="5"/>
       <c r="W341" s="5"/>
     </row>
-    <row r="342" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="5"/>
       <c r="B342" s="5"/>
       <c r="C342" s="5"/>
@@ -9280,7 +9350,7 @@
       <c r="V342" s="5"/>
       <c r="W342" s="5"/>
     </row>
-    <row r="343" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="5"/>
       <c r="B343" s="5"/>
       <c r="C343" s="5"/>
@@ -9305,7 +9375,7 @@
       <c r="V343" s="5"/>
       <c r="W343" s="5"/>
     </row>
-    <row r="344" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="5"/>
       <c r="B344" s="5"/>
       <c r="C344" s="5"/>
@@ -9330,7 +9400,7 @@
       <c r="V344" s="5"/>
       <c r="W344" s="5"/>
     </row>
-    <row r="345" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="5"/>
       <c r="B345" s="5"/>
       <c r="C345" s="5"/>
@@ -9355,7 +9425,7 @@
       <c r="V345" s="5"/>
       <c r="W345" s="5"/>
     </row>
-    <row r="346" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="5"/>
       <c r="B346" s="5"/>
       <c r="C346" s="5"/>
@@ -9380,7 +9450,7 @@
       <c r="V346" s="5"/>
       <c r="W346" s="5"/>
     </row>
-    <row r="347" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="5"/>
       <c r="B347" s="5"/>
       <c r="C347" s="5"/>
@@ -9405,7 +9475,7 @@
       <c r="V347" s="5"/>
       <c r="W347" s="5"/>
     </row>
-    <row r="348" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="5"/>
       <c r="B348" s="5"/>
       <c r="C348" s="5"/>
@@ -9430,7 +9500,7 @@
       <c r="V348" s="5"/>
       <c r="W348" s="5"/>
     </row>
-    <row r="349" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="5"/>
       <c r="B349" s="5"/>
       <c r="C349" s="5"/>
@@ -9455,7 +9525,7 @@
       <c r="V349" s="5"/>
       <c r="W349" s="5"/>
     </row>
-    <row r="350" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="5"/>
       <c r="B350" s="5"/>
       <c r="C350" s="5"/>
@@ -9480,7 +9550,7 @@
       <c r="V350" s="5"/>
       <c r="W350" s="5"/>
     </row>
-    <row r="351" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="5"/>
       <c r="B351" s="5"/>
       <c r="C351" s="5"/>
@@ -9505,7 +9575,7 @@
       <c r="V351" s="5"/>
       <c r="W351" s="5"/>
     </row>
-    <row r="352" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="5"/>
       <c r="B352" s="5"/>
       <c r="C352" s="5"/>
@@ -9530,7 +9600,7 @@
       <c r="V352" s="5"/>
       <c r="W352" s="5"/>
     </row>
-    <row r="353" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="5"/>
       <c r="B353" s="5"/>
       <c r="C353" s="5"/>
@@ -9555,7 +9625,7 @@
       <c r="V353" s="5"/>
       <c r="W353" s="5"/>
     </row>
-    <row r="354" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="5"/>
       <c r="B354" s="5"/>
       <c r="C354" s="5"/>
@@ -9580,7 +9650,7 @@
       <c r="V354" s="5"/>
       <c r="W354" s="5"/>
     </row>
-    <row r="355" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="5"/>
       <c r="B355" s="5"/>
       <c r="C355" s="5"/>
@@ -9605,7 +9675,7 @@
       <c r="V355" s="5"/>
       <c r="W355" s="5"/>
     </row>
-    <row r="356" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="5"/>
       <c r="B356" s="5"/>
       <c r="C356" s="5"/>
@@ -9630,7 +9700,7 @@
       <c r="V356" s="5"/>
       <c r="W356" s="5"/>
     </row>
-    <row r="357" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="5"/>
       <c r="B357" s="5"/>
       <c r="C357" s="5"/>
@@ -9655,7 +9725,7 @@
       <c r="V357" s="5"/>
       <c r="W357" s="5"/>
     </row>
-    <row r="358" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="5"/>
       <c r="B358" s="5"/>
       <c r="C358" s="5"/>
@@ -9680,7 +9750,7 @@
       <c r="V358" s="5"/>
       <c r="W358" s="5"/>
     </row>
-    <row r="359" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="5"/>
       <c r="B359" s="5"/>
       <c r="C359" s="5"/>
@@ -9705,7 +9775,7 @@
       <c r="V359" s="5"/>
       <c r="W359" s="5"/>
     </row>
-    <row r="360" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="5"/>
       <c r="B360" s="5"/>
       <c r="C360" s="5"/>
@@ -9730,7 +9800,7 @@
       <c r="V360" s="5"/>
       <c r="W360" s="5"/>
     </row>
-    <row r="361" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="5"/>
       <c r="B361" s="5"/>
       <c r="C361" s="5"/>
@@ -9755,7 +9825,7 @@
       <c r="V361" s="5"/>
       <c r="W361" s="5"/>
     </row>
-    <row r="362" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="5"/>
       <c r="B362" s="5"/>
       <c r="C362" s="5"/>
@@ -9780,7 +9850,7 @@
       <c r="V362" s="5"/>
       <c r="W362" s="5"/>
     </row>
-    <row r="363" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="5"/>
       <c r="B363" s="5"/>
       <c r="C363" s="5"/>
@@ -9805,7 +9875,7 @@
       <c r="V363" s="5"/>
       <c r="W363" s="5"/>
     </row>
-    <row r="364" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="5"/>
       <c r="B364" s="5"/>
       <c r="C364" s="5"/>
@@ -9830,7 +9900,7 @@
       <c r="V364" s="5"/>
       <c r="W364" s="5"/>
     </row>
-    <row r="365" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="5"/>
       <c r="B365" s="5"/>
       <c r="C365" s="5"/>
@@ -9855,7 +9925,7 @@
       <c r="V365" s="5"/>
       <c r="W365" s="5"/>
     </row>
-    <row r="366" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="5"/>
       <c r="B366" s="5"/>
       <c r="C366" s="5"/>
@@ -9880,7 +9950,7 @@
       <c r="V366" s="5"/>
       <c r="W366" s="5"/>
     </row>
-    <row r="367" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="5"/>
       <c r="B367" s="5"/>
       <c r="C367" s="5"/>
@@ -9905,7 +9975,7 @@
       <c r="V367" s="5"/>
       <c r="W367" s="5"/>
     </row>
-    <row r="368" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="5"/>
       <c r="B368" s="5"/>
       <c r="C368" s="5"/>
@@ -9930,7 +10000,7 @@
       <c r="V368" s="5"/>
       <c r="W368" s="5"/>
     </row>
-    <row r="369" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="5"/>
       <c r="B369" s="5"/>
       <c r="C369" s="5"/>
@@ -9955,7 +10025,7 @@
       <c r="V369" s="5"/>
       <c r="W369" s="5"/>
     </row>
-    <row r="370" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="5"/>
       <c r="B370" s="5"/>
       <c r="C370" s="5"/>
@@ -9980,7 +10050,7 @@
       <c r="V370" s="5"/>
       <c r="W370" s="5"/>
     </row>
-    <row r="371" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="5"/>
       <c r="B371" s="5"/>
       <c r="C371" s="5"/>
@@ -10005,7 +10075,7 @@
       <c r="V371" s="5"/>
       <c r="W371" s="5"/>
     </row>
-    <row r="372" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="5"/>
       <c r="B372" s="5"/>
       <c r="C372" s="5"/>
@@ -10030,7 +10100,7 @@
       <c r="V372" s="5"/>
       <c r="W372" s="5"/>
     </row>
-    <row r="373" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="5"/>
       <c r="B373" s="5"/>
       <c r="C373" s="5"/>
@@ -10055,7 +10125,7 @@
       <c r="V373" s="5"/>
       <c r="W373" s="5"/>
     </row>
-    <row r="374" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="5"/>
       <c r="B374" s="5"/>
       <c r="C374" s="5"/>
@@ -10080,7 +10150,7 @@
       <c r="V374" s="5"/>
       <c r="W374" s="5"/>
     </row>
-    <row r="375" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="5"/>
       <c r="B375" s="5"/>
       <c r="C375" s="5"/>
@@ -10105,7 +10175,7 @@
       <c r="V375" s="5"/>
       <c r="W375" s="5"/>
     </row>
-    <row r="376" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="5"/>
       <c r="B376" s="5"/>
       <c r="C376" s="5"/>
@@ -10130,7 +10200,7 @@
       <c r="V376" s="5"/>
       <c r="W376" s="5"/>
     </row>
-    <row r="377" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="5"/>
       <c r="B377" s="5"/>
       <c r="C377" s="5"/>
@@ -10155,7 +10225,7 @@
       <c r="V377" s="5"/>
       <c r="W377" s="5"/>
     </row>
-    <row r="378" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="5"/>
       <c r="B378" s="5"/>
       <c r="C378" s="5"/>
@@ -10180,7 +10250,7 @@
       <c r="V378" s="5"/>
       <c r="W378" s="5"/>
     </row>
-    <row r="379" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="5"/>
       <c r="B379" s="5"/>
       <c r="C379" s="5"/>
@@ -10205,7 +10275,7 @@
       <c r="V379" s="5"/>
       <c r="W379" s="5"/>
     </row>
-    <row r="380" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="5"/>
       <c r="B380" s="5"/>
       <c r="C380" s="5"/>
@@ -10230,7 +10300,7 @@
       <c r="V380" s="5"/>
       <c r="W380" s="5"/>
     </row>
-    <row r="381" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="5"/>
       <c r="B381" s="5"/>
       <c r="C381" s="5"/>
@@ -10255,7 +10325,7 @@
       <c r="V381" s="5"/>
       <c r="W381" s="5"/>
     </row>
-    <row r="382" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382" s="5"/>
       <c r="B382" s="5"/>
       <c r="C382" s="5"/>
@@ -10280,7 +10350,7 @@
       <c r="V382" s="5"/>
       <c r="W382" s="5"/>
     </row>
-    <row r="383" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="5"/>
       <c r="B383" s="5"/>
       <c r="C383" s="5"/>
@@ -10305,7 +10375,7 @@
       <c r="V383" s="5"/>
       <c r="W383" s="5"/>
     </row>
-    <row r="384" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="5"/>
       <c r="B384" s="5"/>
       <c r="C384" s="5"/>
@@ -10330,7 +10400,7 @@
       <c r="V384" s="5"/>
       <c r="W384" s="5"/>
     </row>
-    <row r="385" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" s="5"/>
       <c r="B385" s="5"/>
       <c r="C385" s="5"/>
@@ -10355,7 +10425,7 @@
       <c r="V385" s="5"/>
       <c r="W385" s="5"/>
     </row>
-    <row r="386" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" s="5"/>
       <c r="B386" s="5"/>
       <c r="C386" s="5"/>
@@ -10380,7 +10450,7 @@
       <c r="V386" s="5"/>
       <c r="W386" s="5"/>
     </row>
-    <row r="387" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" s="5"/>
       <c r="B387" s="5"/>
       <c r="C387" s="5"/>
@@ -10405,7 +10475,7 @@
       <c r="V387" s="5"/>
       <c r="W387" s="5"/>
     </row>
-    <row r="388" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="5"/>
       <c r="B388" s="5"/>
       <c r="C388" s="5"/>
@@ -10430,7 +10500,7 @@
       <c r="V388" s="5"/>
       <c r="W388" s="5"/>
     </row>
-    <row r="389" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" s="5"/>
       <c r="B389" s="5"/>
       <c r="C389" s="5"/>
@@ -10455,7 +10525,7 @@
       <c r="V389" s="5"/>
       <c r="W389" s="5"/>
     </row>
-    <row r="390" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390" s="5"/>
       <c r="B390" s="5"/>
       <c r="C390" s="5"/>
@@ -10480,7 +10550,7 @@
       <c r="V390" s="5"/>
       <c r="W390" s="5"/>
     </row>
-    <row r="391" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A391" s="5"/>
       <c r="B391" s="5"/>
       <c r="C391" s="5"/>
@@ -10505,7 +10575,7 @@
       <c r="V391" s="5"/>
       <c r="W391" s="5"/>
     </row>
-    <row r="392" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A392" s="5"/>
       <c r="B392" s="5"/>
       <c r="C392" s="5"/>
@@ -10530,7 +10600,7 @@
       <c r="V392" s="5"/>
       <c r="W392" s="5"/>
     </row>
-    <row r="393" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A393" s="5"/>
       <c r="B393" s="5"/>
       <c r="C393" s="5"/>
@@ -10555,7 +10625,7 @@
       <c r="V393" s="5"/>
       <c r="W393" s="5"/>
     </row>
-    <row r="394" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A394" s="5"/>
       <c r="B394" s="5"/>
       <c r="C394" s="5"/>
@@ -10580,7 +10650,7 @@
       <c r="V394" s="5"/>
       <c r="W394" s="5"/>
     </row>
-    <row r="395" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A395" s="5"/>
       <c r="B395" s="5"/>
       <c r="C395" s="5"/>
@@ -10605,7 +10675,7 @@
       <c r="V395" s="5"/>
       <c r="W395" s="5"/>
     </row>
-    <row r="396" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A396" s="5"/>
       <c r="B396" s="5"/>
       <c r="C396" s="5"/>
@@ -10630,7 +10700,7 @@
       <c r="V396" s="5"/>
       <c r="W396" s="5"/>
     </row>
-    <row r="397" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A397" s="5"/>
       <c r="B397" s="5"/>
       <c r="C397" s="5"/>
@@ -10655,7 +10725,7 @@
       <c r="V397" s="5"/>
       <c r="W397" s="5"/>
     </row>
-    <row r="398" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A398" s="5"/>
       <c r="B398" s="5"/>
       <c r="C398" s="5"/>
@@ -10680,7 +10750,7 @@
       <c r="V398" s="5"/>
       <c r="W398" s="5"/>
     </row>
-    <row r="399" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A399" s="5"/>
       <c r="B399" s="5"/>
       <c r="C399" s="5"/>
@@ -10705,7 +10775,7 @@
       <c r="V399" s="5"/>
       <c r="W399" s="5"/>
     </row>
-    <row r="400" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A400" s="5"/>
       <c r="B400" s="5"/>
       <c r="C400" s="5"/>
@@ -10730,7 +10800,7 @@
       <c r="V400" s="5"/>
       <c r="W400" s="5"/>
     </row>
-    <row r="401" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A401" s="5"/>
       <c r="B401" s="5"/>
       <c r="C401" s="5"/>
@@ -10755,7 +10825,7 @@
       <c r="V401" s="5"/>
       <c r="W401" s="5"/>
     </row>
-    <row r="402" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A402" s="5"/>
       <c r="B402" s="5"/>
       <c r="C402" s="5"/>
@@ -10780,7 +10850,7 @@
       <c r="V402" s="5"/>
       <c r="W402" s="5"/>
     </row>
-    <row r="403" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A403" s="5"/>
       <c r="B403" s="5"/>
       <c r="C403" s="5"/>
@@ -10805,7 +10875,7 @@
       <c r="V403" s="5"/>
       <c r="W403" s="5"/>
     </row>
-    <row r="404" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A404" s="5"/>
       <c r="B404" s="5"/>
       <c r="C404" s="5"/>
@@ -10830,7 +10900,7 @@
       <c r="V404" s="5"/>
       <c r="W404" s="5"/>
     </row>
-    <row r="405" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A405" s="5"/>
       <c r="B405" s="5"/>
       <c r="C405" s="5"/>
@@ -10855,7 +10925,7 @@
       <c r="V405" s="5"/>
       <c r="W405" s="5"/>
     </row>
-    <row r="406" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A406" s="5"/>
       <c r="B406" s="5"/>
       <c r="C406" s="5"/>
@@ -10880,7 +10950,7 @@
       <c r="V406" s="5"/>
       <c r="W406" s="5"/>
     </row>
-    <row r="407" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A407" s="5"/>
       <c r="B407" s="5"/>
       <c r="C407" s="5"/>
@@ -10905,7 +10975,7 @@
       <c r="V407" s="5"/>
       <c r="W407" s="5"/>
     </row>
-    <row r="408" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A408" s="5"/>
       <c r="B408" s="5"/>
       <c r="C408" s="5"/>
@@ -10930,7 +11000,7 @@
       <c r="V408" s="5"/>
       <c r="W408" s="5"/>
     </row>
-    <row r="409" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A409" s="5"/>
       <c r="B409" s="5"/>
       <c r="C409" s="5"/>
@@ -10955,7 +11025,7 @@
       <c r="V409" s="5"/>
       <c r="W409" s="5"/>
     </row>
-    <row r="410" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A410" s="5"/>
       <c r="B410" s="5"/>
       <c r="C410" s="5"/>
@@ -10980,7 +11050,7 @@
       <c r="V410" s="5"/>
       <c r="W410" s="5"/>
     </row>
-    <row r="411" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A411" s="5"/>
       <c r="B411" s="5"/>
       <c r="C411" s="5"/>
@@ -11005,7 +11075,7 @@
       <c r="V411" s="5"/>
       <c r="W411" s="5"/>
     </row>
-    <row r="412" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A412" s="5"/>
       <c r="B412" s="5"/>
       <c r="C412" s="5"/>
@@ -11030,7 +11100,7 @@
       <c r="V412" s="5"/>
       <c r="W412" s="5"/>
     </row>
-    <row r="413" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A413" s="5"/>
       <c r="B413" s="5"/>
       <c r="C413" s="5"/>
@@ -11055,7 +11125,7 @@
       <c r="V413" s="5"/>
       <c r="W413" s="5"/>
     </row>
-    <row r="414" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A414" s="5"/>
       <c r="B414" s="5"/>
       <c r="C414" s="5"/>
@@ -11080,7 +11150,7 @@
       <c r="V414" s="5"/>
       <c r="W414" s="5"/>
     </row>
-    <row r="415" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A415" s="5"/>
       <c r="B415" s="5"/>
       <c r="C415" s="5"/>
@@ -11105,7 +11175,7 @@
       <c r="V415" s="5"/>
       <c r="W415" s="5"/>
     </row>
-    <row r="416" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A416" s="5"/>
       <c r="B416" s="5"/>
       <c r="C416" s="5"/>
@@ -11130,7 +11200,7 @@
       <c r="V416" s="5"/>
       <c r="W416" s="5"/>
     </row>
-    <row r="417" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A417" s="5"/>
       <c r="B417" s="5"/>
       <c r="C417" s="5"/>
@@ -11155,7 +11225,7 @@
       <c r="V417" s="5"/>
       <c r="W417" s="5"/>
     </row>
-    <row r="418" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A418" s="5"/>
       <c r="B418" s="5"/>
       <c r="C418" s="5"/>
@@ -11180,7 +11250,7 @@
       <c r="V418" s="5"/>
       <c r="W418" s="5"/>
     </row>
-    <row r="419" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A419" s="5"/>
       <c r="B419" s="5"/>
       <c r="C419" s="5"/>
@@ -11205,7 +11275,7 @@
       <c r="V419" s="5"/>
       <c r="W419" s="5"/>
     </row>
-    <row r="420" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A420" s="5"/>
       <c r="B420" s="5"/>
       <c r="C420" s="5"/>
@@ -11230,7 +11300,7 @@
       <c r="V420" s="5"/>
       <c r="W420" s="5"/>
     </row>
-    <row r="421" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A421" s="5"/>
       <c r="B421" s="5"/>
       <c r="C421" s="5"/>
@@ -11255,7 +11325,7 @@
       <c r="V421" s="5"/>
       <c r="W421" s="5"/>
     </row>
-    <row r="422" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A422" s="5"/>
       <c r="B422" s="5"/>
       <c r="C422" s="5"/>
@@ -11280,7 +11350,7 @@
       <c r="V422" s="5"/>
       <c r="W422" s="5"/>
     </row>
-    <row r="423" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A423" s="5"/>
       <c r="B423" s="5"/>
       <c r="C423" s="5"/>
@@ -11305,7 +11375,7 @@
       <c r="V423" s="5"/>
       <c r="W423" s="5"/>
     </row>
-    <row r="424" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A424" s="5"/>
       <c r="B424" s="5"/>
       <c r="C424" s="5"/>
@@ -11330,7 +11400,7 @@
       <c r="V424" s="5"/>
       <c r="W424" s="5"/>
     </row>
-    <row r="425" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A425" s="5"/>
       <c r="B425" s="5"/>
       <c r="C425" s="5"/>
@@ -11355,7 +11425,7 @@
       <c r="V425" s="5"/>
       <c r="W425" s="5"/>
     </row>
-    <row r="426" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A426" s="5"/>
       <c r="B426" s="5"/>
       <c r="C426" s="5"/>
@@ -11380,7 +11450,7 @@
       <c r="V426" s="5"/>
       <c r="W426" s="5"/>
     </row>
-    <row r="427" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A427" s="5"/>
       <c r="B427" s="5"/>
       <c r="C427" s="5"/>
@@ -11405,7 +11475,7 @@
       <c r="V427" s="5"/>
       <c r="W427" s="5"/>
     </row>
-    <row r="428" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A428" s="5"/>
       <c r="B428" s="5"/>
       <c r="C428" s="5"/>
@@ -11430,7 +11500,7 @@
       <c r="V428" s="5"/>
       <c r="W428" s="5"/>
     </row>
-    <row r="429" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A429" s="5"/>
       <c r="B429" s="5"/>
       <c r="C429" s="5"/>
@@ -11455,7 +11525,7 @@
       <c r="V429" s="5"/>
       <c r="W429" s="5"/>
     </row>
-    <row r="430" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A430" s="5"/>
       <c r="B430" s="5"/>
       <c r="C430" s="5"/>
@@ -11480,7 +11550,7 @@
       <c r="V430" s="5"/>
       <c r="W430" s="5"/>
     </row>
-    <row r="431" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A431" s="5"/>
       <c r="B431" s="5"/>
       <c r="C431" s="5"/>
@@ -11505,7 +11575,7 @@
       <c r="V431" s="5"/>
       <c r="W431" s="5"/>
     </row>
-    <row r="432" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A432" s="5"/>
       <c r="B432" s="5"/>
       <c r="C432" s="5"/>
@@ -11530,7 +11600,7 @@
       <c r="V432" s="5"/>
       <c r="W432" s="5"/>
     </row>
-    <row r="433" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A433" s="5"/>
       <c r="B433" s="5"/>
       <c r="C433" s="5"/>
@@ -11555,7 +11625,7 @@
       <c r="V433" s="5"/>
       <c r="W433" s="5"/>
     </row>
-    <row r="434" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A434" s="5"/>
       <c r="B434" s="5"/>
       <c r="C434" s="5"/>
@@ -11580,7 +11650,7 @@
       <c r="V434" s="5"/>
       <c r="W434" s="5"/>
     </row>
-    <row r="435" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A435" s="5"/>
       <c r="B435" s="5"/>
       <c r="C435" s="5"/>
@@ -11605,7 +11675,7 @@
       <c r="V435" s="5"/>
       <c r="W435" s="5"/>
     </row>
-    <row r="436" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A436" s="5"/>
       <c r="B436" s="5"/>
       <c r="C436" s="5"/>
@@ -11630,7 +11700,7 @@
       <c r="V436" s="5"/>
       <c r="W436" s="5"/>
     </row>
-    <row r="437" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A437" s="5"/>
       <c r="B437" s="5"/>
       <c r="C437" s="5"/>
@@ -11655,7 +11725,7 @@
       <c r="V437" s="5"/>
       <c r="W437" s="5"/>
     </row>
-    <row r="438" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A438" s="5"/>
       <c r="B438" s="5"/>
       <c r="C438" s="5"/>
@@ -11680,7 +11750,7 @@
       <c r="V438" s="5"/>
       <c r="W438" s="5"/>
     </row>
-    <row r="439" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A439" s="5"/>
       <c r="B439" s="5"/>
       <c r="C439" s="5"/>
@@ -11705,7 +11775,7 @@
       <c r="V439" s="5"/>
       <c r="W439" s="5"/>
     </row>
-    <row r="440" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A440" s="5"/>
       <c r="B440" s="5"/>
       <c r="C440" s="5"/>
@@ -11730,7 +11800,7 @@
       <c r="V440" s="5"/>
       <c r="W440" s="5"/>
     </row>
-    <row r="441" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A441" s="5"/>
       <c r="B441" s="5"/>
       <c r="C441" s="5"/>
@@ -11755,7 +11825,7 @@
       <c r="V441" s="5"/>
       <c r="W441" s="5"/>
     </row>
-    <row r="442" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A442" s="5"/>
       <c r="B442" s="5"/>
       <c r="C442" s="5"/>
@@ -11780,7 +11850,7 @@
       <c r="V442" s="5"/>
       <c r="W442" s="5"/>
     </row>
-    <row r="443" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A443" s="5"/>
       <c r="B443" s="5"/>
       <c r="C443" s="5"/>
@@ -11805,7 +11875,7 @@
       <c r="V443" s="5"/>
       <c r="W443" s="5"/>
     </row>
-    <row r="444" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A444" s="5"/>
       <c r="B444" s="5"/>
       <c r="C444" s="5"/>
@@ -11830,7 +11900,7 @@
       <c r="V444" s="5"/>
       <c r="W444" s="5"/>
     </row>
-    <row r="445" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A445" s="5"/>
       <c r="B445" s="5"/>
       <c r="C445" s="5"/>
@@ -11855,7 +11925,7 @@
       <c r="V445" s="5"/>
       <c r="W445" s="5"/>
     </row>
-    <row r="446" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A446" s="5"/>
       <c r="B446" s="5"/>
       <c r="C446" s="5"/>
@@ -11880,7 +11950,7 @@
       <c r="V446" s="5"/>
       <c r="W446" s="5"/>
     </row>
-    <row r="447" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A447" s="5"/>
       <c r="B447" s="5"/>
       <c r="C447" s="5"/>
@@ -11905,7 +11975,7 @@
       <c r="V447" s="5"/>
       <c r="W447" s="5"/>
     </row>
-    <row r="448" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A448" s="5"/>
       <c r="B448" s="5"/>
       <c r="C448" s="5"/>
@@ -11930,7 +12000,7 @@
       <c r="V448" s="5"/>
       <c r="W448" s="5"/>
     </row>
-    <row r="449" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A449" s="5"/>
       <c r="B449" s="5"/>
       <c r="C449" s="5"/>
@@ -11955,7 +12025,7 @@
       <c r="V449" s="5"/>
       <c r="W449" s="5"/>
     </row>
-    <row r="450" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A450" s="5"/>
       <c r="B450" s="5"/>
       <c r="C450" s="5"/>
@@ -11980,7 +12050,7 @@
       <c r="V450" s="5"/>
       <c r="W450" s="5"/>
     </row>
-    <row r="451" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A451" s="5"/>
       <c r="B451" s="5"/>
       <c r="C451" s="5"/>
@@ -12005,7 +12075,7 @@
       <c r="V451" s="5"/>
       <c r="W451" s="5"/>
     </row>
-    <row r="452" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A452" s="5"/>
       <c r="B452" s="5"/>
       <c r="C452" s="5"/>
@@ -12030,7 +12100,7 @@
       <c r="V452" s="5"/>
       <c r="W452" s="5"/>
     </row>
-    <row r="453" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A453" s="5"/>
       <c r="B453" s="5"/>
       <c r="C453" s="5"/>
@@ -12055,7 +12125,7 @@
       <c r="V453" s="5"/>
       <c r="W453" s="5"/>
     </row>
-    <row r="454" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A454" s="5"/>
       <c r="B454" s="5"/>
       <c r="C454" s="5"/>
@@ -12080,7 +12150,7 @@
       <c r="V454" s="5"/>
       <c r="W454" s="5"/>
     </row>
-    <row r="455" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A455" s="5"/>
       <c r="B455" s="5"/>
       <c r="C455" s="5"/>
@@ -12105,7 +12175,7 @@
       <c r="V455" s="5"/>
       <c r="W455" s="5"/>
     </row>
-    <row r="456" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A456" s="5"/>
       <c r="B456" s="5"/>
       <c r="C456" s="5"/>
@@ -12130,7 +12200,7 @@
       <c r="V456" s="5"/>
       <c r="W456" s="5"/>
     </row>
-    <row r="457" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A457" s="5"/>
       <c r="B457" s="5"/>
       <c r="C457" s="5"/>
@@ -12155,7 +12225,7 @@
       <c r="V457" s="5"/>
       <c r="W457" s="5"/>
     </row>
-    <row r="458" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A458" s="5"/>
       <c r="B458" s="5"/>
       <c r="C458" s="5"/>
@@ -12180,7 +12250,7 @@
       <c r="V458" s="5"/>
       <c r="W458" s="5"/>
     </row>
-    <row r="459" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A459" s="5"/>
       <c r="B459" s="5"/>
       <c r="C459" s="5"/>
@@ -12205,7 +12275,7 @@
       <c r="V459" s="5"/>
       <c r="W459" s="5"/>
     </row>
-    <row r="460" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A460" s="5"/>
       <c r="B460" s="5"/>
       <c r="C460" s="5"/>
@@ -12230,7 +12300,7 @@
       <c r="V460" s="5"/>
       <c r="W460" s="5"/>
     </row>
-    <row r="461" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A461" s="5"/>
       <c r="B461" s="5"/>
       <c r="C461" s="5"/>
@@ -12255,7 +12325,7 @@
       <c r="V461" s="5"/>
       <c r="W461" s="5"/>
     </row>
-    <row r="462" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A462" s="5"/>
       <c r="B462" s="5"/>
       <c r="C462" s="5"/>
@@ -12280,7 +12350,7 @@
       <c r="V462" s="5"/>
       <c r="W462" s="5"/>
     </row>
-    <row r="463" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A463" s="5"/>
       <c r="B463" s="5"/>
       <c r="C463" s="5"/>
@@ -12305,7 +12375,7 @@
       <c r="V463" s="5"/>
       <c r="W463" s="5"/>
     </row>
-    <row r="464" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A464" s="5"/>
       <c r="B464" s="5"/>
       <c r="C464" s="5"/>
@@ -12330,7 +12400,7 @@
       <c r="V464" s="5"/>
       <c r="W464" s="5"/>
     </row>
-    <row r="465" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A465" s="5"/>
       <c r="B465" s="5"/>
       <c r="C465" s="5"/>
@@ -12355,7 +12425,7 @@
       <c r="V465" s="5"/>
       <c r="W465" s="5"/>
     </row>
-    <row r="466" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A466" s="5"/>
       <c r="B466" s="5"/>
       <c r="C466" s="5"/>
@@ -12380,7 +12450,7 @@
       <c r="V466" s="5"/>
       <c r="W466" s="5"/>
     </row>
-    <row r="467" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A467" s="5"/>
       <c r="B467" s="5"/>
       <c r="C467" s="5"/>
@@ -12405,7 +12475,7 @@
       <c r="V467" s="5"/>
       <c r="W467" s="5"/>
     </row>
-    <row r="468" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A468" s="5"/>
       <c r="B468" s="5"/>
       <c r="C468" s="5"/>
@@ -12430,7 +12500,7 @@
       <c r="V468" s="5"/>
       <c r="W468" s="5"/>
     </row>
-    <row r="469" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A469" s="5"/>
       <c r="B469" s="5"/>
       <c r="C469" s="5"/>
@@ -12455,7 +12525,7 @@
       <c r="V469" s="5"/>
       <c r="W469" s="5"/>
     </row>
-    <row r="470" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A470" s="5"/>
       <c r="B470" s="5"/>
       <c r="C470" s="5"/>
@@ -12480,7 +12550,7 @@
       <c r="V470" s="5"/>
       <c r="W470" s="5"/>
     </row>
-    <row r="471" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A471" s="5"/>
       <c r="B471" s="5"/>
       <c r="C471" s="5"/>
@@ -12505,7 +12575,7 @@
       <c r="V471" s="5"/>
       <c r="W471" s="5"/>
     </row>
-    <row r="472" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A472" s="5"/>
       <c r="B472" s="5"/>
       <c r="C472" s="5"/>
@@ -12530,7 +12600,7 @@
       <c r="V472" s="5"/>
       <c r="W472" s="5"/>
     </row>
-    <row r="473" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A473" s="5"/>
       <c r="B473" s="5"/>
       <c r="C473" s="5"/>
@@ -12555,7 +12625,7 @@
       <c r="V473" s="5"/>
       <c r="W473" s="5"/>
     </row>
-    <row r="474" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A474" s="5"/>
       <c r="B474" s="5"/>
       <c r="C474" s="5"/>
@@ -12580,7 +12650,7 @@
       <c r="V474" s="5"/>
       <c r="W474" s="5"/>
     </row>
-    <row r="475" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A475" s="5"/>
       <c r="B475" s="5"/>
       <c r="C475" s="5"/>
@@ -12605,7 +12675,7 @@
       <c r="V475" s="5"/>
       <c r="W475" s="5"/>
     </row>
-    <row r="476" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A476" s="5"/>
       <c r="B476" s="5"/>
       <c r="C476" s="5"/>
@@ -12630,7 +12700,7 @@
       <c r="V476" s="5"/>
       <c r="W476" s="5"/>
     </row>
-    <row r="477" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A477" s="5"/>
       <c r="B477" s="5"/>
       <c r="C477" s="5"/>
@@ -12655,7 +12725,7 @@
       <c r="V477" s="5"/>
       <c r="W477" s="5"/>
     </row>
-    <row r="478" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A478" s="5"/>
       <c r="B478" s="5"/>
       <c r="C478" s="5"/>
@@ -12680,7 +12750,7 @@
       <c r="V478" s="5"/>
       <c r="W478" s="5"/>
     </row>
-    <row r="479" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A479" s="5"/>
       <c r="B479" s="5"/>
       <c r="C479" s="5"/>
@@ -12705,7 +12775,7 @@
       <c r="V479" s="5"/>
       <c r="W479" s="5"/>
     </row>
-    <row r="480" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A480" s="5"/>
       <c r="B480" s="5"/>
       <c r="C480" s="5"/>
@@ -12730,7 +12800,7 @@
       <c r="V480" s="5"/>
       <c r="W480" s="5"/>
     </row>
-    <row r="481" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A481" s="5"/>
       <c r="B481" s="5"/>
       <c r="C481" s="5"/>
@@ -12755,7 +12825,7 @@
       <c r="V481" s="5"/>
       <c r="W481" s="5"/>
     </row>
-    <row r="482" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A482" s="5"/>
       <c r="B482" s="5"/>
       <c r="C482" s="5"/>
@@ -12780,7 +12850,7 @@
       <c r="V482" s="5"/>
       <c r="W482" s="5"/>
     </row>
-    <row r="483" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A483" s="5"/>
       <c r="B483" s="5"/>
       <c r="C483" s="5"/>
@@ -12805,7 +12875,7 @@
       <c r="V483" s="5"/>
       <c r="W483" s="5"/>
     </row>
-    <row r="484" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A484" s="5"/>
       <c r="B484" s="5"/>
       <c r="C484" s="5"/>
@@ -12830,7 +12900,7 @@
       <c r="V484" s="5"/>
       <c r="W484" s="5"/>
     </row>
-    <row r="485" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A485" s="5"/>
       <c r="B485" s="5"/>
       <c r="C485" s="5"/>
@@ -12855,7 +12925,7 @@
       <c r="V485" s="5"/>
       <c r="W485" s="5"/>
     </row>
-    <row r="486" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A486" s="5"/>
       <c r="B486" s="5"/>
       <c r="C486" s="5"/>
@@ -12880,7 +12950,7 @@
       <c r="V486" s="5"/>
       <c r="W486" s="5"/>
     </row>
-    <row r="487" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A487" s="5"/>
       <c r="B487" s="5"/>
       <c r="C487" s="5"/>
@@ -12905,7 +12975,7 @@
       <c r="V487" s="5"/>
       <c r="W487" s="5"/>
     </row>
-    <row r="488" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A488" s="5"/>
       <c r="B488" s="5"/>
       <c r="C488" s="5"/>
@@ -12930,7 +13000,7 @@
       <c r="V488" s="5"/>
       <c r="W488" s="5"/>
     </row>
-    <row r="489" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A489" s="5"/>
       <c r="B489" s="5"/>
       <c r="C489" s="5"/>
@@ -12955,7 +13025,7 @@
       <c r="V489" s="5"/>
       <c r="W489" s="5"/>
     </row>
-    <row r="490" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A490" s="5"/>
       <c r="B490" s="5"/>
       <c r="C490" s="5"/>
@@ -12980,7 +13050,7 @@
       <c r="V490" s="5"/>
       <c r="W490" s="5"/>
     </row>
-    <row r="491" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A491" s="5"/>
       <c r="B491" s="5"/>
       <c r="C491" s="5"/>
@@ -13005,7 +13075,7 @@
       <c r="V491" s="5"/>
       <c r="W491" s="5"/>
     </row>
-    <row r="492" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A492" s="5"/>
       <c r="B492" s="5"/>
       <c r="C492" s="5"/>
@@ -13030,7 +13100,7 @@
       <c r="V492" s="5"/>
       <c r="W492" s="5"/>
     </row>
-    <row r="493" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A493" s="5"/>
       <c r="B493" s="5"/>
       <c r="C493" s="5"/>
@@ -13055,7 +13125,7 @@
       <c r="V493" s="5"/>
       <c r="W493" s="5"/>
     </row>
-    <row r="494" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A494" s="5"/>
       <c r="B494" s="5"/>
       <c r="C494" s="5"/>
@@ -13080,7 +13150,7 @@
       <c r="V494" s="5"/>
       <c r="W494" s="5"/>
     </row>
-    <row r="495" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A495" s="5"/>
       <c r="B495" s="5"/>
       <c r="C495" s="5"/>
@@ -13105,7 +13175,7 @@
       <c r="V495" s="5"/>
       <c r="W495" s="5"/>
     </row>
-    <row r="496" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A496" s="5"/>
       <c r="B496" s="5"/>
       <c r="C496" s="5"/>
@@ -13130,7 +13200,7 @@
       <c r="V496" s="5"/>
       <c r="W496" s="5"/>
     </row>
-    <row r="497" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A497" s="5"/>
       <c r="B497" s="5"/>
       <c r="C497" s="5"/>
@@ -13155,7 +13225,7 @@
       <c r="V497" s="5"/>
       <c r="W497" s="5"/>
     </row>
-    <row r="498" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A498" s="5"/>
       <c r="B498" s="5"/>
       <c r="C498" s="5"/>
@@ -13180,7 +13250,7 @@
       <c r="V498" s="5"/>
       <c r="W498" s="5"/>
     </row>
-    <row r="499" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A499" s="5"/>
       <c r="B499" s="5"/>
       <c r="C499" s="5"/>
@@ -13205,7 +13275,7 @@
       <c r="V499" s="5"/>
       <c r="W499" s="5"/>
     </row>
-    <row r="500" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A500" s="5"/>
       <c r="B500" s="5"/>
       <c r="C500" s="5"/>
@@ -13230,7 +13300,7 @@
       <c r="V500" s="5"/>
       <c r="W500" s="5"/>
     </row>
-    <row r="501" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A501" s="5"/>
       <c r="B501" s="5"/>
       <c r="C501" s="5"/>
@@ -13255,7 +13325,7 @@
       <c r="V501" s="5"/>
       <c r="W501" s="5"/>
     </row>
-    <row r="502" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A502" s="5"/>
       <c r="B502" s="5"/>
       <c r="C502" s="5"/>
@@ -13280,7 +13350,7 @@
       <c r="V502" s="5"/>
       <c r="W502" s="5"/>
     </row>
-    <row r="503" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A503" s="5"/>
       <c r="B503" s="5"/>
       <c r="C503" s="5"/>
@@ -13305,7 +13375,7 @@
       <c r="V503" s="5"/>
       <c r="W503" s="5"/>
     </row>
-    <row r="504" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A504" s="5"/>
       <c r="B504" s="5"/>
       <c r="C504" s="5"/>
@@ -13330,7 +13400,7 @@
       <c r="V504" s="5"/>
       <c r="W504" s="5"/>
     </row>
-    <row r="505" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A505" s="5"/>
       <c r="B505" s="5"/>
       <c r="C505" s="5"/>
@@ -13355,7 +13425,7 @@
       <c r="V505" s="5"/>
       <c r="W505" s="5"/>
     </row>
-    <row r="506" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A506" s="5"/>
       <c r="B506" s="5"/>
       <c r="C506" s="5"/>
@@ -13380,7 +13450,7 @@
       <c r="V506" s="5"/>
       <c r="W506" s="5"/>
     </row>
-    <row r="507" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A507" s="5"/>
       <c r="B507" s="5"/>
       <c r="C507" s="5"/>
@@ -13405,7 +13475,7 @@
       <c r="V507" s="5"/>
       <c r="W507" s="5"/>
     </row>
-    <row r="508" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A508" s="5"/>
       <c r="B508" s="5"/>
       <c r="C508" s="5"/>
@@ -13430,7 +13500,7 @@
       <c r="V508" s="5"/>
       <c r="W508" s="5"/>
     </row>
-    <row r="509" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A509" s="5"/>
       <c r="B509" s="5"/>
       <c r="C509" s="5"/>
@@ -13455,7 +13525,7 @@
       <c r="V509" s="5"/>
       <c r="W509" s="5"/>
     </row>
-    <row r="510" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A510" s="5"/>
       <c r="B510" s="5"/>
       <c r="C510" s="5"/>
@@ -13480,7 +13550,7 @@
       <c r="V510" s="5"/>
       <c r="W510" s="5"/>
     </row>
-    <row r="511" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A511" s="5"/>
       <c r="B511" s="5"/>
       <c r="C511" s="5"/>
@@ -13505,7 +13575,7 @@
       <c r="V511" s="5"/>
       <c r="W511" s="5"/>
     </row>
-    <row r="512" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A512" s="5"/>
       <c r="B512" s="5"/>
       <c r="C512" s="5"/>
@@ -13530,7 +13600,7 @@
       <c r="V512" s="5"/>
       <c r="W512" s="5"/>
     </row>
-    <row r="513" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A513" s="5"/>
       <c r="B513" s="5"/>
       <c r="C513" s="5"/>
@@ -13555,7 +13625,7 @@
       <c r="V513" s="5"/>
       <c r="W513" s="5"/>
     </row>
-    <row r="514" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A514" s="5"/>
       <c r="B514" s="5"/>
       <c r="C514" s="5"/>
@@ -13580,7 +13650,7 @@
       <c r="V514" s="5"/>
       <c r="W514" s="5"/>
     </row>
-    <row r="515" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A515" s="5"/>
       <c r="B515" s="5"/>
       <c r="C515" s="5"/>
@@ -13605,7 +13675,7 @@
       <c r="V515" s="5"/>
       <c r="W515" s="5"/>
     </row>
-    <row r="516" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A516" s="5"/>
       <c r="B516" s="5"/>
       <c r="C516" s="5"/>
@@ -13630,7 +13700,7 @@
       <c r="V516" s="5"/>
       <c r="W516" s="5"/>
     </row>
-    <row r="517" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A517" s="5"/>
       <c r="B517" s="5"/>
       <c r="C517" s="5"/>
@@ -13655,7 +13725,7 @@
       <c r="V517" s="5"/>
       <c r="W517" s="5"/>
     </row>
-    <row r="518" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A518" s="5"/>
       <c r="B518" s="5"/>
       <c r="C518" s="5"/>
@@ -13680,7 +13750,7 @@
       <c r="V518" s="5"/>
       <c r="W518" s="5"/>
     </row>
-    <row r="519" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A519" s="5"/>
       <c r="B519" s="5"/>
       <c r="C519" s="5"/>
@@ -13705,7 +13775,7 @@
       <c r="V519" s="5"/>
       <c r="W519" s="5"/>
     </row>
-    <row r="520" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A520" s="5"/>
       <c r="B520" s="5"/>
       <c r="C520" s="5"/>
@@ -13730,7 +13800,7 @@
       <c r="V520" s="5"/>
       <c r="W520" s="5"/>
     </row>
-    <row r="521" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A521" s="5"/>
       <c r="B521" s="5"/>
       <c r="C521" s="5"/>
@@ -13755,7 +13825,7 @@
       <c r="V521" s="5"/>
       <c r="W521" s="5"/>
     </row>
-    <row r="522" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A522" s="5"/>
       <c r="B522" s="5"/>
       <c r="C522" s="5"/>
@@ -13780,7 +13850,7 @@
       <c r="V522" s="5"/>
       <c r="W522" s="5"/>
     </row>
-    <row r="523" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A523" s="5"/>
       <c r="B523" s="5"/>
       <c r="C523" s="5"/>
@@ -13805,7 +13875,7 @@
       <c r="V523" s="5"/>
       <c r="W523" s="5"/>
     </row>
-    <row r="524" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A524" s="5"/>
       <c r="B524" s="5"/>
       <c r="C524" s="5"/>
@@ -13830,7 +13900,7 @@
       <c r="V524" s="5"/>
       <c r="W524" s="5"/>
     </row>
-    <row r="525" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A525" s="5"/>
       <c r="B525" s="5"/>
       <c r="C525" s="5"/>
@@ -13855,7 +13925,7 @@
       <c r="V525" s="5"/>
       <c r="W525" s="5"/>
     </row>
-    <row r="526" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A526" s="5"/>
       <c r="B526" s="5"/>
       <c r="C526" s="5"/>
@@ -13880,7 +13950,7 @@
       <c r="V526" s="5"/>
       <c r="W526" s="5"/>
     </row>
-    <row r="527" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A527" s="5"/>
       <c r="B527" s="5"/>
       <c r="C527" s="5"/>
@@ -13905,7 +13975,7 @@
       <c r="V527" s="5"/>
       <c r="W527" s="5"/>
     </row>
-    <row r="528" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A528" s="5"/>
       <c r="B528" s="5"/>
       <c r="C528" s="5"/>
@@ -13930,7 +14000,7 @@
       <c r="V528" s="5"/>
       <c r="W528" s="5"/>
     </row>
-    <row r="529" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A529" s="5"/>
       <c r="B529" s="5"/>
       <c r="C529" s="5"/>
@@ -13955,7 +14025,7 @@
       <c r="V529" s="5"/>
       <c r="W529" s="5"/>
     </row>
-    <row r="530" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A530" s="5"/>
       <c r="B530" s="5"/>
       <c r="C530" s="5"/>
@@ -13980,7 +14050,7 @@
       <c r="V530" s="5"/>
       <c r="W530" s="5"/>
     </row>
-    <row r="531" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A531" s="5"/>
       <c r="B531" s="5"/>
       <c r="C531" s="5"/>
@@ -14005,7 +14075,7 @@
       <c r="V531" s="5"/>
       <c r="W531" s="5"/>
     </row>
-    <row r="532" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A532" s="5"/>
       <c r="B532" s="5"/>
       <c r="C532" s="5"/>
@@ -14030,7 +14100,7 @@
       <c r="V532" s="5"/>
       <c r="W532" s="5"/>
     </row>
-    <row r="533" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A533" s="5"/>
       <c r="B533" s="5"/>
       <c r="C533" s="5"/>
@@ -14055,7 +14125,7 @@
       <c r="V533" s="5"/>
       <c r="W533" s="5"/>
     </row>
-    <row r="534" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A534" s="5"/>
       <c r="B534" s="5"/>
       <c r="C534" s="5"/>
@@ -14080,7 +14150,7 @@
       <c r="V534" s="5"/>
       <c r="W534" s="5"/>
     </row>
-    <row r="535" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A535" s="5"/>
       <c r="B535" s="5"/>
       <c r="C535" s="5"/>
@@ -14105,7 +14175,7 @@
       <c r="V535" s="5"/>
       <c r="W535" s="5"/>
     </row>
-    <row r="536" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A536" s="5"/>
       <c r="B536" s="5"/>
       <c r="C536" s="5"/>
@@ -14130,7 +14200,7 @@
       <c r="V536" s="5"/>
       <c r="W536" s="5"/>
     </row>
-    <row r="537" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A537" s="5"/>
       <c r="B537" s="5"/>
       <c r="C537" s="5"/>
@@ -14155,7 +14225,7 @@
       <c r="V537" s="5"/>
       <c r="W537" s="5"/>
     </row>
-    <row r="538" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A538" s="5"/>
       <c r="B538" s="5"/>
       <c r="C538" s="5"/>
@@ -14180,7 +14250,7 @@
       <c r="V538" s="5"/>
       <c r="W538" s="5"/>
     </row>
-    <row r="539" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A539" s="5"/>
       <c r="B539" s="5"/>
       <c r="C539" s="5"/>
@@ -14205,7 +14275,7 @@
       <c r="V539" s="5"/>
       <c r="W539" s="5"/>
     </row>
-    <row r="540" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A540" s="5"/>
       <c r="B540" s="5"/>
       <c r="C540" s="5"/>
@@ -14230,7 +14300,7 @@
       <c r="V540" s="5"/>
       <c r="W540" s="5"/>
     </row>
-    <row r="541" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A541" s="5"/>
       <c r="B541" s="5"/>
       <c r="C541" s="5"/>
@@ -14255,7 +14325,7 @@
       <c r="V541" s="5"/>
       <c r="W541" s="5"/>
     </row>
-    <row r="542" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A542" s="5"/>
       <c r="B542" s="5"/>
       <c r="C542" s="5"/>
@@ -14280,7 +14350,7 @@
       <c r="V542" s="5"/>
       <c r="W542" s="5"/>
     </row>
-    <row r="543" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A543" s="5"/>
       <c r="B543" s="5"/>
       <c r="C543" s="5"/>
@@ -14305,7 +14375,7 @@
       <c r="V543" s="5"/>
       <c r="W543" s="5"/>
     </row>
-    <row r="544" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A544" s="5"/>
       <c r="B544" s="5"/>
       <c r="C544" s="5"/>
@@ -14330,7 +14400,7 @@
       <c r="V544" s="5"/>
       <c r="W544" s="5"/>
     </row>
-    <row r="545" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A545" s="5"/>
       <c r="B545" s="5"/>
       <c r="C545" s="5"/>
@@ -14355,7 +14425,7 @@
       <c r="V545" s="5"/>
       <c r="W545" s="5"/>
     </row>
-    <row r="546" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A546" s="5"/>
       <c r="B546" s="5"/>
       <c r="C546" s="5"/>
@@ -14380,7 +14450,7 @@
       <c r="V546" s="5"/>
       <c r="W546" s="5"/>
     </row>
-    <row r="547" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A547" s="5"/>
       <c r="B547" s="5"/>
       <c r="C547" s="5"/>
@@ -14405,7 +14475,7 @@
       <c r="V547" s="5"/>
       <c r="W547" s="5"/>
     </row>
-    <row r="548" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A548" s="5"/>
       <c r="B548" s="5"/>
       <c r="C548" s="5"/>
@@ -14430,7 +14500,7 @@
       <c r="V548" s="5"/>
       <c r="W548" s="5"/>
     </row>
-    <row r="549" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A549" s="5"/>
       <c r="B549" s="5"/>
       <c r="C549" s="5"/>
@@ -14455,7 +14525,7 @@
       <c r="V549" s="5"/>
       <c r="W549" s="5"/>
     </row>
-    <row r="550" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A550" s="5"/>
       <c r="B550" s="5"/>
       <c r="C550" s="5"/>
@@ -14480,7 +14550,7 @@
       <c r="V550" s="5"/>
       <c r="W550" s="5"/>
     </row>
-    <row r="551" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A551" s="5"/>
       <c r="B551" s="5"/>
       <c r="C551" s="5"/>
@@ -14505,7 +14575,7 @@
       <c r="V551" s="5"/>
       <c r="W551" s="5"/>
     </row>
-    <row r="552" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A552" s="5"/>
       <c r="B552" s="5"/>
       <c r="C552" s="5"/>
@@ -14530,7 +14600,7 @@
       <c r="V552" s="5"/>
       <c r="W552" s="5"/>
     </row>
-    <row r="553" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A553" s="5"/>
       <c r="B553" s="5"/>
       <c r="C553" s="5"/>
@@ -14555,7 +14625,7 @@
       <c r="V553" s="5"/>
       <c r="W553" s="5"/>
     </row>
-    <row r="554" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A554" s="5"/>
       <c r="B554" s="5"/>
       <c r="C554" s="5"/>
@@ -14580,7 +14650,7 @@
       <c r="V554" s="5"/>
       <c r="W554" s="5"/>
     </row>
-    <row r="555" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A555" s="5"/>
       <c r="B555" s="5"/>
       <c r="C555" s="5"/>
@@ -14605,7 +14675,7 @@
       <c r="V555" s="5"/>
       <c r="W555" s="5"/>
     </row>
-    <row r="556" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A556" s="5"/>
       <c r="B556" s="5"/>
       <c r="C556" s="5"/>
@@ -14630,7 +14700,7 @@
       <c r="V556" s="5"/>
       <c r="W556" s="5"/>
     </row>
-    <row r="557" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A557" s="5"/>
       <c r="B557" s="5"/>
       <c r="C557" s="5"/>
@@ -14655,7 +14725,7 @@
       <c r="V557" s="5"/>
       <c r="W557" s="5"/>
     </row>
-    <row r="558" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A558" s="5"/>
       <c r="B558" s="5"/>
       <c r="C558" s="5"/>
@@ -14680,7 +14750,7 @@
       <c r="V558" s="5"/>
       <c r="W558" s="5"/>
     </row>
-    <row r="559" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A559" s="5"/>
       <c r="B559" s="5"/>
       <c r="C559" s="5"/>
@@ -14705,7 +14775,7 @@
       <c r="V559" s="5"/>
       <c r="W559" s="5"/>
     </row>
-    <row r="560" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A560" s="5"/>
       <c r="B560" s="5"/>
       <c r="C560" s="5"/>
@@ -14730,7 +14800,7 @@
       <c r="V560" s="5"/>
       <c r="W560" s="5"/>
     </row>
-    <row r="561" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A561" s="5"/>
       <c r="B561" s="5"/>
       <c r="C561" s="5"/>
@@ -14755,7 +14825,7 @@
       <c r="V561" s="5"/>
       <c r="W561" s="5"/>
     </row>
-    <row r="562" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A562" s="5"/>
       <c r="B562" s="5"/>
       <c r="C562" s="5"/>
@@ -14780,7 +14850,7 @@
       <c r="V562" s="5"/>
       <c r="W562" s="5"/>
     </row>
-    <row r="563" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A563" s="5"/>
       <c r="B563" s="5"/>
       <c r="C563" s="5"/>
@@ -14805,7 +14875,7 @@
       <c r="V563" s="5"/>
       <c r="W563" s="5"/>
     </row>
-    <row r="564" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A564" s="5"/>
       <c r="B564" s="5"/>
       <c r="C564" s="5"/>
@@ -14830,7 +14900,7 @@
       <c r="V564" s="5"/>
       <c r="W564" s="5"/>
     </row>
-    <row r="565" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A565" s="5"/>
       <c r="B565" s="5"/>
       <c r="C565" s="5"/>
@@ -14855,7 +14925,7 @@
       <c r="V565" s="5"/>
       <c r="W565" s="5"/>
     </row>
-    <row r="566" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A566" s="5"/>
       <c r="B566" s="5"/>
       <c r="C566" s="5"/>
@@ -14880,7 +14950,7 @@
       <c r="V566" s="5"/>
       <c r="W566" s="5"/>
     </row>
-    <row r="567" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A567" s="5"/>
       <c r="B567" s="5"/>
       <c r="C567" s="5"/>
@@ -14905,7 +14975,7 @@
       <c r="V567" s="5"/>
       <c r="W567" s="5"/>
     </row>
-    <row r="568" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A568" s="5"/>
       <c r="B568" s="5"/>
       <c r="C568" s="5"/>
@@ -14930,7 +15000,7 @@
       <c r="V568" s="5"/>
       <c r="W568" s="5"/>
     </row>
-    <row r="569" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A569" s="5"/>
       <c r="B569" s="5"/>
       <c r="C569" s="5"/>
@@ -14955,7 +15025,7 @@
       <c r="V569" s="5"/>
       <c r="W569" s="5"/>
     </row>
-    <row r="570" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A570" s="5"/>
       <c r="B570" s="5"/>
       <c r="C570" s="5"/>
@@ -14980,7 +15050,7 @@
       <c r="V570" s="5"/>
       <c r="W570" s="5"/>
     </row>
-    <row r="571" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A571" s="5"/>
       <c r="B571" s="5"/>
       <c r="C571" s="5"/>
@@ -15005,7 +15075,7 @@
       <c r="V571" s="5"/>
       <c r="W571" s="5"/>
     </row>
-    <row r="572" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A572" s="5"/>
       <c r="B572" s="5"/>
       <c r="C572" s="5"/>
@@ -15030,7 +15100,7 @@
       <c r="V572" s="5"/>
       <c r="W572" s="5"/>
     </row>
-    <row r="573" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A573" s="5"/>
       <c r="B573" s="5"/>
       <c r="C573" s="5"/>
@@ -15055,7 +15125,7 @@
       <c r="V573" s="5"/>
       <c r="W573" s="5"/>
     </row>
-    <row r="574" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A574" s="5"/>
       <c r="B574" s="5"/>
       <c r="C574" s="5"/>
@@ -15080,7 +15150,7 @@
       <c r="V574" s="5"/>
       <c r="W574" s="5"/>
     </row>
-    <row r="575" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A575" s="5"/>
       <c r="B575" s="5"/>
       <c r="C575" s="5"/>
@@ -15105,7 +15175,7 @@
       <c r="V575" s="5"/>
       <c r="W575" s="5"/>
     </row>
-    <row r="576" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A576" s="5"/>
       <c r="B576" s="5"/>
       <c r="C576" s="5"/>
@@ -15130,7 +15200,7 @@
       <c r="V576" s="5"/>
       <c r="W576" s="5"/>
     </row>
-    <row r="577" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A577" s="5"/>
       <c r="B577" s="5"/>
       <c r="C577" s="5"/>
@@ -15155,7 +15225,7 @@
       <c r="V577" s="5"/>
       <c r="W577" s="5"/>
     </row>
-    <row r="578" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A578" s="5"/>
       <c r="B578" s="5"/>
       <c r="C578" s="5"/>
@@ -15180,7 +15250,7 @@
       <c r="V578" s="5"/>
       <c r="W578" s="5"/>
     </row>
-    <row r="579" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A579" s="5"/>
       <c r="B579" s="5"/>
       <c r="C579" s="5"/>
@@ -15205,7 +15275,7 @@
       <c r="V579" s="5"/>
       <c r="W579" s="5"/>
     </row>
-    <row r="580" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A580" s="5"/>
       <c r="B580" s="5"/>
       <c r="C580" s="5"/>
@@ -15230,7 +15300,7 @@
       <c r="V580" s="5"/>
       <c r="W580" s="5"/>
     </row>
-    <row r="581" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A581" s="5"/>
       <c r="B581" s="5"/>
       <c r="C581" s="5"/>
@@ -15255,7 +15325,7 @@
       <c r="V581" s="5"/>
       <c r="W581" s="5"/>
     </row>
-    <row r="582" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A582" s="5"/>
       <c r="B582" s="5"/>
       <c r="C582" s="5"/>
@@ -15280,7 +15350,7 @@
       <c r="V582" s="5"/>
       <c r="W582" s="5"/>
     </row>
-    <row r="583" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A583" s="5"/>
       <c r="B583" s="5"/>
       <c r="C583" s="5"/>
@@ -15305,7 +15375,7 @@
       <c r="V583" s="5"/>
       <c r="W583" s="5"/>
     </row>
-    <row r="584" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A584" s="5"/>
       <c r="B584" s="5"/>
       <c r="C584" s="5"/>
@@ -15330,7 +15400,7 @@
       <c r="V584" s="5"/>
       <c r="W584" s="5"/>
     </row>
-    <row r="585" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A585" s="5"/>
       <c r="B585" s="5"/>
       <c r="C585" s="5"/>
@@ -15355,7 +15425,7 @@
       <c r="V585" s="5"/>
       <c r="W585" s="5"/>
     </row>
-    <row r="586" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A586" s="5"/>
       <c r="B586" s="5"/>
       <c r="C586" s="5"/>
@@ -15380,7 +15450,7 @@
       <c r="V586" s="5"/>
       <c r="W586" s="5"/>
     </row>
-    <row r="587" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A587" s="5"/>
       <c r="B587" s="5"/>
       <c r="C587" s="5"/>
@@ -15405,7 +15475,7 @@
       <c r="V587" s="5"/>
       <c r="W587" s="5"/>
     </row>
-    <row r="588" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A588" s="5"/>
       <c r="B588" s="5"/>
       <c r="C588" s="5"/>
@@ -15430,7 +15500,7 @@
       <c r="V588" s="5"/>
       <c r="W588" s="5"/>
     </row>
-    <row r="589" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A589" s="5"/>
       <c r="B589" s="5"/>
       <c r="C589" s="5"/>
@@ -15455,7 +15525,7 @@
       <c r="V589" s="5"/>
       <c r="W589" s="5"/>
     </row>
-    <row r="590" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A590" s="5"/>
       <c r="B590" s="5"/>
       <c r="C590" s="5"/>
@@ -15480,7 +15550,7 @@
       <c r="V590" s="5"/>
       <c r="W590" s="5"/>
     </row>
-    <row r="591" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A591" s="5"/>
       <c r="B591" s="5"/>
       <c r="C591" s="5"/>
@@ -15505,7 +15575,7 @@
       <c r="V591" s="5"/>
       <c r="W591" s="5"/>
     </row>
-    <row r="592" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A592" s="5"/>
       <c r="B592" s="5"/>
       <c r="C592" s="5"/>
@@ -15530,7 +15600,7 @@
       <c r="V592" s="5"/>
       <c r="W592" s="5"/>
     </row>
-    <row r="593" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A593" s="5"/>
       <c r="B593" s="5"/>
       <c r="C593" s="5"/>
@@ -15555,7 +15625,7 @@
       <c r="V593" s="5"/>
       <c r="W593" s="5"/>
     </row>
-    <row r="594" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A594" s="5"/>
       <c r="B594" s="5"/>
       <c r="C594" s="5"/>
@@ -15580,7 +15650,7 @@
       <c r="V594" s="5"/>
       <c r="W594" s="5"/>
     </row>
-    <row r="595" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A595" s="5"/>
       <c r="B595" s="5"/>
       <c r="C595" s="5"/>
@@ -15605,7 +15675,7 @@
       <c r="V595" s="5"/>
       <c r="W595" s="5"/>
     </row>
-    <row r="596" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A596" s="5"/>
       <c r="B596" s="5"/>
       <c r="C596" s="5"/>
@@ -15630,7 +15700,7 @@
       <c r="V596" s="5"/>
       <c r="W596" s="5"/>
     </row>
-    <row r="597" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A597" s="5"/>
       <c r="B597" s="5"/>
       <c r="C597" s="5"/>
@@ -15655,7 +15725,7 @@
       <c r="V597" s="5"/>
       <c r="W597" s="5"/>
     </row>
-    <row r="598" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A598" s="5"/>
       <c r="B598" s="5"/>
       <c r="C598" s="5"/>
@@ -15680,7 +15750,7 @@
       <c r="V598" s="5"/>
       <c r="W598" s="5"/>
     </row>
-    <row r="599" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A599" s="5"/>
       <c r="B599" s="5"/>
       <c r="C599" s="5"/>
@@ -15705,7 +15775,7 @@
       <c r="V599" s="5"/>
       <c r="W599" s="5"/>
     </row>
-    <row r="600" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A600" s="5"/>
       <c r="B600" s="5"/>
       <c r="C600" s="5"/>
@@ -15730,7 +15800,7 @@
       <c r="V600" s="5"/>
       <c r="W600" s="5"/>
     </row>
-    <row r="601" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A601" s="5"/>
       <c r="B601" s="5"/>
       <c r="C601" s="5"/>
@@ -15755,7 +15825,7 @@
       <c r="V601" s="5"/>
       <c r="W601" s="5"/>
     </row>
-    <row r="602" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A602" s="5"/>
       <c r="B602" s="5"/>
       <c r="C602" s="5"/>
@@ -15780,7 +15850,7 @@
       <c r="V602" s="5"/>
       <c r="W602" s="5"/>
     </row>
-    <row r="603" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A603" s="5"/>
       <c r="B603" s="5"/>
       <c r="C603" s="5"/>
@@ -15805,7 +15875,7 @@
       <c r="V603" s="5"/>
       <c r="W603" s="5"/>
     </row>
-    <row r="604" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A604" s="5"/>
       <c r="B604" s="5"/>
       <c r="C604" s="5"/>
@@ -15830,7 +15900,7 @@
       <c r="V604" s="5"/>
       <c r="W604" s="5"/>
     </row>
-    <row r="605" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A605" s="5"/>
       <c r="B605" s="5"/>
       <c r="C605" s="5"/>
@@ -15855,7 +15925,7 @@
       <c r="V605" s="5"/>
       <c r="W605" s="5"/>
     </row>
-    <row r="606" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A606" s="5"/>
       <c r="B606" s="5"/>
       <c r="C606" s="5"/>
@@ -15880,7 +15950,7 @@
       <c r="V606" s="5"/>
       <c r="W606" s="5"/>
     </row>
-    <row r="607" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A607" s="5"/>
       <c r="B607" s="5"/>
       <c r="C607" s="5"/>
@@ -15905,7 +15975,7 @@
       <c r="V607" s="5"/>
       <c r="W607" s="5"/>
     </row>
-    <row r="608" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A608" s="5"/>
       <c r="B608" s="5"/>
       <c r="C608" s="5"/>
@@ -15930,7 +16000,7 @@
       <c r="V608" s="5"/>
       <c r="W608" s="5"/>
     </row>
-    <row r="609" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A609" s="5"/>
       <c r="B609" s="5"/>
       <c r="C609" s="5"/>
@@ -15955,7 +16025,7 @@
       <c r="V609" s="5"/>
       <c r="W609" s="5"/>
     </row>
-    <row r="610" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A610" s="5"/>
       <c r="B610" s="5"/>
       <c r="C610" s="5"/>
@@ -15980,7 +16050,7 @@
       <c r="V610" s="5"/>
       <c r="W610" s="5"/>
     </row>
-    <row r="611" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A611" s="5"/>
       <c r="B611" s="5"/>
       <c r="C611" s="5"/>
@@ -16005,7 +16075,7 @@
       <c r="V611" s="5"/>
       <c r="W611" s="5"/>
     </row>
-    <row r="612" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A612" s="5"/>
       <c r="B612" s="5"/>
       <c r="C612" s="5"/>
@@ -16030,7 +16100,7 @@
       <c r="V612" s="5"/>
       <c r="W612" s="5"/>
     </row>
-    <row r="613" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A613" s="5"/>
       <c r="B613" s="5"/>
       <c r="C613" s="5"/>
@@ -16055,7 +16125,7 @@
       <c r="V613" s="5"/>
       <c r="W613" s="5"/>
     </row>
-    <row r="614" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A614" s="5"/>
       <c r="B614" s="5"/>
       <c r="C614" s="5"/>
@@ -16080,7 +16150,7 @@
       <c r="V614" s="5"/>
       <c r="W614" s="5"/>
     </row>
-    <row r="615" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A615" s="5"/>
       <c r="B615" s="5"/>
       <c r="C615" s="5"/>
@@ -16105,7 +16175,7 @@
       <c r="V615" s="5"/>
       <c r="W615" s="5"/>
     </row>
-    <row r="616" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A616" s="5"/>
       <c r="B616" s="5"/>
       <c r="C616" s="5"/>
@@ -16130,7 +16200,7 @@
       <c r="V616" s="5"/>
       <c r="W616" s="5"/>
     </row>
-    <row r="617" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A617" s="5"/>
       <c r="B617" s="5"/>
       <c r="C617" s="5"/>
@@ -16155,7 +16225,7 @@
       <c r="V617" s="5"/>
       <c r="W617" s="5"/>
     </row>
-    <row r="618" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A618" s="5"/>
       <c r="B618" s="5"/>
       <c r="C618" s="5"/>
@@ -16180,7 +16250,7 @@
       <c r="V618" s="5"/>
       <c r="W618" s="5"/>
     </row>
-    <row r="619" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A619" s="5"/>
       <c r="B619" s="5"/>
       <c r="C619" s="5"/>
@@ -16205,7 +16275,7 @@
       <c r="V619" s="5"/>
       <c r="W619" s="5"/>
     </row>
-    <row r="620" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A620" s="5"/>
       <c r="B620" s="5"/>
       <c r="C620" s="5"/>
@@ -16230,7 +16300,7 @@
       <c r="V620" s="5"/>
       <c r="W620" s="5"/>
     </row>
-    <row r="621" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A621" s="5"/>
       <c r="B621" s="5"/>
       <c r="C621" s="5"/>
@@ -16255,7 +16325,7 @@
       <c r="V621" s="5"/>
       <c r="W621" s="5"/>
     </row>
-    <row r="622" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A622" s="5"/>
       <c r="B622" s="5"/>
       <c r="C622" s="5"/>
@@ -16280,7 +16350,7 @@
       <c r="V622" s="5"/>
       <c r="W622" s="5"/>
     </row>
-    <row r="623" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A623" s="5"/>
       <c r="B623" s="5"/>
       <c r="C623" s="5"/>
@@ -16305,7 +16375,7 @@
       <c r="V623" s="5"/>
       <c r="W623" s="5"/>
     </row>
-    <row r="624" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A624" s="5"/>
       <c r="B624" s="5"/>
       <c r="C624" s="5"/>
@@ -16330,7 +16400,7 @@
       <c r="V624" s="5"/>
       <c r="W624" s="5"/>
     </row>
-    <row r="625" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A625" s="5"/>
       <c r="B625" s="5"/>
       <c r="C625" s="5"/>
@@ -16355,7 +16425,7 @@
       <c r="V625" s="5"/>
       <c r="W625" s="5"/>
     </row>
-    <row r="626" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A626" s="5"/>
       <c r="B626" s="5"/>
       <c r="C626" s="5"/>
@@ -16380,7 +16450,7 @@
       <c r="V626" s="5"/>
       <c r="W626" s="5"/>
     </row>
-    <row r="627" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A627" s="5"/>
       <c r="B627" s="5"/>
       <c r="C627" s="5"/>
@@ -16405,7 +16475,7 @@
       <c r="V627" s="5"/>
       <c r="W627" s="5"/>
     </row>
-    <row r="628" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A628" s="5"/>
       <c r="B628" s="5"/>
       <c r="C628" s="5"/>
@@ -16430,7 +16500,7 @@
       <c r="V628" s="5"/>
       <c r="W628" s="5"/>
     </row>
-    <row r="629" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A629" s="5"/>
       <c r="B629" s="5"/>
       <c r="C629" s="5"/>
@@ -16455,7 +16525,7 @@
       <c r="V629" s="5"/>
       <c r="W629" s="5"/>
     </row>
-    <row r="630" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A630" s="5"/>
       <c r="B630" s="5"/>
       <c r="C630" s="5"/>
@@ -16480,7 +16550,7 @@
       <c r="V630" s="5"/>
       <c r="W630" s="5"/>
     </row>
-    <row r="631" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A631" s="5"/>
       <c r="B631" s="5"/>
       <c r="C631" s="5"/>
@@ -16505,7 +16575,7 @@
       <c r="V631" s="5"/>
       <c r="W631" s="5"/>
     </row>
-    <row r="632" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A632" s="5"/>
       <c r="B632" s="5"/>
       <c r="C632" s="5"/>
@@ -16530,7 +16600,7 @@
       <c r="V632" s="5"/>
       <c r="W632" s="5"/>
     </row>
-    <row r="633" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A633" s="5"/>
       <c r="B633" s="5"/>
       <c r="C633" s="5"/>
@@ -16555,7 +16625,7 @@
       <c r="V633" s="5"/>
       <c r="W633" s="5"/>
     </row>
-    <row r="634" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A634" s="5"/>
       <c r="B634" s="5"/>
       <c r="C634" s="5"/>
@@ -16580,7 +16650,7 @@
       <c r="V634" s="5"/>
       <c r="W634" s="5"/>
     </row>
-    <row r="635" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A635" s="5"/>
       <c r="B635" s="5"/>
       <c r="C635" s="5"/>
@@ -16605,7 +16675,7 @@
       <c r="V635" s="5"/>
       <c r="W635" s="5"/>
     </row>
-    <row r="636" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A636" s="5"/>
       <c r="B636" s="5"/>
       <c r="C636" s="5"/>
@@ -16630,7 +16700,7 @@
       <c r="V636" s="5"/>
       <c r="W636" s="5"/>
     </row>
-    <row r="637" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A637" s="5"/>
       <c r="B637" s="5"/>
       <c r="C637" s="5"/>
@@ -16655,7 +16725,7 @@
       <c r="V637" s="5"/>
       <c r="W637" s="5"/>
     </row>
-    <row r="638" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A638" s="5"/>
       <c r="B638" s="5"/>
       <c r="C638" s="5"/>
@@ -16680,7 +16750,7 @@
       <c r="V638" s="5"/>
       <c r="W638" s="5"/>
     </row>
-    <row r="639" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A639" s="5"/>
       <c r="B639" s="5"/>
       <c r="C639" s="5"/>
@@ -16705,7 +16775,7 @@
       <c r="V639" s="5"/>
       <c r="W639" s="5"/>
     </row>
-    <row r="640" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A640" s="5"/>
       <c r="B640" s="5"/>
       <c r="C640" s="5"/>
@@ -16730,7 +16800,7 @@
       <c r="V640" s="5"/>
       <c r="W640" s="5"/>
     </row>
-    <row r="641" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A641" s="5"/>
       <c r="B641" s="5"/>
       <c r="C641" s="5"/>
@@ -16755,7 +16825,7 @@
       <c r="V641" s="5"/>
       <c r="W641" s="5"/>
     </row>
-    <row r="642" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A642" s="5"/>
       <c r="B642" s="5"/>
       <c r="C642" s="5"/>
@@ -16780,7 +16850,7 @@
       <c r="V642" s="5"/>
       <c r="W642" s="5"/>
     </row>
-    <row r="643" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A643" s="5"/>
       <c r="B643" s="5"/>
       <c r="C643" s="5"/>
@@ -16805,7 +16875,7 @@
       <c r="V643" s="5"/>
       <c r="W643" s="5"/>
     </row>
-    <row r="644" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A644" s="5"/>
       <c r="B644" s="5"/>
       <c r="C644" s="5"/>
@@ -16830,7 +16900,7 @@
       <c r="V644" s="5"/>
       <c r="W644" s="5"/>
     </row>
-    <row r="645" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A645" s="5"/>
       <c r="B645" s="5"/>
       <c r="C645" s="5"/>
@@ -16855,7 +16925,7 @@
       <c r="V645" s="5"/>
       <c r="W645" s="5"/>
     </row>
-    <row r="646" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A646" s="5"/>
       <c r="B646" s="5"/>
       <c r="C646" s="5"/>
@@ -16880,7 +16950,7 @@
       <c r="V646" s="5"/>
       <c r="W646" s="5"/>
     </row>
-    <row r="647" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A647" s="5"/>
       <c r="B647" s="5"/>
       <c r="C647" s="5"/>
@@ -16905,7 +16975,7 @@
       <c r="V647" s="5"/>
       <c r="W647" s="5"/>
     </row>
-    <row r="648" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A648" s="5"/>
       <c r="B648" s="5"/>
       <c r="C648" s="5"/>
@@ -16930,7 +17000,7 @@
       <c r="V648" s="5"/>
       <c r="W648" s="5"/>
     </row>
-    <row r="649" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A649" s="5"/>
       <c r="B649" s="5"/>
       <c r="C649" s="5"/>
@@ -16955,7 +17025,7 @@
       <c r="V649" s="5"/>
       <c r="W649" s="5"/>
     </row>
-    <row r="650" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A650" s="5"/>
       <c r="B650" s="5"/>
       <c r="C650" s="5"/>
@@ -16980,7 +17050,7 @@
       <c r="V650" s="5"/>
       <c r="W650" s="5"/>
     </row>
-    <row r="651" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A651" s="5"/>
       <c r="B651" s="5"/>
       <c r="C651" s="5"/>
@@ -17005,7 +17075,7 @@
       <c r="V651" s="5"/>
       <c r="W651" s="5"/>
     </row>
-    <row r="652" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A652" s="5"/>
       <c r="B652" s="5"/>
       <c r="C652" s="5"/>
@@ -17030,7 +17100,7 @@
       <c r="V652" s="5"/>
       <c r="W652" s="5"/>
     </row>
-    <row r="653" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A653" s="5"/>
       <c r="B653" s="5"/>
       <c r="C653" s="5"/>
@@ -17055,7 +17125,7 @@
       <c r="V653" s="5"/>
       <c r="W653" s="5"/>
     </row>
-    <row r="654" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A654" s="5"/>
       <c r="B654" s="5"/>
       <c r="C654" s="5"/>
@@ -17080,7 +17150,7 @@
       <c r="V654" s="5"/>
       <c r="W654" s="5"/>
     </row>
-    <row r="655" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A655" s="5"/>
       <c r="B655" s="5"/>
       <c r="C655" s="5"/>
@@ -17105,7 +17175,7 @@
       <c r="V655" s="5"/>
       <c r="W655" s="5"/>
     </row>
-    <row r="656" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A656" s="5"/>
       <c r="B656" s="5"/>
       <c r="C656" s="5"/>
@@ -17130,7 +17200,7 @@
       <c r="V656" s="5"/>
       <c r="W656" s="5"/>
     </row>
-    <row r="657" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A657" s="5"/>
       <c r="B657" s="5"/>
       <c r="C657" s="5"/>
@@ -17155,7 +17225,7 @@
       <c r="V657" s="5"/>
       <c r="W657" s="5"/>
     </row>
-    <row r="658" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A658" s="5"/>
       <c r="B658" s="5"/>
       <c r="C658" s="5"/>
@@ -17180,7 +17250,7 @@
       <c r="V658" s="5"/>
       <c r="W658" s="5"/>
     </row>
-    <row r="659" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A659" s="5"/>
       <c r="B659" s="5"/>
       <c r="C659" s="5"/>
@@ -17205,7 +17275,7 @@
       <c r="V659" s="5"/>
       <c r="W659" s="5"/>
     </row>
-    <row r="660" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A660" s="5"/>
       <c r="B660" s="5"/>
       <c r="C660" s="5"/>
@@ -17230,7 +17300,7 @@
       <c r="V660" s="5"/>
       <c r="W660" s="5"/>
     </row>
-    <row r="661" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A661" s="5"/>
       <c r="B661" s="5"/>
       <c r="C661" s="5"/>
@@ -17255,7 +17325,7 @@
       <c r="V661" s="5"/>
       <c r="W661" s="5"/>
     </row>
-    <row r="662" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A662" s="5"/>
       <c r="B662" s="5"/>
       <c r="C662" s="5"/>
@@ -17280,7 +17350,7 @@
       <c r="V662" s="5"/>
       <c r="W662" s="5"/>
     </row>
-    <row r="663" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A663" s="5"/>
       <c r="B663" s="5"/>
       <c r="C663" s="5"/>
@@ -17305,7 +17375,7 @@
       <c r="V663" s="5"/>
       <c r="W663" s="5"/>
     </row>
-    <row r="664" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A664" s="5"/>
       <c r="B664" s="5"/>
       <c r="C664" s="5"/>
@@ -17330,7 +17400,7 @@
       <c r="V664" s="5"/>
       <c r="W664" s="5"/>
     </row>
-    <row r="665" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A665" s="5"/>
       <c r="B665" s="5"/>
       <c r="C665" s="5"/>
@@ -17355,7 +17425,7 @@
       <c r="V665" s="5"/>
       <c r="W665" s="5"/>
     </row>
-    <row r="666" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A666" s="5"/>
       <c r="B666" s="5"/>
       <c r="C666" s="5"/>
@@ -17380,7 +17450,7 @@
       <c r="V666" s="5"/>
       <c r="W666" s="5"/>
     </row>
-    <row r="667" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A667" s="5"/>
       <c r="B667" s="5"/>
       <c r="C667" s="5"/>
@@ -17405,7 +17475,7 @@
       <c r="V667" s="5"/>
       <c r="W667" s="5"/>
     </row>
-    <row r="668" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A668" s="5"/>
       <c r="B668" s="5"/>
       <c r="C668" s="5"/>
@@ -17430,7 +17500,7 @@
       <c r="V668" s="5"/>
       <c r="W668" s="5"/>
     </row>
-    <row r="669" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A669" s="5"/>
       <c r="B669" s="5"/>
       <c r="C669" s="5"/>
@@ -17455,7 +17525,7 @@
       <c r="V669" s="5"/>
       <c r="W669" s="5"/>
     </row>
-    <row r="670" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A670" s="5"/>
       <c r="B670" s="5"/>
       <c r="C670" s="5"/>
@@ -17480,7 +17550,7 @@
       <c r="V670" s="5"/>
       <c r="W670" s="5"/>
     </row>
-    <row r="671" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A671" s="5"/>
       <c r="B671" s="5"/>
       <c r="C671" s="5"/>
@@ -17505,7 +17575,7 @@
       <c r="V671" s="5"/>
       <c r="W671" s="5"/>
     </row>
-    <row r="672" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A672" s="5"/>
       <c r="B672" s="5"/>
       <c r="C672" s="5"/>
@@ -17530,7 +17600,7 @@
       <c r="V672" s="5"/>
       <c r="W672" s="5"/>
     </row>
-    <row r="673" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A673" s="5"/>
       <c r="B673" s="5"/>
       <c r="C673" s="5"/>
@@ -17555,7 +17625,7 @@
       <c r="V673" s="5"/>
       <c r="W673" s="5"/>
     </row>
-    <row r="674" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A674" s="5"/>
       <c r="B674" s="5"/>
       <c r="C674" s="5"/>
@@ -17580,7 +17650,7 @@
       <c r="V674" s="5"/>
       <c r="W674" s="5"/>
     </row>
-    <row r="675" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A675" s="5"/>
       <c r="B675" s="5"/>
       <c r="C675" s="5"/>
@@ -17605,7 +17675,7 @@
       <c r="V675" s="5"/>
       <c r="W675" s="5"/>
     </row>
-    <row r="676" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A676" s="5"/>
       <c r="B676" s="5"/>
       <c r="C676" s="5"/>
@@ -17630,7 +17700,7 @@
       <c r="V676" s="5"/>
       <c r="W676" s="5"/>
     </row>
-    <row r="677" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A677" s="5"/>
       <c r="B677" s="5"/>
       <c r="C677" s="5"/>
@@ -17655,7 +17725,7 @@
       <c r="V677" s="5"/>
       <c r="W677" s="5"/>
     </row>
-    <row r="678" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A678" s="5"/>
       <c r="B678" s="5"/>
       <c r="C678" s="5"/>
@@ -17680,7 +17750,7 @@
       <c r="V678" s="5"/>
       <c r="W678" s="5"/>
     </row>
-    <row r="679" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A679" s="5"/>
       <c r="B679" s="5"/>
       <c r="C679" s="5"/>
@@ -17705,7 +17775,7 @@
       <c r="V679" s="5"/>
       <c r="W679" s="5"/>
     </row>
-    <row r="680" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A680" s="5"/>
       <c r="B680" s="5"/>
       <c r="C680" s="5"/>
@@ -17730,7 +17800,7 @@
       <c r="V680" s="5"/>
       <c r="W680" s="5"/>
     </row>
-    <row r="681" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A681" s="5"/>
       <c r="B681" s="5"/>
       <c r="C681" s="5"/>
@@ -17755,7 +17825,7 @@
       <c r="V681" s="5"/>
       <c r="W681" s="5"/>
     </row>
-    <row r="682" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A682" s="5"/>
       <c r="B682" s="5"/>
       <c r="C682" s="5"/>
@@ -17780,7 +17850,7 @@
       <c r="V682" s="5"/>
       <c r="W682" s="5"/>
     </row>
-    <row r="683" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A683" s="5"/>
       <c r="B683" s="5"/>
       <c r="C683" s="5"/>
@@ -17805,7 +17875,7 @@
       <c r="V683" s="5"/>
       <c r="W683" s="5"/>
     </row>
-    <row r="684" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A684" s="5"/>
       <c r="B684" s="5"/>
       <c r="C684" s="5"/>
@@ -17830,7 +17900,7 @@
       <c r="V684" s="5"/>
       <c r="W684" s="5"/>
     </row>
-    <row r="685" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A685" s="5"/>
       <c r="B685" s="5"/>
       <c r="C685" s="5"/>
@@ -17855,7 +17925,7 @@
       <c r="V685" s="5"/>
       <c r="W685" s="5"/>
     </row>
-    <row r="686" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A686" s="5"/>
       <c r="B686" s="5"/>
       <c r="C686" s="5"/>
@@ -17880,7 +17950,7 @@
       <c r="V686" s="5"/>
       <c r="W686" s="5"/>
     </row>
-    <row r="687" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A687" s="5"/>
       <c r="B687" s="5"/>
       <c r="C687" s="5"/>
@@ -17905,7 +17975,7 @@
       <c r="V687" s="5"/>
       <c r="W687" s="5"/>
     </row>
-    <row r="688" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A688" s="5"/>
       <c r="B688" s="5"/>
       <c r="C688" s="5"/>
@@ -17930,7 +18000,7 @@
       <c r="V688" s="5"/>
       <c r="W688" s="5"/>
     </row>
-    <row r="689" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A689" s="5"/>
       <c r="B689" s="5"/>
       <c r="C689" s="5"/>
@@ -17955,7 +18025,7 @@
       <c r="V689" s="5"/>
       <c r="W689" s="5"/>
     </row>
-    <row r="690" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A690" s="5"/>
       <c r="B690" s="5"/>
       <c r="C690" s="5"/>
@@ -17980,7 +18050,7 @@
       <c r="V690" s="5"/>
       <c r="W690" s="5"/>
     </row>
-    <row r="691" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A691" s="5"/>
       <c r="B691" s="5"/>
       <c r="C691" s="5"/>
@@ -18005,7 +18075,7 @@
       <c r="V691" s="5"/>
       <c r="W691" s="5"/>
     </row>
-    <row r="692" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A692" s="5"/>
       <c r="B692" s="5"/>
       <c r="C692" s="5"/>
@@ -18030,7 +18100,7 @@
       <c r="V692" s="5"/>
       <c r="W692" s="5"/>
     </row>
-    <row r="693" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A693" s="5"/>
       <c r="B693" s="5"/>
       <c r="C693" s="5"/>
@@ -18055,7 +18125,7 @@
       <c r="V693" s="5"/>
       <c r="W693" s="5"/>
     </row>
-    <row r="694" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A694" s="5"/>
       <c r="B694" s="5"/>
       <c r="C694" s="5"/>
@@ -18080,7 +18150,7 @@
       <c r="V694" s="5"/>
       <c r="W694" s="5"/>
     </row>
-    <row r="695" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A695" s="5"/>
       <c r="B695" s="5"/>
       <c r="C695" s="5"/>
@@ -18105,7 +18175,7 @@
       <c r="V695" s="5"/>
       <c r="W695" s="5"/>
     </row>
-    <row r="696" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A696" s="5"/>
       <c r="B696" s="5"/>
       <c r="C696" s="5"/>
@@ -18130,7 +18200,7 @@
       <c r="V696" s="5"/>
       <c r="W696" s="5"/>
     </row>
-    <row r="697" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A697" s="5"/>
       <c r="B697" s="5"/>
       <c r="C697" s="5"/>
@@ -18155,7 +18225,7 @@
       <c r="V697" s="5"/>
       <c r="W697" s="5"/>
     </row>
-    <row r="698" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A698" s="5"/>
       <c r="B698" s="5"/>
       <c r="C698" s="5"/>
@@ -18180,7 +18250,7 @@
       <c r="V698" s="5"/>
       <c r="W698" s="5"/>
     </row>
-    <row r="699" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A699" s="5"/>
       <c r="B699" s="5"/>
       <c r="C699" s="5"/>
@@ -18205,7 +18275,7 @@
       <c r="V699" s="5"/>
       <c r="W699" s="5"/>
     </row>
-    <row r="700" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A700" s="5"/>
       <c r="B700" s="5"/>
       <c r="C700" s="5"/>
@@ -18230,7 +18300,7 @@
       <c r="V700" s="5"/>
       <c r="W700" s="5"/>
     </row>
-    <row r="701" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A701" s="5"/>
       <c r="B701" s="5"/>
       <c r="C701" s="5"/>
@@ -18255,7 +18325,7 @@
       <c r="V701" s="5"/>
       <c r="W701" s="5"/>
     </row>
-    <row r="702" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A702" s="5"/>
       <c r="B702" s="5"/>
       <c r="C702" s="5"/>
@@ -18280,7 +18350,7 @@
       <c r="V702" s="5"/>
       <c r="W702" s="5"/>
     </row>
-    <row r="703" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A703" s="5"/>
       <c r="B703" s="5"/>
       <c r="C703" s="5"/>
@@ -18305,7 +18375,7 @@
       <c r="V703" s="5"/>
       <c r="W703" s="5"/>
     </row>
-    <row r="704" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A704" s="5"/>
       <c r="B704" s="5"/>
       <c r="C704" s="5"/>
@@ -18330,7 +18400,7 @@
       <c r="V704" s="5"/>
       <c r="W704" s="5"/>
     </row>
-    <row r="705" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A705" s="5"/>
       <c r="B705" s="5"/>
       <c r="C705" s="5"/>
@@ -18355,7 +18425,7 @@
       <c r="V705" s="5"/>
       <c r="W705" s="5"/>
     </row>
-    <row r="706" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A706" s="5"/>
       <c r="B706" s="5"/>
       <c r="C706" s="5"/>
@@ -18380,7 +18450,7 @@
       <c r="V706" s="5"/>
       <c r="W706" s="5"/>
     </row>
-    <row r="707" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A707" s="5"/>
       <c r="B707" s="5"/>
       <c r="C707" s="5"/>
@@ -18405,7 +18475,7 @@
       <c r="V707" s="5"/>
       <c r="W707" s="5"/>
     </row>
-    <row r="708" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A708" s="5"/>
       <c r="B708" s="5"/>
       <c r="C708" s="5"/>
@@ -18430,7 +18500,7 @@
       <c r="V708" s="5"/>
       <c r="W708" s="5"/>
     </row>
-    <row r="709" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A709" s="5"/>
       <c r="B709" s="5"/>
       <c r="C709" s="5"/>
@@ -18455,7 +18525,7 @@
       <c r="V709" s="5"/>
       <c r="W709" s="5"/>
     </row>
-    <row r="710" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A710" s="5"/>
       <c r="B710" s="5"/>
       <c r="C710" s="5"/>
@@ -18480,7 +18550,7 @@
       <c r="V710" s="5"/>
       <c r="W710" s="5"/>
     </row>
-    <row r="711" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A711" s="5"/>
       <c r="B711" s="5"/>
       <c r="C711" s="5"/>
@@ -18505,7 +18575,7 @@
       <c r="V711" s="5"/>
       <c r="W711" s="5"/>
     </row>
-    <row r="712" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A712" s="5"/>
       <c r="B712" s="5"/>
       <c r="C712" s="5"/>
@@ -18530,7 +18600,7 @@
       <c r="V712" s="5"/>
       <c r="W712" s="5"/>
     </row>
-    <row r="713" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A713" s="5"/>
       <c r="B713" s="5"/>
       <c r="C713" s="5"/>
@@ -18555,7 +18625,7 @@
       <c r="V713" s="5"/>
       <c r="W713" s="5"/>
     </row>
-    <row r="714" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A714" s="5"/>
       <c r="B714" s="5"/>
       <c r="C714" s="5"/>
@@ -18580,7 +18650,7 @@
       <c r="V714" s="5"/>
       <c r="W714" s="5"/>
     </row>
-    <row r="715" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A715" s="5"/>
       <c r="B715" s="5"/>
       <c r="C715" s="5"/>
@@ -18605,7 +18675,7 @@
       <c r="V715" s="5"/>
       <c r="W715" s="5"/>
     </row>
-    <row r="716" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A716" s="5"/>
       <c r="B716" s="5"/>
       <c r="C716" s="5"/>
@@ -18630,7 +18700,7 @@
       <c r="V716" s="5"/>
       <c r="W716" s="5"/>
     </row>
-    <row r="717" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A717" s="5"/>
       <c r="B717" s="5"/>
       <c r="C717" s="5"/>
@@ -18655,7 +18725,7 @@
       <c r="V717" s="5"/>
       <c r="W717" s="5"/>
     </row>
-    <row r="718" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A718" s="5"/>
       <c r="B718" s="5"/>
       <c r="C718" s="5"/>
@@ -18680,7 +18750,7 @@
       <c r="V718" s="5"/>
       <c r="W718" s="5"/>
     </row>
-    <row r="719" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A719" s="5"/>
       <c r="B719" s="5"/>
       <c r="C719" s="5"/>
@@ -18705,7 +18775,7 @@
       <c r="V719" s="5"/>
       <c r="W719" s="5"/>
     </row>
-    <row r="720" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A720" s="5"/>
       <c r="B720" s="5"/>
       <c r="C720" s="5"/>
@@ -18730,7 +18800,7 @@
       <c r="V720" s="5"/>
       <c r="W720" s="5"/>
     </row>
-    <row r="721" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A721" s="5"/>
       <c r="B721" s="5"/>
       <c r="C721" s="5"/>
@@ -18755,7 +18825,7 @@
       <c r="V721" s="5"/>
       <c r="W721" s="5"/>
     </row>
-    <row r="722" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A722" s="5"/>
       <c r="B722" s="5"/>
       <c r="C722" s="5"/>
@@ -18780,7 +18850,7 @@
       <c r="V722" s="5"/>
       <c r="W722" s="5"/>
     </row>
-    <row r="723" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A723" s="5"/>
       <c r="B723" s="5"/>
       <c r="C723" s="5"/>
@@ -18805,7 +18875,7 @@
       <c r="V723" s="5"/>
       <c r="W723" s="5"/>
     </row>
-    <row r="724" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A724" s="5"/>
       <c r="B724" s="5"/>
       <c r="C724" s="5"/>
@@ -18830,7 +18900,7 @@
       <c r="V724" s="5"/>
       <c r="W724" s="5"/>
     </row>
-    <row r="725" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A725" s="5"/>
       <c r="B725" s="5"/>
       <c r="C725" s="5"/>
@@ -18855,7 +18925,7 @@
       <c r="V725" s="5"/>
       <c r="W725" s="5"/>
     </row>
-    <row r="726" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A726" s="5"/>
       <c r="B726" s="5"/>
       <c r="C726" s="5"/>
@@ -18880,7 +18950,7 @@
       <c r="V726" s="5"/>
       <c r="W726" s="5"/>
     </row>
-    <row r="727" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A727" s="5"/>
       <c r="B727" s="5"/>
       <c r="C727" s="5"/>
@@ -18905,7 +18975,7 @@
       <c r="V727" s="5"/>
       <c r="W727" s="5"/>
     </row>
-    <row r="728" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A728" s="5"/>
       <c r="B728" s="5"/>
       <c r="C728" s="5"/>
@@ -18930,7 +19000,7 @@
       <c r="V728" s="5"/>
       <c r="W728" s="5"/>
     </row>
-    <row r="729" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A729" s="5"/>
       <c r="B729" s="5"/>
       <c r="C729" s="5"/>
@@ -18955,7 +19025,7 @@
       <c r="V729" s="5"/>
       <c r="W729" s="5"/>
     </row>
-    <row r="730" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A730" s="5"/>
       <c r="B730" s="5"/>
       <c r="C730" s="5"/>
@@ -18980,7 +19050,7 @@
       <c r="V730" s="5"/>
       <c r="W730" s="5"/>
     </row>
-    <row r="731" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A731" s="5"/>
       <c r="B731" s="5"/>
       <c r="C731" s="5"/>
@@ -19005,7 +19075,7 @@
       <c r="V731" s="5"/>
       <c r="W731" s="5"/>
     </row>
-    <row r="732" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A732" s="5"/>
       <c r="B732" s="5"/>
       <c r="C732" s="5"/>
@@ -19030,7 +19100,7 @@
       <c r="V732" s="5"/>
       <c r="W732" s="5"/>
     </row>
-    <row r="733" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A733" s="5"/>
       <c r="B733" s="5"/>
       <c r="C733" s="5"/>
@@ -19055,7 +19125,7 @@
       <c r="V733" s="5"/>
       <c r="W733" s="5"/>
     </row>
-    <row r="734" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A734" s="5"/>
       <c r="B734" s="5"/>
       <c r="C734" s="5"/>
@@ -19080,7 +19150,7 @@
       <c r="V734" s="5"/>
       <c r="W734" s="5"/>
     </row>
-    <row r="735" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A735" s="5"/>
       <c r="B735" s="5"/>
       <c r="C735" s="5"/>
@@ -19105,7 +19175,7 @@
       <c r="V735" s="5"/>
       <c r="W735" s="5"/>
     </row>
-    <row r="736" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A736" s="5"/>
       <c r="B736" s="5"/>
       <c r="C736" s="5"/>
@@ -19130,7 +19200,7 @@
       <c r="V736" s="5"/>
       <c r="W736" s="5"/>
     </row>
-    <row r="737" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A737" s="5"/>
       <c r="B737" s="5"/>
       <c r="C737" s="5"/>
@@ -19155,7 +19225,7 @@
       <c r="V737" s="5"/>
       <c r="W737" s="5"/>
     </row>
-    <row r="738" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A738" s="5"/>
       <c r="B738" s="5"/>
       <c r="C738" s="5"/>
@@ -19180,7 +19250,7 @@
       <c r="V738" s="5"/>
       <c r="W738" s="5"/>
     </row>
-    <row r="739" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A739" s="5"/>
       <c r="B739" s="5"/>
       <c r="C739" s="5"/>
@@ -19205,7 +19275,7 @@
       <c r="V739" s="5"/>
       <c r="W739" s="5"/>
     </row>
-    <row r="740" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A740" s="5"/>
       <c r="B740" s="5"/>
       <c r="C740" s="5"/>
@@ -19230,7 +19300,7 @@
       <c r="V740" s="5"/>
       <c r="W740" s="5"/>
     </row>
-    <row r="741" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A741" s="5"/>
       <c r="B741" s="5"/>
       <c r="C741" s="5"/>
@@ -19255,7 +19325,7 @@
       <c r="V741" s="5"/>
       <c r="W741" s="5"/>
     </row>
-    <row r="742" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A742" s="5"/>
       <c r="B742" s="5"/>
       <c r="C742" s="5"/>
@@ -19280,7 +19350,7 @@
       <c r="V742" s="5"/>
       <c r="W742" s="5"/>
     </row>
-    <row r="743" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A743" s="5"/>
       <c r="B743" s="5"/>
       <c r="C743" s="5"/>
@@ -19305,7 +19375,7 @@
       <c r="V743" s="5"/>
       <c r="W743" s="5"/>
     </row>
-    <row r="744" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A744" s="5"/>
       <c r="B744" s="5"/>
       <c r="C744" s="5"/>
@@ -19330,7 +19400,7 @@
       <c r="V744" s="5"/>
       <c r="W744" s="5"/>
     </row>
-    <row r="745" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A745" s="5"/>
       <c r="B745" s="5"/>
       <c r="C745" s="5"/>
@@ -19355,7 +19425,7 @@
       <c r="V745" s="5"/>
       <c r="W745" s="5"/>
     </row>
-    <row r="746" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A746" s="5"/>
       <c r="B746" s="5"/>
       <c r="C746" s="5"/>
@@ -19380,7 +19450,7 @@
       <c r="V746" s="5"/>
       <c r="W746" s="5"/>
     </row>
-    <row r="747" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A747" s="5"/>
       <c r="B747" s="5"/>
       <c r="C747" s="5"/>
@@ -19405,7 +19475,7 @@
       <c r="V747" s="5"/>
       <c r="W747" s="5"/>
     </row>
-    <row r="748" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A748" s="5"/>
       <c r="B748" s="5"/>
       <c r="C748" s="5"/>
@@ -19430,7 +19500,7 @@
       <c r="V748" s="5"/>
       <c r="W748" s="5"/>
     </row>
-    <row r="749" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A749" s="5"/>
       <c r="B749" s="5"/>
       <c r="C749" s="5"/>
@@ -19455,7 +19525,7 @@
       <c r="V749" s="5"/>
       <c r="W749" s="5"/>
     </row>
-    <row r="750" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A750" s="5"/>
       <c r="B750" s="5"/>
       <c r="C750" s="5"/>
@@ -19480,7 +19550,7 @@
       <c r="V750" s="5"/>
       <c r="W750" s="5"/>
     </row>
-    <row r="751" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A751" s="5"/>
       <c r="B751" s="5"/>
       <c r="C751" s="5"/>
@@ -19505,7 +19575,7 @@
       <c r="V751" s="5"/>
       <c r="W751" s="5"/>
     </row>
-    <row r="752" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A752" s="5"/>
       <c r="B752" s="5"/>
       <c r="C752" s="5"/>
@@ -19530,7 +19600,7 @@
       <c r="V752" s="5"/>
       <c r="W752" s="5"/>
     </row>
-    <row r="753" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A753" s="5"/>
       <c r="B753" s="5"/>
       <c r="C753" s="5"/>
@@ -19555,7 +19625,7 @@
       <c r="V753" s="5"/>
       <c r="W753" s="5"/>
     </row>
-    <row r="754" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A754" s="5"/>
       <c r="B754" s="5"/>
       <c r="C754" s="5"/>
@@ -19580,7 +19650,7 @@
       <c r="V754" s="5"/>
       <c r="W754" s="5"/>
     </row>
-    <row r="755" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A755" s="5"/>
       <c r="B755" s="5"/>
       <c r="C755" s="5"/>
@@ -19605,7 +19675,7 @@
       <c r="V755" s="5"/>
       <c r="W755" s="5"/>
     </row>
-    <row r="756" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A756" s="5"/>
       <c r="B756" s="5"/>
       <c r="C756" s="5"/>
@@ -19630,7 +19700,7 @@
       <c r="V756" s="5"/>
       <c r="W756" s="5"/>
     </row>
-    <row r="757" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A757" s="5"/>
       <c r="B757" s="5"/>
       <c r="C757" s="5"/>
@@ -19655,7 +19725,7 @@
       <c r="V757" s="5"/>
       <c r="W757" s="5"/>
     </row>
-    <row r="758" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A758" s="5"/>
       <c r="B758" s="5"/>
       <c r="C758" s="5"/>
@@ -19680,7 +19750,7 @@
       <c r="V758" s="5"/>
       <c r="W758" s="5"/>
     </row>
-    <row r="759" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A759" s="5"/>
       <c r="B759" s="5"/>
       <c r="C759" s="5"/>
@@ -19705,7 +19775,7 @@
       <c r="V759" s="5"/>
       <c r="W759" s="5"/>
     </row>
-    <row r="760" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A760" s="5"/>
       <c r="B760" s="5"/>
       <c r="C760" s="5"/>
@@ -19730,7 +19800,7 @@
       <c r="V760" s="5"/>
       <c r="W760" s="5"/>
     </row>
-    <row r="761" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A761" s="5"/>
       <c r="B761" s="5"/>
       <c r="C761" s="5"/>
@@ -19755,7 +19825,7 @@
       <c r="V761" s="5"/>
       <c r="W761" s="5"/>
     </row>
-    <row r="762" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A762" s="5"/>
       <c r="B762" s="5"/>
       <c r="C762" s="5"/>
@@ -19780,7 +19850,7 @@
       <c r="V762" s="5"/>
       <c r="W762" s="5"/>
     </row>
-    <row r="763" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A763" s="5"/>
       <c r="B763" s="5"/>
       <c r="C763" s="5"/>
@@ -19805,7 +19875,7 @@
       <c r="V763" s="5"/>
       <c r="W763" s="5"/>
     </row>
-    <row r="764" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A764" s="5"/>
       <c r="B764" s="5"/>
       <c r="C764" s="5"/>
@@ -19830,7 +19900,7 @@
       <c r="V764" s="5"/>
       <c r="W764" s="5"/>
     </row>
-    <row r="765" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A765" s="5"/>
       <c r="B765" s="5"/>
       <c r="C765" s="5"/>
@@ -19855,7 +19925,7 @@
       <c r="V765" s="5"/>
       <c r="W765" s="5"/>
     </row>
-    <row r="766" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A766" s="5"/>
       <c r="B766" s="5"/>
       <c r="C766" s="5"/>
@@ -19880,7 +19950,7 @@
       <c r="V766" s="5"/>
       <c r="W766" s="5"/>
     </row>
-    <row r="767" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A767" s="5"/>
       <c r="B767" s="5"/>
       <c r="C767" s="5"/>
@@ -19905,7 +19975,7 @@
       <c r="V767" s="5"/>
       <c r="W767" s="5"/>
     </row>
-    <row r="768" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A768" s="5"/>
       <c r="B768" s="5"/>
       <c r="C768" s="5"/>
@@ -19930,7 +20000,7 @@
       <c r="V768" s="5"/>
       <c r="W768" s="5"/>
     </row>
-    <row r="769" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A769" s="5"/>
       <c r="B769" s="5"/>
       <c r="C769" s="5"/>
@@ -19955,7 +20025,7 @@
       <c r="V769" s="5"/>
       <c r="W769" s="5"/>
     </row>
-    <row r="770" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A770" s="5"/>
       <c r="B770" s="5"/>
       <c r="C770" s="5"/>
@@ -19980,7 +20050,7 @@
       <c r="V770" s="5"/>
       <c r="W770" s="5"/>
     </row>
-    <row r="771" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A771" s="5"/>
       <c r="B771" s="5"/>
       <c r="C771" s="5"/>
@@ -20005,7 +20075,7 @@
       <c r="V771" s="5"/>
       <c r="W771" s="5"/>
     </row>
-    <row r="772" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A772" s="5"/>
       <c r="B772" s="5"/>
       <c r="C772" s="5"/>
@@ -20030,7 +20100,7 @@
       <c r="V772" s="5"/>
       <c r="W772" s="5"/>
     </row>
-    <row r="773" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A773" s="5"/>
       <c r="B773" s="5"/>
       <c r="C773" s="5"/>
@@ -20055,7 +20125,7 @@
       <c r="V773" s="5"/>
       <c r="W773" s="5"/>
     </row>
-    <row r="774" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A774" s="5"/>
       <c r="B774" s="5"/>
       <c r="C774" s="5"/>
@@ -20080,7 +20150,7 @@
       <c r="V774" s="5"/>
       <c r="W774" s="5"/>
     </row>
-    <row r="775" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A775" s="5"/>
       <c r="B775" s="5"/>
       <c r="C775" s="5"/>
@@ -20105,7 +20175,7 @@
       <c r="V775" s="5"/>
       <c r="W775" s="5"/>
     </row>
-    <row r="776" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A776" s="5"/>
       <c r="B776" s="5"/>
       <c r="C776" s="5"/>
@@ -20130,7 +20200,7 @@
       <c r="V776" s="5"/>
       <c r="W776" s="5"/>
     </row>
-    <row r="777" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A777" s="5"/>
       <c r="B777" s="5"/>
       <c r="C777" s="5"/>
@@ -20155,7 +20225,7 @@
       <c r="V777" s="5"/>
       <c r="W777" s="5"/>
     </row>
-    <row r="778" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A778" s="5"/>
       <c r="B778" s="5"/>
       <c r="C778" s="5"/>
@@ -20180,7 +20250,7 @@
       <c r="V778" s="5"/>
       <c r="W778" s="5"/>
     </row>
-    <row r="779" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A779" s="5"/>
       <c r="B779" s="5"/>
       <c r="C779" s="5"/>
@@ -20205,7 +20275,7 @@
       <c r="V779" s="5"/>
       <c r="W779" s="5"/>
     </row>
-    <row r="780" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A780" s="5"/>
       <c r="B780" s="5"/>
       <c r="C780" s="5"/>
@@ -20230,7 +20300,7 @@
       <c r="V780" s="5"/>
       <c r="W780" s="5"/>
     </row>
-    <row r="781" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A781" s="5"/>
       <c r="B781" s="5"/>
       <c r="C781" s="5"/>
@@ -20255,7 +20325,7 @@
       <c r="V781" s="5"/>
       <c r="W781" s="5"/>
     </row>
-    <row r="782" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A782" s="5"/>
       <c r="B782" s="5"/>
       <c r="C782" s="5"/>
@@ -20280,7 +20350,7 @@
       <c r="V782" s="5"/>
       <c r="W782" s="5"/>
     </row>
-    <row r="783" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A783" s="5"/>
       <c r="B783" s="5"/>
       <c r="C783" s="5"/>
@@ -20305,7 +20375,7 @@
       <c r="V783" s="5"/>
       <c r="W783" s="5"/>
     </row>
-    <row r="784" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A784" s="5"/>
       <c r="B784" s="5"/>
       <c r="C784" s="5"/>
@@ -20330,7 +20400,7 @@
       <c r="V784" s="5"/>
       <c r="W784" s="5"/>
     </row>
-    <row r="785" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A785" s="5"/>
       <c r="B785" s="5"/>
       <c r="C785" s="5"/>
@@ -20355,7 +20425,7 @@
       <c r="V785" s="5"/>
       <c r="W785" s="5"/>
     </row>
-    <row r="786" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A786" s="5"/>
       <c r="B786" s="5"/>
       <c r="C786" s="5"/>
@@ -20380,7 +20450,7 @@
       <c r="V786" s="5"/>
       <c r="W786" s="5"/>
     </row>
-    <row r="787" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A787" s="5"/>
       <c r="B787" s="5"/>
       <c r="C787" s="5"/>
@@ -20405,7 +20475,7 @@
       <c r="V787" s="5"/>
       <c r="W787" s="5"/>
     </row>
-    <row r="788" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A788" s="5"/>
       <c r="B788" s="5"/>
       <c r="C788" s="5"/>
@@ -20430,7 +20500,7 @@
       <c r="V788" s="5"/>
       <c r="W788" s="5"/>
     </row>
-    <row r="789" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A789" s="5"/>
       <c r="B789" s="5"/>
       <c r="C789" s="5"/>
@@ -20455,7 +20525,7 @@
       <c r="V789" s="5"/>
       <c r="W789" s="5"/>
     </row>
-    <row r="790" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A790" s="5"/>
       <c r="B790" s="5"/>
       <c r="C790" s="5"/>
@@ -20480,7 +20550,7 @@
       <c r="V790" s="5"/>
       <c r="W790" s="5"/>
     </row>
-    <row r="791" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A791" s="5"/>
       <c r="B791" s="5"/>
       <c r="C791" s="5"/>
@@ -20505,7 +20575,7 @@
       <c r="V791" s="5"/>
       <c r="W791" s="5"/>
     </row>
-    <row r="792" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A792" s="5"/>
       <c r="B792" s="5"/>
       <c r="C792" s="5"/>
@@ -20530,7 +20600,7 @@
       <c r="V792" s="5"/>
       <c r="W792" s="5"/>
     </row>
-    <row r="793" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A793" s="5"/>
       <c r="B793" s="5"/>
       <c r="C793" s="5"/>
@@ -20555,7 +20625,7 @@
       <c r="V793" s="5"/>
       <c r="W793" s="5"/>
     </row>
-    <row r="794" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A794" s="5"/>
       <c r="B794" s="5"/>
       <c r="C794" s="5"/>
@@ -20580,7 +20650,7 @@
       <c r="V794" s="5"/>
       <c r="W794" s="5"/>
     </row>
-    <row r="795" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A795" s="5"/>
       <c r="B795" s="5"/>
       <c r="C795" s="5"/>
@@ -20605,7 +20675,7 @@
       <c r="V795" s="5"/>
       <c r="W795" s="5"/>
     </row>
-    <row r="796" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A796" s="5"/>
       <c r="B796" s="5"/>
       <c r="C796" s="5"/>
@@ -20630,7 +20700,7 @@
       <c r="V796" s="5"/>
       <c r="W796" s="5"/>
     </row>
-    <row r="797" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A797" s="5"/>
       <c r="B797" s="5"/>
       <c r="C797" s="5"/>
@@ -20655,7 +20725,7 @@
       <c r="V797" s="5"/>
       <c r="W797" s="5"/>
     </row>
-    <row r="798" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A798" s="5"/>
       <c r="B798" s="5"/>
       <c r="C798" s="5"/>
@@ -20680,7 +20750,7 @@
       <c r="V798" s="5"/>
       <c r="W798" s="5"/>
     </row>
-    <row r="799" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A799" s="5"/>
       <c r="B799" s="5"/>
       <c r="C799" s="5"/>
@@ -20705,7 +20775,7 @@
       <c r="V799" s="5"/>
       <c r="W799" s="5"/>
     </row>
-    <row r="800" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A800" s="5"/>
       <c r="B800" s="5"/>
       <c r="C800" s="5"/>
@@ -20730,7 +20800,7 @@
       <c r="V800" s="5"/>
       <c r="W800" s="5"/>
     </row>
-    <row r="801" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A801" s="5"/>
       <c r="B801" s="5"/>
       <c r="C801" s="5"/>
@@ -20755,7 +20825,7 @@
       <c r="V801" s="5"/>
       <c r="W801" s="5"/>
     </row>
-    <row r="802" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A802" s="5"/>
       <c r="B802" s="5"/>
       <c r="C802" s="5"/>
@@ -20780,7 +20850,7 @@
       <c r="V802" s="5"/>
       <c r="W802" s="5"/>
     </row>
-    <row r="803" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A803" s="5"/>
       <c r="B803" s="5"/>
       <c r="C803" s="5"/>
@@ -20805,7 +20875,7 @@
       <c r="V803" s="5"/>
       <c r="W803" s="5"/>
     </row>
-    <row r="804" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A804" s="5"/>
       <c r="B804" s="5"/>
       <c r="C804" s="5"/>
@@ -20830,7 +20900,7 @@
       <c r="V804" s="5"/>
       <c r="W804" s="5"/>
     </row>
-    <row r="805" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A805" s="5"/>
       <c r="B805" s="5"/>
       <c r="C805" s="5"/>
@@ -20855,7 +20925,7 @@
       <c r="V805" s="5"/>
       <c r="W805" s="5"/>
     </row>
-    <row r="806" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A806" s="5"/>
       <c r="B806" s="5"/>
       <c r="C806" s="5"/>
@@ -20880,7 +20950,7 @@
       <c r="V806" s="5"/>
       <c r="W806" s="5"/>
     </row>
-    <row r="807" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A807" s="5"/>
       <c r="B807" s="5"/>
       <c r="C807" s="5"/>
@@ -20905,7 +20975,7 @@
       <c r="V807" s="5"/>
       <c r="W807" s="5"/>
     </row>
-    <row r="808" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A808" s="5"/>
       <c r="B808" s="5"/>
       <c r="C808" s="5"/>
@@ -20930,7 +21000,7 @@
       <c r="V808" s="5"/>
       <c r="W808" s="5"/>
     </row>
-    <row r="809" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A809" s="5"/>
       <c r="B809" s="5"/>
       <c r="C809" s="5"/>
@@ -20955,7 +21025,7 @@
       <c r="V809" s="5"/>
       <c r="W809" s="5"/>
     </row>
-    <row r="810" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A810" s="5"/>
       <c r="B810" s="5"/>
       <c r="C810" s="5"/>
@@ -20980,7 +21050,7 @@
       <c r="V810" s="5"/>
       <c r="W810" s="5"/>
     </row>
-    <row r="811" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A811" s="5"/>
       <c r="B811" s="5"/>
       <c r="C811" s="5"/>
@@ -21005,7 +21075,7 @@
       <c r="V811" s="5"/>
       <c r="W811" s="5"/>
     </row>
-    <row r="812" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A812" s="5"/>
       <c r="B812" s="5"/>
       <c r="C812" s="5"/>
@@ -21030,7 +21100,7 @@
       <c r="V812" s="5"/>
       <c r="W812" s="5"/>
     </row>
-    <row r="813" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A813" s="5"/>
       <c r="B813" s="5"/>
       <c r="C813" s="5"/>
@@ -21055,7 +21125,7 @@
       <c r="V813" s="5"/>
       <c r="W813" s="5"/>
     </row>
-    <row r="814" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A814" s="5"/>
       <c r="B814" s="5"/>
       <c r="C814" s="5"/>
@@ -21080,7 +21150,7 @@
       <c r="V814" s="5"/>
       <c r="W814" s="5"/>
     </row>
-    <row r="815" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A815" s="5"/>
       <c r="B815" s="5"/>
       <c r="C815" s="5"/>
@@ -21105,7 +21175,7 @@
       <c r="V815" s="5"/>
       <c r="W815" s="5"/>
     </row>
-    <row r="816" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A816" s="5"/>
       <c r="B816" s="5"/>
       <c r="C816" s="5"/>
@@ -21130,7 +21200,7 @@
       <c r="V816" s="5"/>
       <c r="W816" s="5"/>
     </row>
-    <row r="817" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A817" s="5"/>
       <c r="B817" s="5"/>
       <c r="C817" s="5"/>
@@ -21155,7 +21225,7 @@
       <c r="V817" s="5"/>
       <c r="W817" s="5"/>
     </row>
-    <row r="818" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A818" s="5"/>
       <c r="B818" s="5"/>
       <c r="C818" s="5"/>
@@ -21180,7 +21250,7 @@
       <c r="V818" s="5"/>
       <c r="W818" s="5"/>
     </row>
-    <row r="819" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A819" s="5"/>
       <c r="B819" s="5"/>
       <c r="C819" s="5"/>
@@ -21205,7 +21275,7 @@
       <c r="V819" s="5"/>
       <c r="W819" s="5"/>
     </row>
-    <row r="820" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A820" s="5"/>
       <c r="B820" s="5"/>
       <c r="C820" s="5"/>
@@ -21230,7 +21300,7 @@
       <c r="V820" s="5"/>
       <c r="W820" s="5"/>
     </row>
-    <row r="821" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A821" s="5"/>
       <c r="B821" s="5"/>
       <c r="C821" s="5"/>
@@ -21255,7 +21325,7 @@
       <c r="V821" s="5"/>
       <c r="W821" s="5"/>
     </row>
-    <row r="822" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A822" s="5"/>
       <c r="B822" s="5"/>
       <c r="C822" s="5"/>
@@ -21280,7 +21350,7 @@
       <c r="V822" s="5"/>
       <c r="W822" s="5"/>
     </row>
-    <row r="823" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A823" s="5"/>
       <c r="B823" s="5"/>
       <c r="C823" s="5"/>
@@ -21305,7 +21375,7 @@
       <c r="V823" s="5"/>
       <c r="W823" s="5"/>
     </row>
-    <row r="824" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A824" s="5"/>
       <c r="B824" s="5"/>
       <c r="C824" s="5"/>
@@ -21330,7 +21400,7 @@
       <c r="V824" s="5"/>
       <c r="W824" s="5"/>
     </row>
-    <row r="825" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A825" s="5"/>
       <c r="B825" s="5"/>
       <c r="C825" s="5"/>
@@ -21355,7 +21425,7 @@
       <c r="V825" s="5"/>
       <c r="W825" s="5"/>
     </row>
-    <row r="826" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A826" s="5"/>
       <c r="B826" s="5"/>
       <c r="C826" s="5"/>
@@ -21380,7 +21450,7 @@
       <c r="V826" s="5"/>
       <c r="W826" s="5"/>
     </row>
-    <row r="827" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A827" s="5"/>
       <c r="B827" s="5"/>
       <c r="C827" s="5"/>
@@ -21405,7 +21475,7 @@
       <c r="V827" s="5"/>
       <c r="W827" s="5"/>
     </row>
-    <row r="828" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A828" s="5"/>
       <c r="B828" s="5"/>
       <c r="C828" s="5"/>
@@ -21430,7 +21500,7 @@
       <c r="V828" s="5"/>
       <c r="W828" s="5"/>
     </row>
-    <row r="829" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A829" s="5"/>
       <c r="B829" s="5"/>
       <c r="C829" s="5"/>
@@ -21455,7 +21525,7 @@
       <c r="V829" s="5"/>
       <c r="W829" s="5"/>
     </row>
-    <row r="830" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A830" s="5"/>
       <c r="B830" s="5"/>
       <c r="C830" s="5"/>
@@ -21480,7 +21550,7 @@
       <c r="V830" s="5"/>
       <c r="W830" s="5"/>
     </row>
-    <row r="831" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A831" s="5"/>
       <c r="B831" s="5"/>
       <c r="C831" s="5"/>
@@ -21505,7 +21575,7 @@
       <c r="V831" s="5"/>
       <c r="W831" s="5"/>
     </row>
-    <row r="832" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A832" s="5"/>
       <c r="B832" s="5"/>
       <c r="C832" s="5"/>
@@ -21530,7 +21600,7 @@
       <c r="V832" s="5"/>
       <c r="W832" s="5"/>
     </row>
-    <row r="833" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A833" s="5"/>
       <c r="B833" s="5"/>
       <c r="C833" s="5"/>
@@ -21555,7 +21625,7 @@
       <c r="V833" s="5"/>
       <c r="W833" s="5"/>
     </row>
-    <row r="834" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A834" s="5"/>
       <c r="B834" s="5"/>
       <c r="C834" s="5"/>
@@ -21580,7 +21650,7 @@
       <c r="V834" s="5"/>
       <c r="W834" s="5"/>
     </row>
-    <row r="835" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A835" s="5"/>
       <c r="B835" s="5"/>
       <c r="C835" s="5"/>
@@ -21605,7 +21675,7 @@
       <c r="V835" s="5"/>
       <c r="W835" s="5"/>
     </row>
-    <row r="836" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A836" s="5"/>
       <c r="B836" s="5"/>
       <c r="C836" s="5"/>
@@ -21630,7 +21700,7 @@
       <c r="V836" s="5"/>
       <c r="W836" s="5"/>
     </row>
-    <row r="837" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A837" s="5"/>
       <c r="B837" s="5"/>
       <c r="C837" s="5"/>
@@ -21655,7 +21725,7 @@
       <c r="V837" s="5"/>
       <c r="W837" s="5"/>
     </row>
-    <row r="838" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A838" s="5"/>
       <c r="B838" s="5"/>
       <c r="C838" s="5"/>
@@ -21680,7 +21750,7 @@
       <c r="V838" s="5"/>
       <c r="W838" s="5"/>
     </row>
-    <row r="839" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A839" s="5"/>
       <c r="B839" s="5"/>
       <c r="C839" s="5"/>
@@ -21705,7 +21775,7 @@
       <c r="V839" s="5"/>
       <c r="W839" s="5"/>
     </row>
-    <row r="840" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A840" s="5"/>
       <c r="B840" s="5"/>
       <c r="C840" s="5"/>
@@ -21730,7 +21800,7 @@
       <c r="V840" s="5"/>
       <c r="W840" s="5"/>
     </row>
-    <row r="841" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A841" s="5"/>
       <c r="B841" s="5"/>
       <c r="C841" s="5"/>
@@ -21755,7 +21825,7 @@
       <c r="V841" s="5"/>
       <c r="W841" s="5"/>
     </row>
-    <row r="842" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A842" s="5"/>
       <c r="B842" s="5"/>
       <c r="C842" s="5"/>
@@ -21780,7 +21850,7 @@
       <c r="V842" s="5"/>
       <c r="W842" s="5"/>
     </row>
-    <row r="843" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A843" s="5"/>
       <c r="B843" s="5"/>
       <c r="C843" s="5"/>
@@ -21805,7 +21875,7 @@
       <c r="V843" s="5"/>
       <c r="W843" s="5"/>
     </row>
-    <row r="844" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A844" s="5"/>
       <c r="B844" s="5"/>
       <c r="C844" s="5"/>
@@ -21830,7 +21900,7 @@
       <c r="V844" s="5"/>
       <c r="W844" s="5"/>
     </row>
-    <row r="845" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A845" s="5"/>
       <c r="B845" s="5"/>
       <c r="C845" s="5"/>
@@ -21855,7 +21925,7 @@
       <c r="V845" s="5"/>
       <c r="W845" s="5"/>
     </row>
-    <row r="846" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A846" s="5"/>
       <c r="B846" s="5"/>
       <c r="C846" s="5"/>
@@ -21880,7 +21950,7 @@
       <c r="V846" s="5"/>
       <c r="W846" s="5"/>
     </row>
-    <row r="847" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A847" s="5"/>
       <c r="B847" s="5"/>
       <c r="C847" s="5"/>
@@ -21905,7 +21975,7 @@
       <c r="V847" s="5"/>
       <c r="W847" s="5"/>
     </row>
-    <row r="848" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A848" s="5"/>
       <c r="B848" s="5"/>
       <c r="C848" s="5"/>
@@ -21930,7 +22000,7 @@
       <c r="V848" s="5"/>
       <c r="W848" s="5"/>
     </row>
-    <row r="849" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A849" s="5"/>
       <c r="B849" s="5"/>
       <c r="C849" s="5"/>
@@ -21955,7 +22025,7 @@
       <c r="V849" s="5"/>
       <c r="W849" s="5"/>
     </row>
-    <row r="850" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A850" s="5"/>
       <c r="B850" s="5"/>
       <c r="C850" s="5"/>
@@ -21980,7 +22050,7 @@
       <c r="V850" s="5"/>
       <c r="W850" s="5"/>
     </row>
-    <row r="851" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A851" s="5"/>
       <c r="B851" s="5"/>
       <c r="C851" s="5"/>
@@ -22005,7 +22075,7 @@
       <c r="V851" s="5"/>
       <c r="W851" s="5"/>
     </row>
-    <row r="852" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A852" s="5"/>
       <c r="B852" s="5"/>
       <c r="C852" s="5"/>
@@ -22030,7 +22100,7 @@
       <c r="V852" s="5"/>
       <c r="W852" s="5"/>
     </row>
-    <row r="853" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A853" s="5"/>
       <c r="B853" s="5"/>
       <c r="C853" s="5"/>
@@ -22055,7 +22125,7 @@
       <c r="V853" s="5"/>
       <c r="W853" s="5"/>
     </row>
-    <row r="854" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A854" s="5"/>
       <c r="B854" s="5"/>
       <c r="C854" s="5"/>
@@ -22080,7 +22150,7 @@
       <c r="V854" s="5"/>
       <c r="W854" s="5"/>
     </row>
-    <row r="855" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A855" s="5"/>
       <c r="B855" s="5"/>
       <c r="C855" s="5"/>
@@ -22105,7 +22175,7 @@
       <c r="V855" s="5"/>
       <c r="W855" s="5"/>
     </row>
-    <row r="856" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A856" s="5"/>
       <c r="B856" s="5"/>
       <c r="C856" s="5"/>
@@ -22130,7 +22200,7 @@
       <c r="V856" s="5"/>
       <c r="W856" s="5"/>
     </row>
-    <row r="857" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A857" s="5"/>
       <c r="B857" s="5"/>
       <c r="C857" s="5"/>
@@ -22155,7 +22225,7 @@
       <c r="V857" s="5"/>
       <c r="W857" s="5"/>
     </row>
-    <row r="858" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A858" s="5"/>
       <c r="B858" s="5"/>
       <c r="C858" s="5"/>
@@ -22180,7 +22250,7 @@
       <c r="V858" s="5"/>
       <c r="W858" s="5"/>
     </row>
-    <row r="859" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A859" s="5"/>
       <c r="B859" s="5"/>
       <c r="C859" s="5"/>
@@ -22205,7 +22275,7 @@
       <c r="V859" s="5"/>
       <c r="W859" s="5"/>
     </row>
-    <row r="860" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A860" s="5"/>
       <c r="B860" s="5"/>
       <c r="C860" s="5"/>
@@ -22230,7 +22300,7 @@
       <c r="V860" s="5"/>
       <c r="W860" s="5"/>
     </row>
-    <row r="861" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A861" s="5"/>
       <c r="B861" s="5"/>
       <c r="C861" s="5"/>
@@ -22255,7 +22325,7 @@
       <c r="V861" s="5"/>
       <c r="W861" s="5"/>
     </row>
-    <row r="862" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A862" s="5"/>
       <c r="B862" s="5"/>
       <c r="C862" s="5"/>
@@ -22280,7 +22350,7 @@
       <c r="V862" s="5"/>
       <c r="W862" s="5"/>
     </row>
-    <row r="863" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A863" s="5"/>
       <c r="B863" s="5"/>
       <c r="C863" s="5"/>
@@ -22305,7 +22375,7 @@
       <c r="V863" s="5"/>
       <c r="W863" s="5"/>
     </row>
-    <row r="864" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A864" s="5"/>
       <c r="B864" s="5"/>
       <c r="C864" s="5"/>
@@ -22330,7 +22400,7 @@
       <c r="V864" s="5"/>
       <c r="W864" s="5"/>
     </row>
-    <row r="865" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A865" s="5"/>
       <c r="B865" s="5"/>
       <c r="C865" s="5"/>
@@ -22355,7 +22425,7 @@
       <c r="V865" s="5"/>
       <c r="W865" s="5"/>
     </row>
-    <row r="866" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A866" s="5"/>
       <c r="B866" s="5"/>
       <c r="C866" s="5"/>
@@ -22380,7 +22450,7 @@
       <c r="V866" s="5"/>
       <c r="W866" s="5"/>
     </row>
-    <row r="867" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A867" s="5"/>
       <c r="B867" s="5"/>
       <c r="C867" s="5"/>
@@ -22405,7 +22475,7 @@
       <c r="V867" s="5"/>
       <c r="W867" s="5"/>
     </row>
-    <row r="868" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A868" s="5"/>
       <c r="B868" s="5"/>
       <c r="C868" s="5"/>
@@ -22430,7 +22500,7 @@
       <c r="V868" s="5"/>
       <c r="W868" s="5"/>
     </row>
-    <row r="869" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A869" s="5"/>
       <c r="B869" s="5"/>
       <c r="C869" s="5"/>
@@ -22455,7 +22525,7 @@
       <c r="V869" s="5"/>
       <c r="W869" s="5"/>
     </row>
-    <row r="870" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A870" s="5"/>
       <c r="B870" s="5"/>
       <c r="C870" s="5"/>
@@ -22480,7 +22550,7 @@
       <c r="V870" s="5"/>
       <c r="W870" s="5"/>
     </row>
-    <row r="871" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A871" s="5"/>
       <c r="B871" s="5"/>
       <c r="C871" s="5"/>
@@ -22505,7 +22575,7 @@
       <c r="V871" s="5"/>
       <c r="W871" s="5"/>
     </row>
-    <row r="872" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A872" s="5"/>
       <c r="B872" s="5"/>
       <c r="C872" s="5"/>
@@ -22530,7 +22600,7 @@
       <c r="V872" s="5"/>
       <c r="W872" s="5"/>
     </row>
-    <row r="873" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A873" s="5"/>
       <c r="B873" s="5"/>
       <c r="C873" s="5"/>
@@ -22555,7 +22625,7 @@
       <c r="V873" s="5"/>
       <c r="W873" s="5"/>
     </row>
-    <row r="874" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A874" s="5"/>
       <c r="B874" s="5"/>
       <c r="C874" s="5"/>
@@ -22580,7 +22650,7 @@
       <c r="V874" s="5"/>
       <c r="W874" s="5"/>
     </row>
-    <row r="875" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A875" s="5"/>
       <c r="B875" s="5"/>
       <c r="C875" s="5"/>
@@ -22605,7 +22675,7 @@
       <c r="V875" s="5"/>
       <c r="W875" s="5"/>
     </row>
-    <row r="876" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A876" s="5"/>
       <c r="B876" s="5"/>
       <c r="C876" s="5"/>
@@ -22630,7 +22700,7 @@
       <c r="V876" s="5"/>
       <c r="W876" s="5"/>
     </row>
-    <row r="877" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A877" s="5"/>
       <c r="B877" s="5"/>
       <c r="C877" s="5"/>
@@ -22655,7 +22725,7 @@
       <c r="V877" s="5"/>
       <c r="W877" s="5"/>
     </row>
-    <row r="878" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A878" s="5"/>
       <c r="B878" s="5"/>
       <c r="C878" s="5"/>
@@ -22680,7 +22750,7 @@
       <c r="V878" s="5"/>
       <c r="W878" s="5"/>
     </row>
-    <row r="879" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A879" s="5"/>
       <c r="B879" s="5"/>
       <c r="C879" s="5"/>
@@ -22705,7 +22775,7 @@
       <c r="V879" s="5"/>
       <c r="W879" s="5"/>
     </row>
-    <row r="880" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A880" s="5"/>
       <c r="B880" s="5"/>
       <c r="C880" s="5"/>
@@ -22730,7 +22800,7 @@
       <c r="V880" s="5"/>
       <c r="W880" s="5"/>
     </row>
-    <row r="881" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A881" s="5"/>
       <c r="B881" s="5"/>
       <c r="C881" s="5"/>
@@ -22755,7 +22825,7 @@
       <c r="V881" s="5"/>
       <c r="W881" s="5"/>
     </row>
-    <row r="882" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A882" s="5"/>
       <c r="B882" s="5"/>
       <c r="C882" s="5"/>
@@ -22780,7 +22850,7 @@
       <c r="V882" s="5"/>
       <c r="W882" s="5"/>
     </row>
-    <row r="883" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A883" s="5"/>
       <c r="B883" s="5"/>
       <c r="C883" s="5"/>
@@ -22805,7 +22875,7 @@
       <c r="V883" s="5"/>
       <c r="W883" s="5"/>
     </row>
-    <row r="884" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A884" s="5"/>
       <c r="B884" s="5"/>
       <c r="C884" s="5"/>
@@ -22830,7 +22900,7 @@
       <c r="V884" s="5"/>
       <c r="W884" s="5"/>
     </row>
-    <row r="885" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A885" s="5"/>
       <c r="B885" s="5"/>
       <c r="C885" s="5"/>
@@ -22855,7 +22925,7 @@
       <c r="V885" s="5"/>
       <c r="W885" s="5"/>
     </row>
-    <row r="886" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A886" s="5"/>
       <c r="B886" s="5"/>
       <c r="C886" s="5"/>
@@ -22880,7 +22950,7 @@
       <c r="V886" s="5"/>
       <c r="W886" s="5"/>
     </row>
-    <row r="887" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A887" s="5"/>
       <c r="B887" s="5"/>
       <c r="C887" s="5"/>
@@ -22905,7 +22975,7 @@
       <c r="V887" s="5"/>
       <c r="W887" s="5"/>
     </row>
-    <row r="888" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A888" s="5"/>
       <c r="B888" s="5"/>
       <c r="C888" s="5"/>
@@ -22930,7 +23000,7 @@
       <c r="V888" s="5"/>
       <c r="W888" s="5"/>
     </row>
-    <row r="889" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A889" s="5"/>
       <c r="B889" s="5"/>
       <c r="C889" s="5"/>
@@ -22955,7 +23025,7 @@
       <c r="V889" s="5"/>
       <c r="W889" s="5"/>
     </row>
-    <row r="890" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A890" s="5"/>
       <c r="B890" s="5"/>
       <c r="C890" s="5"/>
@@ -22980,7 +23050,7 @@
       <c r="V890" s="5"/>
       <c r="W890" s="5"/>
     </row>
-    <row r="891" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A891" s="5"/>
       <c r="B891" s="5"/>
       <c r="C891" s="5"/>
@@ -23005,7 +23075,7 @@
       <c r="V891" s="5"/>
       <c r="W891" s="5"/>
     </row>
-    <row r="892" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A892" s="5"/>
       <c r="B892" s="5"/>
       <c r="C892" s="5"/>
@@ -23030,7 +23100,7 @@
       <c r="V892" s="5"/>
       <c r="W892" s="5"/>
     </row>
-    <row r="893" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A893" s="5"/>
       <c r="B893" s="5"/>
       <c r="C893" s="5"/>
@@ -23055,7 +23125,7 @@
       <c r="V893" s="5"/>
       <c r="W893" s="5"/>
     </row>
-    <row r="894" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A894" s="5"/>
       <c r="B894" s="5"/>
       <c r="C894" s="5"/>
@@ -23080,7 +23150,7 @@
       <c r="V894" s="5"/>
       <c r="W894" s="5"/>
     </row>
-    <row r="895" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A895" s="5"/>
       <c r="B895" s="5"/>
       <c r="C895" s="5"/>
@@ -23105,7 +23175,7 @@
       <c r="V895" s="5"/>
       <c r="W895" s="5"/>
     </row>
-    <row r="896" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A896" s="5"/>
       <c r="B896" s="5"/>
       <c r="C896" s="5"/>
@@ -23130,7 +23200,7 @@
       <c r="V896" s="5"/>
       <c r="W896" s="5"/>
     </row>
-    <row r="897" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A897" s="5"/>
       <c r="B897" s="5"/>
       <c r="C897" s="5"/>
@@ -23155,7 +23225,7 @@
       <c r="V897" s="5"/>
       <c r="W897" s="5"/>
     </row>
-    <row r="898" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A898" s="5"/>
       <c r="B898" s="5"/>
       <c r="C898" s="5"/>
@@ -23180,7 +23250,7 @@
       <c r="V898" s="5"/>
       <c r="W898" s="5"/>
     </row>
-    <row r="899" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A899" s="5"/>
       <c r="B899" s="5"/>
       <c r="C899" s="5"/>
@@ -23205,7 +23275,7 @@
       <c r="V899" s="5"/>
       <c r="W899" s="5"/>
     </row>
-    <row r="900" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A900" s="5"/>
       <c r="B900" s="5"/>
       <c r="C900" s="5"/>
@@ -23230,7 +23300,7 @@
       <c r="V900" s="5"/>
       <c r="W900" s="5"/>
     </row>
-    <row r="901" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A901" s="5"/>
       <c r="B901" s="5"/>
       <c r="C901" s="5"/>
@@ -23255,7 +23325,7 @@
       <c r="V901" s="5"/>
       <c r="W901" s="5"/>
     </row>
-    <row r="902" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A902" s="5"/>
       <c r="B902" s="5"/>
       <c r="C902" s="5"/>
@@ -23280,7 +23350,7 @@
       <c r="V902" s="5"/>
       <c r="W902" s="5"/>
     </row>
-    <row r="903" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A903" s="5"/>
       <c r="B903" s="5"/>
       <c r="C903" s="5"/>
@@ -23305,7 +23375,7 @@
       <c r="V903" s="5"/>
       <c r="W903" s="5"/>
     </row>
-    <row r="904" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A904" s="5"/>
       <c r="B904" s="5"/>
       <c r="C904" s="5"/>
@@ -23330,7 +23400,7 @@
       <c r="V904" s="5"/>
       <c r="W904" s="5"/>
     </row>
-    <row r="905" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A905" s="5"/>
       <c r="B905" s="5"/>
       <c r="C905" s="5"/>
@@ -23355,7 +23425,7 @@
       <c r="V905" s="5"/>
       <c r="W905" s="5"/>
     </row>
-    <row r="906" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A906" s="5"/>
       <c r="B906" s="5"/>
       <c r="C906" s="5"/>
@@ -23380,7 +23450,7 @@
       <c r="V906" s="5"/>
       <c r="W906" s="5"/>
     </row>
-    <row r="907" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A907" s="5"/>
       <c r="B907" s="5"/>
       <c r="C907" s="5"/>
@@ -23405,7 +23475,7 @@
       <c r="V907" s="5"/>
       <c r="W907" s="5"/>
     </row>
-    <row r="908" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A908" s="5"/>
       <c r="B908" s="5"/>
       <c r="C908" s="5"/>
@@ -23430,7 +23500,7 @@
       <c r="V908" s="5"/>
       <c r="W908" s="5"/>
     </row>
-    <row r="909" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A909" s="5"/>
       <c r="B909" s="5"/>
       <c r="C909" s="5"/>
@@ -23455,7 +23525,7 @@
       <c r="V909" s="5"/>
       <c r="W909" s="5"/>
     </row>
-    <row r="910" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A910" s="5"/>
       <c r="B910" s="5"/>
       <c r="C910" s="5"/>
@@ -23480,7 +23550,7 @@
       <c r="V910" s="5"/>
       <c r="W910" s="5"/>
     </row>
-    <row r="911" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A911" s="5"/>
       <c r="B911" s="5"/>
       <c r="C911" s="5"/>
@@ -23505,7 +23575,7 @@
       <c r="V911" s="5"/>
       <c r="W911" s="5"/>
     </row>
-    <row r="912" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A912" s="5"/>
       <c r="B912" s="5"/>
       <c r="C912" s="5"/>
@@ -23530,7 +23600,7 @@
       <c r="V912" s="5"/>
       <c r="W912" s="5"/>
     </row>
-    <row r="913" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A913" s="5"/>
       <c r="B913" s="5"/>
       <c r="C913" s="5"/>
@@ -23555,7 +23625,7 @@
       <c r="V913" s="5"/>
       <c r="W913" s="5"/>
     </row>
-    <row r="914" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A914" s="5"/>
       <c r="B914" s="5"/>
       <c r="C914" s="5"/>
@@ -23580,7 +23650,7 @@
       <c r="V914" s="5"/>
       <c r="W914" s="5"/>
     </row>
-    <row r="915" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A915" s="5"/>
       <c r="B915" s="5"/>
       <c r="C915" s="5"/>
@@ -23605,7 +23675,7 @@
       <c r="V915" s="5"/>
       <c r="W915" s="5"/>
     </row>
-    <row r="916" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A916" s="5"/>
       <c r="B916" s="5"/>
       <c r="C916" s="5"/>
@@ -23630,7 +23700,7 @@
       <c r="V916" s="5"/>
       <c r="W916" s="5"/>
     </row>
-    <row r="917" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A917" s="5"/>
       <c r="B917" s="5"/>
       <c r="C917" s="5"/>
@@ -23655,7 +23725,7 @@
       <c r="V917" s="5"/>
       <c r="W917" s="5"/>
     </row>
-    <row r="918" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A918" s="5"/>
       <c r="B918" s="5"/>
       <c r="C918" s="5"/>
@@ -23680,7 +23750,7 @@
       <c r="V918" s="5"/>
       <c r="W918" s="5"/>
     </row>
-    <row r="919" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A919" s="5"/>
       <c r="B919" s="5"/>
       <c r="C919" s="5"/>
@@ -23705,7 +23775,7 @@
       <c r="V919" s="5"/>
       <c r="W919" s="5"/>
     </row>
-    <row r="920" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A920" s="5"/>
       <c r="B920" s="5"/>
       <c r="C920" s="5"/>
@@ -23730,7 +23800,7 @@
       <c r="V920" s="5"/>
       <c r="W920" s="5"/>
     </row>
-    <row r="921" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A921" s="5"/>
       <c r="B921" s="5"/>
       <c r="C921" s="5"/>
@@ -23755,7 +23825,7 @@
       <c r="V921" s="5"/>
       <c r="W921" s="5"/>
     </row>
-    <row r="922" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A922" s="5"/>
       <c r="B922" s="5"/>
       <c r="C922" s="5"/>
@@ -23780,7 +23850,7 @@
       <c r="V922" s="5"/>
       <c r="W922" s="5"/>
     </row>
-    <row r="923" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A923" s="5"/>
       <c r="B923" s="5"/>
       <c r="C923" s="5"/>
@@ -23805,7 +23875,7 @@
       <c r="V923" s="5"/>
       <c r="W923" s="5"/>
     </row>
-    <row r="924" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A924" s="5"/>
       <c r="B924" s="5"/>
       <c r="C924" s="5"/>
@@ -23830,7 +23900,7 @@
       <c r="V924" s="5"/>
       <c r="W924" s="5"/>
     </row>
-    <row r="925" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A925" s="5"/>
       <c r="B925" s="5"/>
       <c r="C925" s="5"/>
@@ -23855,7 +23925,7 @@
       <c r="V925" s="5"/>
       <c r="W925" s="5"/>
     </row>
-    <row r="926" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A926" s="5"/>
       <c r="B926" s="5"/>
       <c r="C926" s="5"/>
@@ -23880,7 +23950,7 @@
       <c r="V926" s="5"/>
       <c r="W926" s="5"/>
     </row>
-    <row r="927" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A927" s="5"/>
       <c r="B927" s="5"/>
       <c r="C927" s="5"/>
@@ -23905,7 +23975,7 @@
       <c r="V927" s="5"/>
       <c r="W927" s="5"/>
     </row>
-    <row r="928" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A928" s="5"/>
       <c r="B928" s="5"/>
       <c r="C928" s="5"/>
@@ -23930,7 +24000,7 @@
       <c r="V928" s="5"/>
       <c r="W928" s="5"/>
     </row>
-    <row r="929" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A929" s="5"/>
       <c r="B929" s="5"/>
       <c r="C929" s="5"/>
@@ -23955,7 +24025,7 @@
       <c r="V929" s="5"/>
       <c r="W929" s="5"/>
     </row>
-    <row r="930" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A930" s="5"/>
       <c r="B930" s="5"/>
       <c r="C930" s="5"/>
@@ -23980,7 +24050,7 @@
       <c r="V930" s="5"/>
       <c r="W930" s="5"/>
     </row>
-    <row r="931" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A931" s="5"/>
       <c r="B931" s="5"/>
       <c r="C931" s="5"/>
@@ -24005,7 +24075,7 @@
       <c r="V931" s="5"/>
       <c r="W931" s="5"/>
     </row>
-    <row r="932" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A932" s="5"/>
       <c r="B932" s="5"/>
       <c r="C932" s="5"/>
@@ -24030,7 +24100,7 @@
       <c r="V932" s="5"/>
       <c r="W932" s="5"/>
     </row>
-    <row r="933" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A933" s="5"/>
       <c r="B933" s="5"/>
       <c r="C933" s="5"/>
@@ -24055,7 +24125,7 @@
       <c r="V933" s="5"/>
       <c r="W933" s="5"/>
     </row>
-    <row r="934" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A934" s="5"/>
       <c r="B934" s="5"/>
       <c r="C934" s="5"/>
@@ -24080,7 +24150,7 @@
       <c r="V934" s="5"/>
       <c r="W934" s="5"/>
     </row>
-    <row r="935" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A935" s="5"/>
       <c r="B935" s="5"/>
       <c r="C935" s="5"/>
@@ -24105,7 +24175,7 @@
       <c r="V935" s="5"/>
       <c r="W935" s="5"/>
     </row>
-    <row r="936" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A936" s="5"/>
       <c r="B936" s="5"/>
       <c r="C936" s="5"/>
@@ -24130,7 +24200,7 @@
       <c r="V936" s="5"/>
       <c r="W936" s="5"/>
     </row>
-    <row r="937" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A937" s="5"/>
       <c r="B937" s="5"/>
       <c r="C937" s="5"/>
@@ -24155,7 +24225,7 @@
       <c r="V937" s="5"/>
       <c r="W937" s="5"/>
     </row>
-    <row r="938" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A938" s="5"/>
       <c r="B938" s="5"/>
       <c r="C938" s="5"/>
@@ -24180,7 +24250,7 @@
       <c r="V938" s="5"/>
       <c r="W938" s="5"/>
     </row>
-    <row r="939" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A939" s="5"/>
       <c r="B939" s="5"/>
       <c r="C939" s="5"/>
@@ -24205,7 +24275,7 @@
       <c r="V939" s="5"/>
       <c r="W939" s="5"/>
     </row>
-    <row r="940" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A940" s="5"/>
       <c r="B940" s="5"/>
       <c r="C940" s="5"/>
@@ -24230,7 +24300,7 @@
       <c r="V940" s="5"/>
       <c r="W940" s="5"/>
     </row>
-    <row r="941" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A941" s="5"/>
       <c r="B941" s="5"/>
       <c r="C941" s="5"/>
@@ -24255,7 +24325,7 @@
       <c r="V941" s="5"/>
       <c r="W941" s="5"/>
     </row>
-    <row r="942" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A942" s="5"/>
       <c r="B942" s="5"/>
       <c r="C942" s="5"/>
@@ -24280,7 +24350,7 @@
       <c r="V942" s="5"/>
       <c r="W942" s="5"/>
     </row>
-    <row r="943" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A943" s="5"/>
       <c r="B943" s="5"/>
       <c r="C943" s="5"/>
@@ -24305,7 +24375,7 @@
       <c r="V943" s="5"/>
       <c r="W943" s="5"/>
     </row>
-    <row r="944" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A944" s="5"/>
       <c r="B944" s="5"/>
       <c r="C944" s="5"/>
@@ -24330,7 +24400,7 @@
       <c r="V944" s="5"/>
       <c r="W944" s="5"/>
     </row>
-    <row r="945" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A945" s="5"/>
       <c r="B945" s="5"/>
       <c r="C945" s="5"/>
@@ -24355,7 +24425,7 @@
       <c r="V945" s="5"/>
       <c r="W945" s="5"/>
     </row>
-    <row r="946" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A946" s="5"/>
       <c r="B946" s="5"/>
       <c r="C946" s="5"/>
@@ -24380,7 +24450,7 @@
       <c r="V946" s="5"/>
       <c r="W946" s="5"/>
     </row>
-    <row r="947" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A947" s="5"/>
       <c r="B947" s="5"/>
       <c r="C947" s="5"/>
@@ -24405,7 +24475,7 @@
       <c r="V947" s="5"/>
       <c r="W947" s="5"/>
     </row>
-    <row r="948" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A948" s="5"/>
       <c r="B948" s="5"/>
       <c r="C948" s="5"/>
@@ -24430,7 +24500,7 @@
       <c r="V948" s="5"/>
       <c r="W948" s="5"/>
     </row>
-    <row r="949" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A949" s="5"/>
       <c r="B949" s="5"/>
       <c r="C949" s="5"/>
@@ -24455,7 +24525,7 @@
       <c r="V949" s="5"/>
       <c r="W949" s="5"/>
     </row>
-    <row r="950" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A950" s="5"/>
       <c r="B950" s="5"/>
       <c r="C950" s="5"/>
@@ -24480,7 +24550,7 @@
       <c r="V950" s="5"/>
       <c r="W950" s="5"/>
     </row>
-    <row r="951" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A951" s="5"/>
       <c r="B951" s="5"/>
       <c r="C951" s="5"/>
@@ -24505,7 +24575,7 @@
       <c r="V951" s="5"/>
       <c r="W951" s="5"/>
     </row>
-    <row r="952" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A952" s="5"/>
       <c r="B952" s="5"/>
       <c r="C952" s="5"/>
@@ -24530,7 +24600,7 @@
       <c r="V952" s="5"/>
       <c r="W952" s="5"/>
     </row>
-    <row r="953" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A953" s="5"/>
       <c r="B953" s="5"/>
       <c r="C953" s="5"/>
@@ -24555,7 +24625,7 @@
       <c r="V953" s="5"/>
       <c r="W953" s="5"/>
     </row>
-    <row r="954" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A954" s="5"/>
       <c r="B954" s="5"/>
       <c r="C954" s="5"/>
@@ -24580,7 +24650,7 @@
       <c r="V954" s="5"/>
       <c r="W954" s="5"/>
     </row>
-    <row r="955" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A955" s="5"/>
       <c r="B955" s="5"/>
       <c r="C955" s="5"/>
@@ -24605,7 +24675,7 @@
       <c r="V955" s="5"/>
       <c r="W955" s="5"/>
     </row>
-    <row r="956" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A956" s="5"/>
       <c r="B956" s="5"/>
       <c r="C956" s="5"/>
@@ -24630,7 +24700,7 @@
       <c r="V956" s="5"/>
       <c r="W956" s="5"/>
     </row>
-    <row r="957" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A957" s="5"/>
       <c r="B957" s="5"/>
       <c r="C957" s="5"/>
@@ -24655,7 +24725,7 @@
       <c r="V957" s="5"/>
       <c r="W957" s="5"/>
     </row>
-    <row r="958" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A958" s="5"/>
       <c r="B958" s="5"/>
       <c r="C958" s="5"/>
@@ -24680,7 +24750,7 @@
       <c r="V958" s="5"/>
       <c r="W958" s="5"/>
     </row>
-    <row r="959" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A959" s="5"/>
       <c r="B959" s="5"/>
       <c r="C959" s="5"/>
@@ -24705,7 +24775,7 @@
       <c r="V959" s="5"/>
       <c r="W959" s="5"/>
     </row>
-    <row r="960" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A960" s="5"/>
       <c r="B960" s="5"/>
       <c r="C960" s="5"/>
@@ -24730,7 +24800,7 @@
       <c r="V960" s="5"/>
       <c r="W960" s="5"/>
     </row>
-    <row r="961" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A961" s="5"/>
       <c r="B961" s="5"/>
       <c r="C961" s="5"/>
@@ -24755,7 +24825,7 @@
       <c r="V961" s="5"/>
       <c r="W961" s="5"/>
     </row>
-    <row r="962" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A962" s="5"/>
       <c r="B962" s="5"/>
       <c r="C962" s="5"/>
@@ -24780,7 +24850,7 @@
       <c r="V962" s="5"/>
       <c r="W962" s="5"/>
     </row>
-    <row r="963" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A963" s="5"/>
       <c r="B963" s="5"/>
       <c r="C963" s="5"/>
@@ -24805,7 +24875,7 @@
       <c r="V963" s="5"/>
       <c r="W963" s="5"/>
     </row>
-    <row r="964" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A964" s="5"/>
       <c r="B964" s="5"/>
       <c r="C964" s="5"/>
@@ -24830,7 +24900,7 @@
       <c r="V964" s="5"/>
       <c r="W964" s="5"/>
     </row>
-    <row r="965" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A965" s="5"/>
       <c r="B965" s="5"/>
       <c r="C965" s="5"/>
@@ -24855,7 +24925,7 @@
       <c r="V965" s="5"/>
       <c r="W965" s="5"/>
     </row>
-    <row r="966" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A966" s="5"/>
       <c r="B966" s="5"/>
       <c r="C966" s="5"/>
@@ -24880,7 +24950,7 @@
       <c r="V966" s="5"/>
       <c r="W966" s="5"/>
     </row>
-    <row r="967" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A967" s="5"/>
       <c r="B967" s="5"/>
       <c r="C967" s="5"/>
@@ -24905,7 +24975,7 @@
       <c r="V967" s="5"/>
       <c r="W967" s="5"/>
     </row>
-    <row r="968" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A968" s="5"/>
       <c r="B968" s="5"/>
       <c r="C968" s="5"/>
@@ -24930,7 +25000,7 @@
       <c r="V968" s="5"/>
       <c r="W968" s="5"/>
     </row>
-    <row r="969" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A969" s="5"/>
       <c r="B969" s="5"/>
       <c r="C969" s="5"/>
@@ -24955,7 +25025,7 @@
       <c r="V969" s="5"/>
       <c r="W969" s="5"/>
     </row>
-    <row r="970" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A970" s="5"/>
       <c r="B970" s="5"/>
       <c r="C970" s="5"/>
@@ -24980,7 +25050,7 @@
       <c r="V970" s="5"/>
       <c r="W970" s="5"/>
     </row>
-    <row r="971" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A971" s="5"/>
       <c r="B971" s="5"/>
       <c r="C971" s="5"/>
@@ -25005,7 +25075,7 @@
       <c r="V971" s="5"/>
       <c r="W971" s="5"/>
     </row>
-    <row r="972" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A972" s="5"/>
       <c r="B972" s="5"/>
       <c r="C972" s="5"/>
@@ -25030,7 +25100,7 @@
       <c r="V972" s="5"/>
       <c r="W972" s="5"/>
     </row>
-    <row r="973" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A973" s="5"/>
       <c r="B973" s="5"/>
       <c r="C973" s="5"/>
@@ -25055,7 +25125,7 @@
       <c r="V973" s="5"/>
       <c r="W973" s="5"/>
     </row>
-    <row r="974" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A974" s="5"/>
       <c r="B974" s="5"/>
       <c r="C974" s="5"/>
@@ -25080,7 +25150,7 @@
       <c r="V974" s="5"/>
       <c r="W974" s="5"/>
     </row>
-    <row r="975" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A975" s="5"/>
       <c r="B975" s="5"/>
       <c r="C975" s="5"/>
@@ -25105,7 +25175,7 @@
       <c r="V975" s="5"/>
       <c r="W975" s="5"/>
     </row>
-    <row r="976" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A976" s="5"/>
       <c r="B976" s="5"/>
       <c r="C976" s="5"/>
@@ -25130,7 +25200,7 @@
       <c r="V976" s="5"/>
       <c r="W976" s="5"/>
     </row>
-    <row r="977" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A977" s="5"/>
       <c r="B977" s="5"/>
       <c r="C977" s="5"/>
@@ -25155,7 +25225,7 @@
       <c r="V977" s="5"/>
       <c r="W977" s="5"/>
     </row>
-    <row r="978" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A978" s="5"/>
       <c r="B978" s="5"/>
       <c r="C978" s="5"/>
@@ -25180,7 +25250,7 @@
       <c r="V978" s="5"/>
       <c r="W978" s="5"/>
     </row>
-    <row r="979" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A979" s="5"/>
       <c r="B979" s="5"/>
       <c r="C979" s="5"/>
@@ -25205,7 +25275,7 @@
       <c r="V979" s="5"/>
       <c r="W979" s="5"/>
     </row>
-    <row r="980" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A980" s="5"/>
       <c r="B980" s="5"/>
       <c r="C980" s="5"/>
@@ -25230,7 +25300,7 @@
       <c r="V980" s="5"/>
       <c r="W980" s="5"/>
     </row>
-    <row r="981" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A981" s="5"/>
       <c r="B981" s="5"/>
       <c r="C981" s="5"/>
@@ -25255,7 +25325,7 @@
       <c r="V981" s="5"/>
       <c r="W981" s="5"/>
     </row>
-    <row r="982" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A982" s="5"/>
       <c r="B982" s="5"/>
       <c r="C982" s="5"/>
@@ -25280,7 +25350,7 @@
       <c r="V982" s="5"/>
       <c r="W982" s="5"/>
     </row>
-    <row r="983" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A983" s="5"/>
       <c r="B983" s="5"/>
       <c r="C983" s="5"/>
@@ -25305,7 +25375,7 @@
       <c r="V983" s="5"/>
       <c r="W983" s="5"/>
     </row>
-    <row r="984" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A984" s="5"/>
       <c r="B984" s="5"/>
       <c r="C984" s="5"/>
@@ -25330,7 +25400,7 @@
       <c r="V984" s="5"/>
       <c r="W984" s="5"/>
     </row>
-    <row r="985" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A985" s="5"/>
       <c r="B985" s="5"/>
       <c r="C985" s="5"/>
@@ -25355,7 +25425,7 @@
       <c r="V985" s="5"/>
       <c r="W985" s="5"/>
     </row>
-    <row r="986" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A986" s="5"/>
       <c r="B986" s="5"/>
       <c r="C986" s="5"/>
@@ -25380,7 +25450,7 @@
       <c r="V986" s="5"/>
       <c r="W986" s="5"/>
     </row>
-    <row r="987" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A987" s="5"/>
       <c r="B987" s="5"/>
       <c r="C987" s="5"/>
@@ -25405,7 +25475,7 @@
       <c r="V987" s="5"/>
       <c r="W987" s="5"/>
     </row>
-    <row r="988" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A988" s="5"/>
       <c r="B988" s="5"/>
       <c r="C988" s="5"/>
@@ -25430,7 +25500,7 @@
       <c r="V988" s="5"/>
       <c r="W988" s="5"/>
     </row>
-    <row r="989" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A989" s="5"/>
       <c r="B989" s="5"/>
       <c r="C989" s="5"/>
@@ -25455,7 +25525,7 @@
       <c r="V989" s="5"/>
       <c r="W989" s="5"/>
     </row>
-    <row r="990" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A990" s="5"/>
       <c r="B990" s="5"/>
       <c r="C990" s="5"/>
@@ -25480,7 +25550,7 @@
       <c r="V990" s="5"/>
       <c r="W990" s="5"/>
     </row>
-    <row r="991" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A991" s="5"/>
       <c r="B991" s="5"/>
       <c r="C991" s="5"/>
@@ -25505,7 +25575,7 @@
       <c r="V991" s="5"/>
       <c r="W991" s="5"/>
     </row>
-    <row r="992" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A992" s="5"/>
       <c r="B992" s="5"/>
       <c r="C992" s="5"/>
@@ -25530,7 +25600,7 @@
       <c r="V992" s="5"/>
       <c r="W992" s="5"/>
     </row>
-    <row r="993" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A993" s="5"/>
       <c r="B993" s="5"/>
       <c r="C993" s="5"/>
@@ -25555,7 +25625,7 @@
       <c r="V993" s="5"/>
       <c r="W993" s="5"/>
     </row>
-    <row r="994" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A994" s="5"/>
       <c r="B994" s="5"/>
       <c r="C994" s="5"/>
@@ -25580,7 +25650,7 @@
       <c r="V994" s="5"/>
       <c r="W994" s="5"/>
     </row>
-    <row r="995" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A995" s="5"/>
       <c r="B995" s="5"/>
       <c r="C995" s="5"/>
@@ -25605,7 +25675,7 @@
       <c r="V995" s="5"/>
       <c r="W995" s="5"/>
     </row>
-    <row r="996" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A996" s="5"/>
       <c r="B996" s="5"/>
       <c r="C996" s="5"/>
@@ -25630,7 +25700,7 @@
       <c r="V996" s="5"/>
       <c r="W996" s="5"/>
     </row>
-    <row r="997" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A997" s="5"/>
       <c r="B997" s="5"/>
       <c r="C997" s="5"/>
@@ -25655,7 +25725,7 @@
       <c r="V997" s="5"/>
       <c r="W997" s="5"/>
     </row>
-    <row r="998" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A998" s="5"/>
       <c r="B998" s="5"/>
       <c r="C998" s="5"/>
@@ -25680,7 +25750,7 @@
       <c r="V998" s="5"/>
       <c r="W998" s="5"/>
     </row>
-    <row r="999" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A999" s="5"/>
       <c r="B999" s="5"/>
       <c r="C999" s="5"/>
@@ -25705,7 +25775,7 @@
       <c r="V999" s="5"/>
       <c r="W999" s="5"/>
     </row>
-    <row r="1000" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1000" s="5"/>
       <c r="B1000" s="5"/>
       <c r="C1000" s="5"/>
